--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_23_39.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_23_39.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3679760.46766987</v>
+        <v>3677324.352159689</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>59030.25039049335</v>
+        <v>59030.2503904925</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7461081.164711246</v>
+        <v>7461081.164711247</v>
       </c>
     </row>
     <row r="11">
@@ -735,14 +735,14 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>4.562286607642875</v>
       </c>
       <c r="C3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" t="n">
         <v>4.018462044011843</v>
       </c>
-      <c r="D3" t="n">
-        <v>0</v>
-      </c>
       <c r="E3" t="n">
         <v>0</v>
       </c>
@@ -786,13 +786,13 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
+        <v>0</v>
+      </c>
+      <c r="T3" t="n">
+        <v>0</v>
+      </c>
+      <c r="U3" t="n">
         <v>4.562286607642875</v>
-      </c>
-      <c r="T3" t="n">
-        <v>4.562286607642875</v>
-      </c>
-      <c r="U3" t="n">
-        <v>0</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -972,67 +972,67 @@
         </is>
       </c>
       <c r="B6" t="n">
+        <v>0</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" t="n">
+        <v>6.056421089299432</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>0</v>
+      </c>
+      <c r="R6" t="n">
+        <v>0</v>
+      </c>
+      <c r="S6" t="n">
         <v>6.876045741711437</v>
       </c>
-      <c r="C6" t="n">
-        <v>0</v>
-      </c>
-      <c r="D6" t="n">
+      <c r="T6" t="n">
+        <v>0</v>
+      </c>
+      <c r="U6" t="n">
+        <v>0</v>
+      </c>
+      <c r="V6" t="n">
         <v>6.876045741711437</v>
-      </c>
-      <c r="E6" t="n">
-        <v>0</v>
-      </c>
-      <c r="F6" t="n">
-        <v>6.056421089299432</v>
-      </c>
-      <c r="G6" t="n">
-        <v>0</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J6" t="n">
-        <v>0</v>
-      </c>
-      <c r="K6" t="n">
-        <v>0</v>
-      </c>
-      <c r="L6" t="n">
-        <v>0</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" t="n">
-        <v>0</v>
-      </c>
-      <c r="O6" t="n">
-        <v>0</v>
-      </c>
-      <c r="P6" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>0</v>
-      </c>
-      <c r="R6" t="n">
-        <v>0</v>
-      </c>
-      <c r="S6" t="n">
-        <v>0</v>
-      </c>
-      <c r="T6" t="n">
-        <v>0</v>
-      </c>
-      <c r="U6" t="n">
-        <v>0</v>
-      </c>
-      <c r="V6" t="n">
-        <v>0</v>
       </c>
       <c r="W6" t="n">
         <v>0</v>
@@ -1145,7 +1145,7 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>6.876045741711437</v>
+        <v>6.876045741711465</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1209,7 +1209,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>6.876045741711437</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
@@ -1218,7 +1218,7 @@
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>6.876045741711437</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
@@ -1254,10 +1254,10 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>6.056421089299459</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>6.876045741711465</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -1269,16 +1269,16 @@
         <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>6.05642108929943</v>
+        <v>6.876045741711465</v>
       </c>
       <c r="W9" t="n">
         <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>6.876045741711465</v>
       </c>
       <c r="Y9" t="n">
-        <v>6.876045741711437</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>350.147238456044</v>
+        <v>305.0328032594555</v>
       </c>
       <c r="C11" t="n">
         <v>332.6862885635709</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>60.44040843219094</v>
+        <v>60.44040843219089</v>
       </c>
       <c r="T11" t="n">
         <v>168.2268717582825</v>
@@ -1427,7 +1427,7 @@
         <v>218.3518332599949</v>
       </c>
       <c r="V11" t="n">
-        <v>250.051220066109</v>
+        <v>295.1656552626983</v>
       </c>
       <c r="W11" t="n">
         <v>316.6543655099764</v>
@@ -1467,7 +1467,7 @@
         <v>85.9321674451345</v>
       </c>
       <c r="I12" t="n">
-        <v>5.752751111629706</v>
+        <v>5.752751111629678</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1540,13 +1540,13 @@
         <v>112.8344448154946</v>
       </c>
       <c r="G13" t="n">
-        <v>133.121085198034</v>
+        <v>133.1210851980339</v>
       </c>
       <c r="H13" t="n">
         <v>109.3400370088897</v>
       </c>
       <c r="I13" t="n">
-        <v>54.19908560632211</v>
+        <v>54.19908560632208</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>42.04172404719095</v>
+        <v>42.04172404719093</v>
       </c>
       <c r="S13" t="n">
         <v>151.6384606760959</v>
@@ -1610,13 +1610,13 @@
         <v>332.6862885635709</v>
       </c>
       <c r="D14" t="n">
-        <v>276.982003216658</v>
+        <v>322.0964384132463</v>
       </c>
       <c r="E14" t="n">
         <v>349.3437668648252</v>
       </c>
       <c r="F14" t="n">
-        <v>374.2894425342748</v>
+        <v>329.1750073376865</v>
       </c>
       <c r="G14" t="n">
         <v>377.6259288026357</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>60.44040843219088</v>
+        <v>60.44040843219091</v>
       </c>
       <c r="T14" t="n">
         <v>168.2268717582825</v>
@@ -1701,10 +1701,10 @@
         <v>134.6200171139688</v>
       </c>
       <c r="H15" t="n">
-        <v>85.93216744513448</v>
+        <v>85.9321674451345</v>
       </c>
       <c r="I15" t="n">
-        <v>5.752751111629649</v>
+        <v>5.752751111629692</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1768,7 +1768,7 @@
         <v>134.6602178911912</v>
       </c>
       <c r="D16" t="n">
-        <v>116.0288698107758</v>
+        <v>116.0288698107757</v>
       </c>
       <c r="E16" t="n">
         <v>113.8473594391326</v>
@@ -1783,7 +1783,7 @@
         <v>109.3400370088897</v>
       </c>
       <c r="I16" t="n">
-        <v>54.19908560632207</v>
+        <v>54.1990856063221</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>42.04172404719088</v>
+        <v>42.04172404719094</v>
       </c>
       <c r="S16" t="n">
         <v>151.6384606760959</v>
@@ -1844,13 +1844,13 @@
         <v>346.9247787991447</v>
       </c>
       <c r="C17" t="n">
-        <v>329.4638289066717</v>
+        <v>329.463828906673</v>
       </c>
       <c r="D17" t="n">
         <v>318.8739787563471</v>
       </c>
       <c r="E17" t="n">
-        <v>346.121307207926</v>
+        <v>346.1213072079259</v>
       </c>
       <c r="F17" t="n">
         <v>371.0669828773756</v>
@@ -1859,7 +1859,7 @@
         <v>374.4034691457364</v>
       </c>
       <c r="H17" t="n">
-        <v>251.5356721227073</v>
+        <v>251.5356721227072</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1892,25 +1892,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>57.2179487752914</v>
+        <v>57.21794877529159</v>
       </c>
       <c r="T17" t="n">
-        <v>165.0044121013833</v>
+        <v>165.0044121013832</v>
       </c>
       <c r="U17" t="n">
         <v>215.1293736030956</v>
       </c>
       <c r="V17" t="n">
-        <v>291.9431956057991</v>
+        <v>291.943195605799</v>
       </c>
       <c r="W17" t="n">
-        <v>313.4319058530772</v>
+        <v>313.4319058530771</v>
       </c>
       <c r="X17" t="n">
-        <v>333.9220378141332</v>
+        <v>333.9220378141331</v>
       </c>
       <c r="Y17" t="n">
-        <v>350.4288757917178</v>
+        <v>350.4288757917177</v>
       </c>
     </row>
     <row r="18">
@@ -1941,7 +1941,7 @@
         <v>85.9321674451345</v>
       </c>
       <c r="I18" t="n">
-        <v>5.752751111629692</v>
+        <v>5.752751111629678</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1999,28 +1999,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>144.0229173176015</v>
+        <v>144.0229173176014</v>
       </c>
       <c r="C19" t="n">
-        <v>131.437758234292</v>
+        <v>131.4377582342919</v>
       </c>
       <c r="D19" t="n">
-        <v>112.8064101538765</v>
+        <v>112.8064101538764</v>
       </c>
       <c r="E19" t="n">
-        <v>110.6248997822334</v>
+        <v>110.6248997822333</v>
       </c>
       <c r="F19" t="n">
-        <v>109.6119851585954</v>
+        <v>109.6119851585953</v>
       </c>
       <c r="G19" t="n">
-        <v>129.8986255411348</v>
+        <v>129.8986255411347</v>
       </c>
       <c r="H19" t="n">
-        <v>106.1175773519905</v>
+        <v>106.1175773519904</v>
       </c>
       <c r="I19" t="n">
-        <v>50.9766259494229</v>
+        <v>50.97662594942278</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,28 +2047,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>38.81926439029172</v>
+        <v>38.81926439029162</v>
       </c>
       <c r="S19" t="n">
-        <v>148.4160010191967</v>
+        <v>148.4160010191966</v>
       </c>
       <c r="T19" t="n">
-        <v>182.3806470375416</v>
+        <v>182.3806470375415</v>
       </c>
       <c r="U19" t="n">
-        <v>250.3854233492648</v>
+        <v>250.3854233492647</v>
       </c>
       <c r="V19" t="n">
-        <v>216.3285804594922</v>
+        <v>216.3285804594921</v>
       </c>
       <c r="W19" t="n">
-        <v>250.7139354722552</v>
+        <v>250.7139354722551</v>
       </c>
       <c r="X19" t="n">
-        <v>189.9005925247013</v>
+        <v>189.9005925247012</v>
       </c>
       <c r="Y19" t="n">
-        <v>182.775590487759</v>
+        <v>182.7755904877589</v>
       </c>
     </row>
     <row r="20">
@@ -2084,10 +2084,10 @@
         <v>329.4638289066717</v>
       </c>
       <c r="D20" t="n">
-        <v>318.8739787563473</v>
+        <v>318.8739787563484</v>
       </c>
       <c r="E20" t="n">
-        <v>346.121307207926</v>
+        <v>346.1213072079259</v>
       </c>
       <c r="F20" t="n">
         <v>371.0669828773756</v>
@@ -2096,7 +2096,7 @@
         <v>374.4034691457364</v>
       </c>
       <c r="H20" t="n">
-        <v>251.5356721227073</v>
+        <v>251.5356721227072</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2129,25 +2129,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>57.21794877529172</v>
+        <v>57.21794877529159</v>
       </c>
       <c r="T20" t="n">
-        <v>165.0044121013833</v>
+        <v>165.0044121013832</v>
       </c>
       <c r="U20" t="n">
         <v>215.1293736030956</v>
       </c>
       <c r="V20" t="n">
-        <v>291.9431956057991</v>
+        <v>291.943195605799</v>
       </c>
       <c r="W20" t="n">
-        <v>313.4319058530772</v>
+        <v>313.4319058530771</v>
       </c>
       <c r="X20" t="n">
-        <v>333.9220378141332</v>
+        <v>333.9220378141331</v>
       </c>
       <c r="Y20" t="n">
-        <v>350.4288757917178</v>
+        <v>350.4288757917177</v>
       </c>
     </row>
     <row r="21">
@@ -2178,7 +2178,7 @@
         <v>85.9321674451345</v>
       </c>
       <c r="I21" t="n">
-        <v>5.752751111629692</v>
+        <v>5.752751111629678</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2236,28 +2236,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>144.0229173176015</v>
+        <v>144.0229173176014</v>
       </c>
       <c r="C22" t="n">
-        <v>131.437758234292</v>
+        <v>131.4377582342919</v>
       </c>
       <c r="D22" t="n">
-        <v>112.8064101538765</v>
+        <v>112.8064101538764</v>
       </c>
       <c r="E22" t="n">
-        <v>110.6248997822334</v>
+        <v>110.6248997822333</v>
       </c>
       <c r="F22" t="n">
-        <v>109.6119851585954</v>
+        <v>109.6119851585953</v>
       </c>
       <c r="G22" t="n">
-        <v>129.8986255411348</v>
+        <v>129.8986255411347</v>
       </c>
       <c r="H22" t="n">
-        <v>106.1175773519905</v>
+        <v>106.1175773519904</v>
       </c>
       <c r="I22" t="n">
-        <v>50.9766259494229</v>
+        <v>50.97662594942278</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,28 +2284,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>38.81926439029172</v>
+        <v>38.81926439029162</v>
       </c>
       <c r="S22" t="n">
-        <v>148.4160010191967</v>
+        <v>148.4160010191966</v>
       </c>
       <c r="T22" t="n">
-        <v>182.3806470375416</v>
+        <v>182.3806470375415</v>
       </c>
       <c r="U22" t="n">
-        <v>250.3854233492648</v>
+        <v>250.3854233492647</v>
       </c>
       <c r="V22" t="n">
-        <v>216.3285804594922</v>
+        <v>216.3285804594921</v>
       </c>
       <c r="W22" t="n">
-        <v>250.7139354722552</v>
+        <v>250.7139354722551</v>
       </c>
       <c r="X22" t="n">
-        <v>189.9005925247013</v>
+        <v>189.9005925247012</v>
       </c>
       <c r="Y22" t="n">
-        <v>182.775590487759</v>
+        <v>182.7755904877589</v>
       </c>
     </row>
     <row r="23">
@@ -2324,7 +2324,7 @@
         <v>318.8739787563471</v>
       </c>
       <c r="E23" t="n">
-        <v>346.121307207926</v>
+        <v>346.1213072079259</v>
       </c>
       <c r="F23" t="n">
         <v>371.0669828773756</v>
@@ -2333,7 +2333,7 @@
         <v>374.4034691457364</v>
       </c>
       <c r="H23" t="n">
-        <v>251.5356721227073</v>
+        <v>251.5356721227072</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2366,25 +2366,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>57.21794877529172</v>
+        <v>57.21794877529161</v>
       </c>
       <c r="T23" t="n">
-        <v>165.0044121013833</v>
+        <v>165.0044121013832</v>
       </c>
       <c r="U23" t="n">
         <v>215.1293736030956</v>
       </c>
       <c r="V23" t="n">
-        <v>291.9431956057991</v>
+        <v>291.943195605799</v>
       </c>
       <c r="W23" t="n">
-        <v>313.4319058530772</v>
+        <v>313.4319058530771</v>
       </c>
       <c r="X23" t="n">
-        <v>333.9220378141332</v>
+        <v>333.9220378141331</v>
       </c>
       <c r="Y23" t="n">
-        <v>350.4288757917178</v>
+        <v>350.4288757917177</v>
       </c>
     </row>
     <row r="24">
@@ -2473,28 +2473,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>144.0229173176015</v>
+        <v>144.0229173176014</v>
       </c>
       <c r="C25" t="n">
-        <v>131.437758234292</v>
+        <v>131.4377582342919</v>
       </c>
       <c r="D25" t="n">
-        <v>112.8064101538765</v>
+        <v>112.8064101538764</v>
       </c>
       <c r="E25" t="n">
-        <v>110.6248997822334</v>
+        <v>110.6248997822333</v>
       </c>
       <c r="F25" t="n">
-        <v>109.6119851585954</v>
+        <v>109.6119851585953</v>
       </c>
       <c r="G25" t="n">
-        <v>129.8986255411348</v>
+        <v>129.8986255411347</v>
       </c>
       <c r="H25" t="n">
-        <v>106.1175773519905</v>
+        <v>106.1175773519904</v>
       </c>
       <c r="I25" t="n">
-        <v>50.9766259494229</v>
+        <v>50.9766259494228</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,28 +2521,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>38.81926439029172</v>
+        <v>38.81926439029164</v>
       </c>
       <c r="S25" t="n">
-        <v>148.4160010191967</v>
+        <v>148.4160010191966</v>
       </c>
       <c r="T25" t="n">
-        <v>182.3806470375416</v>
+        <v>182.3806470375415</v>
       </c>
       <c r="U25" t="n">
-        <v>250.3854233492648</v>
+        <v>250.3854233492647</v>
       </c>
       <c r="V25" t="n">
-        <v>216.3285804594922</v>
+        <v>216.3285804594921</v>
       </c>
       <c r="W25" t="n">
-        <v>250.7139354722552</v>
+        <v>250.7139354722551</v>
       </c>
       <c r="X25" t="n">
-        <v>189.9005925247013</v>
+        <v>189.9005925247012</v>
       </c>
       <c r="Y25" t="n">
-        <v>182.775590487759</v>
+        <v>182.7755904877589</v>
       </c>
     </row>
     <row r="26">
@@ -2552,7 +2552,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>350.147238456044</v>
+        <v>350.1472384560439</v>
       </c>
       <c r="C26" t="n">
         <v>332.6862885635709</v>
@@ -2561,13 +2561,13 @@
         <v>322.0964384132463</v>
       </c>
       <c r="E26" t="n">
-        <v>349.3437668648252</v>
+        <v>349.3437668648251</v>
       </c>
       <c r="F26" t="n">
         <v>374.2894425342748</v>
       </c>
       <c r="G26" t="n">
-        <v>377.6259288026357</v>
+        <v>332.5114936060478</v>
       </c>
       <c r="H26" t="n">
         <v>254.7581317796065</v>
@@ -2603,25 +2603,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>15.32597323560005</v>
+        <v>60.44040843219088</v>
       </c>
       <c r="T26" t="n">
         <v>168.2268717582825</v>
       </c>
       <c r="U26" t="n">
-        <v>218.3518332599949</v>
+        <v>218.3518332599948</v>
       </c>
       <c r="V26" t="n">
-        <v>295.1656552626983</v>
+        <v>295.1656552626982</v>
       </c>
       <c r="W26" t="n">
-        <v>316.6543655099764</v>
+        <v>316.6543655099763</v>
       </c>
       <c r="X26" t="n">
         <v>337.1444974710324</v>
       </c>
       <c r="Y26" t="n">
-        <v>353.651335448617</v>
+        <v>353.6513354486169</v>
       </c>
     </row>
     <row r="27">
@@ -2731,7 +2731,7 @@
         <v>109.3400370088897</v>
       </c>
       <c r="I28" t="n">
-        <v>54.19908560632209</v>
+        <v>54.19908560632206</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>42.04172404719093</v>
+        <v>42.0417240471909</v>
       </c>
       <c r="S28" t="n">
         <v>151.6384606760959</v>
@@ -2789,7 +2789,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>305.0328032594555</v>
+        <v>350.1472384560439</v>
       </c>
       <c r="C29" t="n">
         <v>332.6862885635709</v>
@@ -2798,13 +2798,13 @@
         <v>322.0964384132463</v>
       </c>
       <c r="E29" t="n">
-        <v>349.3437668648252</v>
+        <v>349.3437668648251</v>
       </c>
       <c r="F29" t="n">
         <v>374.2894425342748</v>
       </c>
       <c r="G29" t="n">
-        <v>377.6259288026357</v>
+        <v>332.5114936060478</v>
       </c>
       <c r="H29" t="n">
         <v>254.7581317796065</v>
@@ -2840,25 +2840,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>60.44040843219091</v>
+        <v>60.44040843219088</v>
       </c>
       <c r="T29" t="n">
         <v>168.2268717582825</v>
       </c>
       <c r="U29" t="n">
-        <v>218.3518332599949</v>
+        <v>218.3518332599948</v>
       </c>
       <c r="V29" t="n">
-        <v>295.1656552626983</v>
+        <v>295.1656552626982</v>
       </c>
       <c r="W29" t="n">
-        <v>316.6543655099764</v>
+        <v>316.6543655099763</v>
       </c>
       <c r="X29" t="n">
         <v>337.1444974710324</v>
       </c>
       <c r="Y29" t="n">
-        <v>353.651335448617</v>
+        <v>353.6513354486169</v>
       </c>
     </row>
     <row r="30">
@@ -2956,19 +2956,19 @@
         <v>116.0288698107757</v>
       </c>
       <c r="E31" t="n">
-        <v>113.8473594391326</v>
+        <v>113.8473594391325</v>
       </c>
       <c r="F31" t="n">
         <v>112.8344448154946</v>
       </c>
       <c r="G31" t="n">
-        <v>133.121085198034</v>
+        <v>133.1210851980339</v>
       </c>
       <c r="H31" t="n">
         <v>109.3400370088897</v>
       </c>
       <c r="I31" t="n">
-        <v>54.1990856063221</v>
+        <v>54.19908560632206</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>42.04172404719094</v>
+        <v>42.0417240471909</v>
       </c>
       <c r="S31" t="n">
         <v>151.6384606760959</v>
@@ -3026,22 +3026,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>346.9247787991447</v>
+        <v>346.9247787991446</v>
       </c>
       <c r="C32" t="n">
-        <v>329.4638289066717</v>
+        <v>329.4638289066716</v>
       </c>
       <c r="D32" t="n">
-        <v>318.8739787563471</v>
+        <v>318.873978756347</v>
       </c>
       <c r="E32" t="n">
-        <v>346.1213072079259</v>
+        <v>346.1213072079258</v>
       </c>
       <c r="F32" t="n">
-        <v>371.0669828773756</v>
+        <v>371.0669828773755</v>
       </c>
       <c r="G32" t="n">
-        <v>374.4034691457364</v>
+        <v>374.4034691457363</v>
       </c>
       <c r="H32" t="n">
         <v>251.5356721227072</v>
@@ -3077,13 +3077,13 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>57.21794877529161</v>
+        <v>57.21794877529157</v>
       </c>
       <c r="T32" t="n">
         <v>165.0044121013832</v>
       </c>
       <c r="U32" t="n">
-        <v>215.1293736030956</v>
+        <v>215.1293736030955</v>
       </c>
       <c r="V32" t="n">
         <v>291.943195605799</v>
@@ -3095,7 +3095,7 @@
         <v>333.9220378141331</v>
       </c>
       <c r="Y32" t="n">
-        <v>350.4288757917177</v>
+        <v>350.4288757917176</v>
       </c>
     </row>
     <row r="33">
@@ -3193,19 +3193,19 @@
         <v>112.8064101538764</v>
       </c>
       <c r="E34" t="n">
-        <v>110.6248997822333</v>
+        <v>110.6248997822332</v>
       </c>
       <c r="F34" t="n">
         <v>109.6119851585953</v>
       </c>
       <c r="G34" t="n">
-        <v>129.8986255411347</v>
+        <v>129.8986255411346</v>
       </c>
       <c r="H34" t="n">
         <v>106.1175773519904</v>
       </c>
       <c r="I34" t="n">
-        <v>50.9766259494228</v>
+        <v>50.97662594942277</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>38.81926439029164</v>
+        <v>38.81926439029161</v>
       </c>
       <c r="S34" t="n">
         <v>148.4160010191966</v>
@@ -3253,7 +3253,7 @@
         <v>189.9005925247012</v>
       </c>
       <c r="Y34" t="n">
-        <v>182.7755904877589</v>
+        <v>182.7755904877588</v>
       </c>
     </row>
     <row r="35">
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>57.21794877529231</v>
+        <v>57.21794877529164</v>
       </c>
       <c r="T35" t="n">
         <v>165.0044121013832</v>
@@ -3509,7 +3509,7 @@
         <v>318.8739787563471</v>
       </c>
       <c r="E38" t="n">
-        <v>346.1213072079259</v>
+        <v>346.121307207926</v>
       </c>
       <c r="F38" t="n">
         <v>371.0669828773756</v>
@@ -3518,7 +3518,7 @@
         <v>374.4034691457364</v>
       </c>
       <c r="H38" t="n">
-        <v>251.5356721227072</v>
+        <v>251.5356721227073</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3551,25 +3551,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>57.21794877529164</v>
+        <v>57.21794877529172</v>
       </c>
       <c r="T38" t="n">
-        <v>165.0044121013832</v>
+        <v>165.0044121013833</v>
       </c>
       <c r="U38" t="n">
         <v>215.1293736030956</v>
       </c>
       <c r="V38" t="n">
-        <v>291.943195605799</v>
+        <v>291.9431956057991</v>
       </c>
       <c r="W38" t="n">
-        <v>313.4319058530771</v>
+        <v>313.4319058530772</v>
       </c>
       <c r="X38" t="n">
-        <v>333.9220378141331</v>
+        <v>333.9220378141332</v>
       </c>
       <c r="Y38" t="n">
-        <v>350.4288757917177</v>
+        <v>350.4288757917178</v>
       </c>
     </row>
     <row r="39">
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>144.0229173176014</v>
+        <v>144.0229173176015</v>
       </c>
       <c r="C40" t="n">
-        <v>131.4377582342919</v>
+        <v>131.437758234292</v>
       </c>
       <c r="D40" t="n">
         <v>112.8064101538765</v>
       </c>
       <c r="E40" t="n">
-        <v>110.6248997822333</v>
+        <v>110.6248997822334</v>
       </c>
       <c r="F40" t="n">
         <v>109.6119851585954</v>
       </c>
       <c r="G40" t="n">
-        <v>129.8986255411347</v>
+        <v>129.8986255411348</v>
       </c>
       <c r="H40" t="n">
-        <v>106.1175773519904</v>
+        <v>106.1175773519905</v>
       </c>
       <c r="I40" t="n">
-        <v>50.97662594942283</v>
+        <v>50.9766259494229</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,28 +3706,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>38.81926439029166</v>
+        <v>38.81926439029172</v>
       </c>
       <c r="S40" t="n">
-        <v>148.4160010191966</v>
+        <v>148.4160010191967</v>
       </c>
       <c r="T40" t="n">
-        <v>182.3806470375415</v>
+        <v>182.3806470375416</v>
       </c>
       <c r="U40" t="n">
-        <v>250.3854233492647</v>
+        <v>250.3854233492648</v>
       </c>
       <c r="V40" t="n">
-        <v>216.3285804594921</v>
+        <v>216.3285804594922</v>
       </c>
       <c r="W40" t="n">
-        <v>250.7139354722551</v>
+        <v>250.7139354722552</v>
       </c>
       <c r="X40" t="n">
         <v>189.9005925247013</v>
       </c>
       <c r="Y40" t="n">
-        <v>182.7755904877589</v>
+        <v>182.775590487759</v>
       </c>
     </row>
     <row r="41">
@@ -3740,22 +3740,22 @@
         <v>350.147238456044</v>
       </c>
       <c r="C41" t="n">
-        <v>332.6862885635709</v>
+        <v>332.686288563571</v>
       </c>
       <c r="D41" t="n">
-        <v>322.0964384132463</v>
+        <v>322.0964384132464</v>
       </c>
       <c r="E41" t="n">
         <v>349.3437668648252</v>
       </c>
       <c r="F41" t="n">
-        <v>374.2894425342748</v>
+        <v>374.2894425342749</v>
       </c>
       <c r="G41" t="n">
         <v>377.6259288026357</v>
       </c>
       <c r="H41" t="n">
-        <v>254.7581317796065</v>
+        <v>209.6436965830171</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>15.32597323560005</v>
+        <v>60.44040843219094</v>
       </c>
       <c r="T41" t="n">
         <v>168.2268717582825</v>
@@ -3797,13 +3797,13 @@
         <v>218.3518332599949</v>
       </c>
       <c r="V41" t="n">
-        <v>295.1656552626983</v>
+        <v>295.1656552626984</v>
       </c>
       <c r="W41" t="n">
-        <v>316.6543655099764</v>
+        <v>316.6543655099765</v>
       </c>
       <c r="X41" t="n">
-        <v>337.1444974710324</v>
+        <v>337.1444974710325</v>
       </c>
       <c r="Y41" t="n">
         <v>353.651335448617</v>
@@ -3898,25 +3898,25 @@
         <v>147.2453769745007</v>
       </c>
       <c r="C43" t="n">
-        <v>134.6602178911912</v>
+        <v>134.6602178911913</v>
       </c>
       <c r="D43" t="n">
-        <v>116.0288698107757</v>
+        <v>116.0288698107758</v>
       </c>
       <c r="E43" t="n">
-        <v>113.8473594391325</v>
+        <v>113.8473594391326</v>
       </c>
       <c r="F43" t="n">
-        <v>112.8344448154946</v>
+        <v>112.8344448154945</v>
       </c>
       <c r="G43" t="n">
-        <v>133.1210851980345</v>
+        <v>133.121085198034</v>
       </c>
       <c r="H43" t="n">
-        <v>109.3400370088897</v>
+        <v>109.3400370088898</v>
       </c>
       <c r="I43" t="n">
-        <v>54.19908560632209</v>
+        <v>54.19908560632213</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.04172404719094</v>
+        <v>42.04172404719097</v>
       </c>
       <c r="S43" t="n">
         <v>151.6384606760959</v>
@@ -3961,7 +3961,7 @@
         <v>253.9363951291544</v>
       </c>
       <c r="X43" t="n">
-        <v>193.1230521816005</v>
+        <v>193.1230521816006</v>
       </c>
       <c r="Y43" t="n">
         <v>185.9980501446582</v>
@@ -3986,7 +3986,7 @@
         <v>349.3437668648252</v>
       </c>
       <c r="F44" t="n">
-        <v>329.1750073376865</v>
+        <v>329.1750073376846</v>
       </c>
       <c r="G44" t="n">
         <v>377.6259288026357</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>60.44040843219088</v>
+        <v>60.44040843219091</v>
       </c>
       <c r="T44" t="n">
         <v>168.2268717582825</v>
@@ -4141,19 +4141,19 @@
         <v>116.0288698107757</v>
       </c>
       <c r="E46" t="n">
-        <v>113.8473594391325</v>
+        <v>113.8473594391326</v>
       </c>
       <c r="F46" t="n">
         <v>112.8344448154946</v>
       </c>
       <c r="G46" t="n">
-        <v>133.1210851980339</v>
+        <v>133.121085198034</v>
       </c>
       <c r="H46" t="n">
         <v>109.3400370088897</v>
       </c>
       <c r="I46" t="n">
-        <v>54.19908560632209</v>
+        <v>54.19908560632211</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>42.04172404719093</v>
+        <v>42.04172404719095</v>
       </c>
       <c r="S46" t="n">
         <v>151.6384606760959</v>
@@ -4307,10 +4307,10 @@
         <v>5.065059808545741</v>
       </c>
       <c r="C2" t="n">
-        <v>5.065059808545741</v>
+        <v>9.581723550112187</v>
       </c>
       <c r="D2" t="n">
-        <v>5.065059808545741</v>
+        <v>9.581723550112187</v>
       </c>
       <c r="E2" t="n">
         <v>9.581723550112187</v>
@@ -4322,49 +4322,49 @@
         <v>0.36498292861143</v>
       </c>
       <c r="H2" t="n">
-        <v>0.5483960669792953</v>
+        <v>0.36498292861143</v>
       </c>
       <c r="I2" t="n">
-        <v>0.5483960669792953</v>
+        <v>0.36498292861143</v>
       </c>
       <c r="J2" t="n">
-        <v>0.5483960669792953</v>
+        <v>0.36498292861143</v>
       </c>
       <c r="K2" t="n">
-        <v>0.5483960669792953</v>
+        <v>0.36498292861143</v>
       </c>
       <c r="L2" t="n">
-        <v>0.5483960669792953</v>
+        <v>0.36498292861143</v>
       </c>
       <c r="M2" t="n">
-        <v>0.5483960669792953</v>
+        <v>0.36498292861143</v>
       </c>
       <c r="N2" t="n">
-        <v>5.065059808545741</v>
+        <v>4.881646670177876</v>
       </c>
       <c r="O2" t="n">
-        <v>5.065059808545741</v>
+        <v>4.881646670177876</v>
       </c>
       <c r="P2" t="n">
-        <v>5.065059808545741</v>
+        <v>4.881646670177876</v>
       </c>
       <c r="Q2" t="n">
-        <v>5.065059808545741</v>
+        <v>4.881646670177876</v>
       </c>
       <c r="R2" t="n">
-        <v>5.065059808545741</v>
+        <v>4.881646670177876</v>
       </c>
       <c r="S2" t="n">
-        <v>5.065059808545741</v>
+        <v>4.881646670177876</v>
       </c>
       <c r="T2" t="n">
-        <v>5.065059808545741</v>
+        <v>4.881646670177876</v>
       </c>
       <c r="U2" t="n">
-        <v>5.065059808545741</v>
+        <v>4.881646670177876</v>
       </c>
       <c r="V2" t="n">
-        <v>5.065059808545741</v>
+        <v>4.881646670177876</v>
       </c>
       <c r="W2" t="n">
         <v>5.065059808545741</v>
@@ -4386,7 +4386,7 @@
         <v>4.424035498320363</v>
       </c>
       <c r="C3" t="n">
-        <v>0.36498292861143</v>
+        <v>4.424035498320363</v>
       </c>
       <c r="D3" t="n">
         <v>0.36498292861143</v>
@@ -4419,7 +4419,7 @@
         <v>9.398310411744323</v>
       </c>
       <c r="N3" t="n">
-        <v>13.73248268900505</v>
+        <v>13.91497415331077</v>
       </c>
       <c r="O3" t="n">
         <v>18.2491464305715</v>
@@ -4434,25 +4434,25 @@
         <v>18.2491464305715</v>
       </c>
       <c r="S3" t="n">
+        <v>18.2491464305715</v>
+      </c>
+      <c r="T3" t="n">
+        <v>18.2491464305715</v>
+      </c>
+      <c r="U3" t="n">
         <v>13.64077611982112</v>
       </c>
-      <c r="T3" t="n">
+      <c r="V3" t="n">
+        <v>13.64077611982112</v>
+      </c>
+      <c r="W3" t="n">
+        <v>13.64077611982112</v>
+      </c>
+      <c r="X3" t="n">
+        <v>13.64077611982112</v>
+      </c>
+      <c r="Y3" t="n">
         <v>9.032405809070742</v>
-      </c>
-      <c r="U3" t="n">
-        <v>9.032405809070742</v>
-      </c>
-      <c r="V3" t="n">
-        <v>9.032405809070742</v>
-      </c>
-      <c r="W3" t="n">
-        <v>9.032405809070742</v>
-      </c>
-      <c r="X3" t="n">
-        <v>9.032405809070742</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>4.424035498320363</v>
       </c>
     </row>
     <row r="4">
@@ -4541,13 +4541,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>14.44108515774386</v>
+        <v>9.515918264388961</v>
       </c>
       <c r="C5" t="n">
-        <v>14.44108515774386</v>
+        <v>9.515918264388961</v>
       </c>
       <c r="D5" t="n">
-        <v>14.44108515774386</v>
+        <v>9.515918264388961</v>
       </c>
       <c r="E5" t="n">
         <v>14.44108515774386</v>
@@ -4607,10 +4607,10 @@
         <v>9.515918264388961</v>
       </c>
       <c r="X5" t="n">
-        <v>14.44108515774386</v>
+        <v>9.515918264388961</v>
       </c>
       <c r="Y5" t="n">
-        <v>14.44108515774386</v>
+        <v>9.515918264388961</v>
       </c>
     </row>
     <row r="6">
@@ -4620,10 +4620,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>13.6131814684388</v>
+        <v>6.667680719235332</v>
       </c>
       <c r="C6" t="n">
-        <v>13.6131814684388</v>
+        <v>6.667680719235332</v>
       </c>
       <c r="D6" t="n">
         <v>6.667680719235332</v>
@@ -4632,34 +4632,34 @@
         <v>6.667680719235332</v>
       </c>
       <c r="F6" t="n">
-        <v>0.5500836593369149</v>
+        <v>6.667680719235332</v>
       </c>
       <c r="G6" t="n">
-        <v>0.5500836593369149</v>
+        <v>6.667680719235332</v>
       </c>
       <c r="H6" t="n">
-        <v>0.5500836593369149</v>
+        <v>6.667680719235332</v>
       </c>
       <c r="I6" t="n">
-        <v>0.5500836593369149</v>
+        <v>6.667680719235332</v>
       </c>
       <c r="J6" t="n">
-        <v>0.5500836593369149</v>
+        <v>6.667680719235332</v>
       </c>
       <c r="K6" t="n">
         <v>0.5500836593369149</v>
       </c>
       <c r="L6" t="n">
-        <v>7.357368943631237</v>
+        <v>7.082327113962777</v>
       </c>
       <c r="M6" t="n">
-        <v>14.16465422792556</v>
+        <v>13.8896123982571</v>
       </c>
       <c r="N6" t="n">
-        <v>20.97193951221988</v>
+        <v>20.69689768255142</v>
       </c>
       <c r="O6" t="n">
-        <v>26.19257187820077</v>
+        <v>27.50418296684575</v>
       </c>
       <c r="P6" t="n">
         <v>27.50418296684575</v>
@@ -4671,25 +4671,25 @@
         <v>27.50418296684575</v>
       </c>
       <c r="S6" t="n">
-        <v>27.50418296684575</v>
+        <v>20.55868221764227</v>
       </c>
       <c r="T6" t="n">
-        <v>27.50418296684575</v>
+        <v>20.55868221764227</v>
       </c>
       <c r="U6" t="n">
-        <v>27.50418296684575</v>
+        <v>20.55868221764227</v>
       </c>
       <c r="V6" t="n">
-        <v>27.50418296684575</v>
+        <v>13.6131814684388</v>
       </c>
       <c r="W6" t="n">
-        <v>27.50418296684575</v>
+        <v>13.6131814684388</v>
       </c>
       <c r="X6" t="n">
-        <v>27.50418296684575</v>
+        <v>13.6131814684388</v>
       </c>
       <c r="Y6" t="n">
-        <v>20.55868221764227</v>
+        <v>6.667680719235332</v>
       </c>
     </row>
     <row r="7">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>14.44108515774386</v>
+        <v>9.515918264388992</v>
       </c>
       <c r="C8" t="n">
-        <v>14.44108515774386</v>
+        <v>14.44108515774389</v>
       </c>
       <c r="D8" t="n">
-        <v>14.44108515774386</v>
+        <v>14.44108515774389</v>
       </c>
       <c r="E8" t="n">
-        <v>14.44108515774386</v>
+        <v>14.44108515774389</v>
       </c>
       <c r="F8" t="n">
-        <v>7.495584408540386</v>
+        <v>7.495584408540418</v>
       </c>
       <c r="G8" t="n">
-        <v>0.5500836593369149</v>
+        <v>0.5500836593369173</v>
       </c>
       <c r="H8" t="n">
-        <v>0.5500836593369149</v>
+        <v>0.5500836593369173</v>
       </c>
       <c r="I8" t="n">
-        <v>0.5500836593369149</v>
+        <v>0.5500836593369173</v>
       </c>
       <c r="J8" t="n">
-        <v>0.5500836593369149</v>
+        <v>0.5500836593369173</v>
       </c>
       <c r="K8" t="n">
-        <v>0.5500836593369149</v>
+        <v>0.5500836593369173</v>
       </c>
       <c r="L8" t="n">
-        <v>0.5500836593369149</v>
+        <v>0.5500836593369173</v>
       </c>
       <c r="M8" t="n">
-        <v>2.708632980094639</v>
+        <v>2.708632980094642</v>
       </c>
       <c r="N8" t="n">
-        <v>9.515918264388961</v>
+        <v>9.515918264388992</v>
       </c>
       <c r="O8" t="n">
-        <v>9.515918264388961</v>
+        <v>9.515918264388992</v>
       </c>
       <c r="P8" t="n">
-        <v>9.515918264388961</v>
+        <v>9.515918264388992</v>
       </c>
       <c r="Q8" t="n">
-        <v>9.515918264388961</v>
+        <v>9.515918264388992</v>
       </c>
       <c r="R8" t="n">
-        <v>9.515918264388961</v>
+        <v>9.515918264388992</v>
       </c>
       <c r="S8" t="n">
-        <v>9.515918264388961</v>
+        <v>9.515918264388992</v>
       </c>
       <c r="T8" t="n">
-        <v>9.515918264388961</v>
+        <v>9.515918264388992</v>
       </c>
       <c r="U8" t="n">
-        <v>9.515918264388961</v>
+        <v>9.515918264388992</v>
       </c>
       <c r="V8" t="n">
-        <v>9.515918264388961</v>
+        <v>9.515918264388992</v>
       </c>
       <c r="W8" t="n">
-        <v>9.515918264388961</v>
+        <v>9.515918264388992</v>
       </c>
       <c r="X8" t="n">
-        <v>9.515918264388961</v>
+        <v>9.515918264388992</v>
       </c>
       <c r="Y8" t="n">
-        <v>14.44108515774386</v>
+        <v>9.515918264388992</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>7.495584408540386</v>
+        <v>0.5500836593369173</v>
       </c>
       <c r="C9" t="n">
-        <v>7.495584408540386</v>
+        <v>0.5500836593369173</v>
       </c>
       <c r="D9" t="n">
-        <v>7.495584408540386</v>
+        <v>0.5500836593369173</v>
       </c>
       <c r="E9" t="n">
-        <v>0.5500836593369149</v>
+        <v>0.5500836593369173</v>
       </c>
       <c r="F9" t="n">
-        <v>0.5500836593369149</v>
+        <v>0.5500836593369173</v>
       </c>
       <c r="G9" t="n">
-        <v>0.5500836593369149</v>
+        <v>0.5500836593369173</v>
       </c>
       <c r="H9" t="n">
-        <v>0.5500836593369149</v>
+        <v>0.5500836593369173</v>
       </c>
       <c r="I9" t="n">
-        <v>0.5500836593369149</v>
+        <v>0.5500836593369173</v>
       </c>
       <c r="J9" t="n">
-        <v>0.5500836593369149</v>
+        <v>0.5500836593369173</v>
       </c>
       <c r="K9" t="n">
-        <v>0.5500836593369149</v>
+        <v>0.5500836593369173</v>
       </c>
       <c r="L9" t="n">
-        <v>5.770716025317804</v>
+        <v>5.770716025317807</v>
       </c>
       <c r="M9" t="n">
-        <v>12.57800130961213</v>
+        <v>12.57800130961216</v>
       </c>
       <c r="N9" t="n">
-        <v>19.38528659390645</v>
+        <v>19.38528659390651</v>
       </c>
       <c r="O9" t="n">
-        <v>26.19257187820077</v>
+        <v>26.19257187820086</v>
       </c>
       <c r="P9" t="n">
-        <v>27.50418296684575</v>
+        <v>27.50418296684586</v>
       </c>
       <c r="Q9" t="n">
-        <v>27.50418296684575</v>
+        <v>21.38658590694742</v>
       </c>
       <c r="R9" t="n">
-        <v>27.50418296684575</v>
+        <v>14.44108515774392</v>
       </c>
       <c r="S9" t="n">
-        <v>27.50418296684575</v>
+        <v>14.44108515774392</v>
       </c>
       <c r="T9" t="n">
-        <v>27.50418296684575</v>
+        <v>14.44108515774392</v>
       </c>
       <c r="U9" t="n">
-        <v>27.50418296684575</v>
+        <v>14.44108515774392</v>
       </c>
       <c r="V9" t="n">
-        <v>21.38658590694733</v>
+        <v>7.495584408540418</v>
       </c>
       <c r="W9" t="n">
-        <v>21.38658590694733</v>
+        <v>7.495584408540418</v>
       </c>
       <c r="X9" t="n">
-        <v>21.38658590694733</v>
+        <v>0.5500836593369173</v>
       </c>
       <c r="Y9" t="n">
-        <v>14.44108515774386</v>
+        <v>0.5500836593369173</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.5500836593369149</v>
+        <v>0.5500836593369173</v>
       </c>
       <c r="C10" t="n">
-        <v>0.5500836593369149</v>
+        <v>0.5500836593369173</v>
       </c>
       <c r="D10" t="n">
-        <v>0.5500836593369149</v>
+        <v>0.5500836593369173</v>
       </c>
       <c r="E10" t="n">
-        <v>0.5500836593369149</v>
+        <v>0.5500836593369173</v>
       </c>
       <c r="F10" t="n">
-        <v>0.5500836593369149</v>
+        <v>0.5500836593369173</v>
       </c>
       <c r="G10" t="n">
-        <v>0.5500836593369149</v>
+        <v>0.5500836593369173</v>
       </c>
       <c r="H10" t="n">
-        <v>0.5500836593369149</v>
+        <v>0.5500836593369173</v>
       </c>
       <c r="I10" t="n">
-        <v>0.5500836593369149</v>
+        <v>0.5500836593369173</v>
       </c>
       <c r="J10" t="n">
-        <v>0.5500836593369149</v>
+        <v>0.5500836593369173</v>
       </c>
       <c r="K10" t="n">
-        <v>0.5500836593369149</v>
+        <v>0.5500836593369173</v>
       </c>
       <c r="L10" t="n">
-        <v>0.5500836593369149</v>
+        <v>0.5500836593369173</v>
       </c>
       <c r="M10" t="n">
-        <v>0.5500836593369149</v>
+        <v>0.5500836593369173</v>
       </c>
       <c r="N10" t="n">
-        <v>0.5500836593369149</v>
+        <v>0.5500836593369173</v>
       </c>
       <c r="O10" t="n">
-        <v>0.5500836593369149</v>
+        <v>0.5500836593369173</v>
       </c>
       <c r="P10" t="n">
-        <v>0.5500836593369149</v>
+        <v>0.5500836593369173</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.5500836593369149</v>
+        <v>0.5500836593369173</v>
       </c>
       <c r="R10" t="n">
-        <v>0.5500836593369149</v>
+        <v>0.5500836593369173</v>
       </c>
       <c r="S10" t="n">
-        <v>0.5500836593369149</v>
+        <v>0.5500836593369173</v>
       </c>
       <c r="T10" t="n">
-        <v>0.5500836593369149</v>
+        <v>0.5500836593369173</v>
       </c>
       <c r="U10" t="n">
-        <v>0.5500836593369149</v>
+        <v>0.5500836593369173</v>
       </c>
       <c r="V10" t="n">
-        <v>0.5500836593369149</v>
+        <v>0.5500836593369173</v>
       </c>
       <c r="W10" t="n">
-        <v>0.5500836593369149</v>
+        <v>0.5500836593369173</v>
       </c>
       <c r="X10" t="n">
-        <v>0.5500836593369149</v>
+        <v>0.5500836593369173</v>
       </c>
       <c r="Y10" t="n">
-        <v>0.5500836593369149</v>
+        <v>0.5500836593369173</v>
       </c>
     </row>
     <row r="11">
@@ -5033,58 +5033,58 @@
         <v>341.1382441674114</v>
       </c>
       <c r="H11" t="n">
-        <v>83.80679792538459</v>
+        <v>83.8067979253846</v>
       </c>
       <c r="I11" t="n">
-        <v>83.80679792538459</v>
+        <v>83.8067979253846</v>
       </c>
       <c r="J11" t="n">
-        <v>332.2759336344334</v>
+        <v>332.2759336344333</v>
       </c>
       <c r="K11" t="n">
-        <v>755.4052773293838</v>
+        <v>755.4052773293843</v>
       </c>
       <c r="L11" t="n">
-        <v>1317.236405696888</v>
+        <v>1317.236405696887</v>
       </c>
       <c r="M11" t="n">
-        <v>1974.051226718832</v>
+        <v>1974.051226718831</v>
       </c>
       <c r="N11" t="n">
         <v>2646.107806602497</v>
       </c>
       <c r="O11" t="n">
-        <v>3267.37651645826</v>
+        <v>3267.376516458261</v>
       </c>
       <c r="P11" t="n">
-        <v>3763.113985901601</v>
+        <v>3763.113985901602</v>
       </c>
       <c r="Q11" t="n">
-        <v>4087.219433363395</v>
+        <v>4087.219433363396</v>
       </c>
       <c r="R11" t="n">
-        <v>4190.339896269229</v>
+        <v>4190.33989626923</v>
       </c>
       <c r="S11" t="n">
-        <v>4129.288978660956</v>
+        <v>4129.288978660957</v>
       </c>
       <c r="T11" t="n">
-        <v>3959.362845571782</v>
+        <v>3959.362845571783</v>
       </c>
       <c r="U11" t="n">
-        <v>3738.805438238453</v>
+        <v>3738.805438238454</v>
       </c>
       <c r="V11" t="n">
-        <v>3486.228448272687</v>
+        <v>3440.658311710476</v>
       </c>
       <c r="W11" t="n">
-        <v>3166.375553818165</v>
+        <v>3120.805417255955</v>
       </c>
       <c r="X11" t="n">
-        <v>2825.825556372678</v>
+        <v>2780.255419810468</v>
       </c>
       <c r="Y11" t="n">
-        <v>2468.601985212459</v>
+        <v>2423.031848650248</v>
       </c>
     </row>
     <row r="12">
@@ -5109,37 +5109,37 @@
         <v>312.3976420372361</v>
       </c>
       <c r="G12" t="n">
-        <v>176.417826770601</v>
+        <v>176.4178267706009</v>
       </c>
       <c r="H12" t="n">
-        <v>89.61765763410146</v>
+        <v>89.61765763410145</v>
       </c>
       <c r="I12" t="n">
-        <v>83.80679792538459</v>
+        <v>83.8067979253846</v>
       </c>
       <c r="J12" t="n">
-        <v>212.9754660127146</v>
+        <v>212.9754660127147</v>
       </c>
       <c r="K12" t="n">
-        <v>511.9001181816403</v>
+        <v>511.9001181816404</v>
       </c>
       <c r="L12" t="n">
-        <v>960.1637437712315</v>
+        <v>960.1637437712318</v>
       </c>
       <c r="M12" t="n">
-        <v>1502.623119777266</v>
+        <v>1444.883339858123</v>
       </c>
       <c r="N12" t="n">
-        <v>2073.848426243678</v>
+        <v>1444.883339858123</v>
       </c>
       <c r="O12" t="n">
-        <v>2556.232956445214</v>
+        <v>1945.223102154219</v>
       </c>
       <c r="P12" t="n">
-        <v>2556.232956445214</v>
+        <v>2327.456805886191</v>
       </c>
       <c r="Q12" t="n">
-        <v>2556.232956445214</v>
+        <v>2533.050717869114</v>
       </c>
       <c r="R12" t="n">
         <v>2556.232956445214</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>865.6563936524949</v>
+        <v>865.6563936524959</v>
       </c>
       <c r="C13" t="n">
-        <v>729.6359715401805</v>
+        <v>729.6359715401816</v>
       </c>
       <c r="D13" t="n">
-        <v>612.4350929434373</v>
+        <v>612.4350929434383</v>
       </c>
       <c r="E13" t="n">
-        <v>497.4377601766367</v>
+        <v>497.4377601766378</v>
       </c>
       <c r="F13" t="n">
-        <v>383.4635734943189</v>
+        <v>383.4635734943199</v>
       </c>
       <c r="G13" t="n">
-        <v>248.9978308700424</v>
+        <v>248.9978308700428</v>
       </c>
       <c r="H13" t="n">
-        <v>138.553349042881</v>
+        <v>138.5533490428816</v>
       </c>
       <c r="I13" t="n">
-        <v>83.80679792538459</v>
+        <v>83.8067979253846</v>
       </c>
       <c r="J13" t="n">
-        <v>183.4563304577435</v>
+        <v>183.4563304577436</v>
       </c>
       <c r="K13" t="n">
-        <v>456.2943961381839</v>
+        <v>456.2943961381841</v>
       </c>
       <c r="L13" t="n">
-        <v>851.9377205277794</v>
+        <v>851.9377205277799</v>
       </c>
       <c r="M13" t="n">
         <v>1277.723569016743</v>
       </c>
       <c r="N13" t="n">
-        <v>1699.586886352394</v>
+        <v>1699.586886352395</v>
       </c>
       <c r="O13" t="n">
-        <v>2075.6923697962</v>
+        <v>2075.692369796201</v>
       </c>
       <c r="P13" t="n">
         <v>2378.651006190802</v>
       </c>
       <c r="Q13" t="n">
-        <v>2514.893857258754</v>
+        <v>2514.893857258755</v>
       </c>
       <c r="R13" t="n">
-        <v>2472.427469332299</v>
+        <v>2472.4274693323</v>
       </c>
       <c r="S13" t="n">
-        <v>2319.257307033212</v>
+        <v>2319.257307033213</v>
       </c>
       <c r="T13" t="n">
-        <v>2131.779421483272</v>
+        <v>2131.779421483273</v>
       </c>
       <c r="U13" t="n">
-        <v>1875.609842689167</v>
+        <v>1875.609842689168</v>
       </c>
       <c r="V13" t="n">
-        <v>1653.841115298872</v>
+        <v>1653.841115298874</v>
       </c>
       <c r="W13" t="n">
-        <v>1397.339706077504</v>
+        <v>1397.339706077506</v>
       </c>
       <c r="X13" t="n">
-        <v>1202.265915995079</v>
+        <v>1202.265915995081</v>
       </c>
       <c r="Y13" t="n">
-        <v>1014.389097667142</v>
+        <v>1014.389097667143</v>
       </c>
     </row>
     <row r="14">
@@ -5258,10 +5258,10 @@
         <v>1733.3010132769</v>
       </c>
       <c r="D14" t="n">
-        <v>1453.521212047953</v>
+        <v>1407.951075485742</v>
       </c>
       <c r="E14" t="n">
-        <v>1100.648720265301</v>
+        <v>1055.07858370309</v>
       </c>
       <c r="F14" t="n">
         <v>722.5785762912858</v>
@@ -5276,13 +5276,13 @@
         <v>83.8067979253846</v>
       </c>
       <c r="J14" t="n">
-        <v>332.2759336344333</v>
+        <v>332.2759336344334</v>
       </c>
       <c r="K14" t="n">
-        <v>755.4052773293845</v>
+        <v>755.4052773293838</v>
       </c>
       <c r="L14" t="n">
-        <v>1317.236405696885</v>
+        <v>1317.236405696887</v>
       </c>
       <c r="M14" t="n">
         <v>1974.051226718831</v>
@@ -5291,7 +5291,7 @@
         <v>2646.107806602497</v>
       </c>
       <c r="O14" t="n">
-        <v>3267.376516458261</v>
+        <v>3267.37651645826</v>
       </c>
       <c r="P14" t="n">
         <v>3763.113985901602</v>
@@ -5346,31 +5346,31 @@
         <v>312.3976420372361</v>
       </c>
       <c r="G15" t="n">
-        <v>176.4178267706009</v>
+        <v>176.417826770601</v>
       </c>
       <c r="H15" t="n">
-        <v>89.61765763410142</v>
+        <v>89.61765763410146</v>
       </c>
       <c r="I15" t="n">
         <v>83.8067979253846</v>
       </c>
       <c r="J15" t="n">
-        <v>83.8067979253846</v>
+        <v>212.9754660127146</v>
       </c>
       <c r="K15" t="n">
-        <v>382.7314500943106</v>
+        <v>288.350974104158</v>
       </c>
       <c r="L15" t="n">
-        <v>382.7314500943106</v>
+        <v>736.6145996937493</v>
       </c>
       <c r="M15" t="n">
-        <v>896.8402719678112</v>
+        <v>1279.073975699784</v>
       </c>
       <c r="N15" t="n">
-        <v>1468.065578434223</v>
+        <v>1850.299282166196</v>
       </c>
       <c r="O15" t="n">
-        <v>1968.405340730319</v>
+        <v>2350.639044462291</v>
       </c>
       <c r="P15" t="n">
         <v>2350.639044462291</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>865.6563936524964</v>
+        <v>865.6563936524957</v>
       </c>
       <c r="C16" t="n">
-        <v>729.635971540182</v>
+        <v>729.6359715401813</v>
       </c>
       <c r="D16" t="n">
-        <v>612.4350929434388</v>
+        <v>612.4350929434381</v>
       </c>
       <c r="E16" t="n">
-        <v>497.4377601766382</v>
+        <v>497.4377601766375</v>
       </c>
       <c r="F16" t="n">
-        <v>383.4635734943204</v>
+        <v>383.4635734943197</v>
       </c>
       <c r="G16" t="n">
-        <v>248.9978308700438</v>
+        <v>248.997830870043</v>
       </c>
       <c r="H16" t="n">
-        <v>138.5533490428816</v>
+        <v>138.5533490428817</v>
       </c>
       <c r="I16" t="n">
         <v>83.8067979253846</v>
       </c>
       <c r="J16" t="n">
-        <v>183.4563304577436</v>
+        <v>183.4563304577435</v>
       </c>
       <c r="K16" t="n">
-        <v>456.2943961381841</v>
+        <v>456.2943961381834</v>
       </c>
       <c r="L16" t="n">
-        <v>851.9377205277801</v>
+        <v>851.9377205277792</v>
       </c>
       <c r="M16" t="n">
-        <v>1277.723569016744</v>
+        <v>1277.723569016743</v>
       </c>
       <c r="N16" t="n">
-        <v>1699.586886352395</v>
+        <v>1699.586886352394</v>
       </c>
       <c r="O16" t="n">
-        <v>2075.692369796202</v>
+        <v>2075.6923697962</v>
       </c>
       <c r="P16" t="n">
         <v>2378.651006190802</v>
       </c>
       <c r="Q16" t="n">
-        <v>2514.893857258756</v>
+        <v>2514.893857258755</v>
       </c>
       <c r="R16" t="n">
         <v>2472.4274693323</v>
       </c>
       <c r="S16" t="n">
-        <v>2319.257307033214</v>
+        <v>2319.257307033213</v>
       </c>
       <c r="T16" t="n">
-        <v>2131.779421483274</v>
+        <v>2131.779421483272</v>
       </c>
       <c r="U16" t="n">
-        <v>1875.609842689168</v>
+        <v>1875.609842689167</v>
       </c>
       <c r="V16" t="n">
-        <v>1653.841115298874</v>
+        <v>1653.841115298873</v>
       </c>
       <c r="W16" t="n">
-        <v>1397.339706077506</v>
+        <v>1397.339706077505</v>
       </c>
       <c r="X16" t="n">
-        <v>1202.265915995081</v>
+        <v>1202.26591599508</v>
       </c>
       <c r="Y16" t="n">
-        <v>1014.389097667144</v>
+        <v>1014.389097667143</v>
       </c>
     </row>
     <row r="17">
@@ -5489,7 +5489,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2095.387847437268</v>
+        <v>2095.387847437269</v>
       </c>
       <c r="C17" t="n">
         <v>1762.596101066892</v>
@@ -5510,22 +5510,22 @@
         <v>83.8067979253846</v>
       </c>
       <c r="I17" t="n">
-        <v>83.80679792538561</v>
+        <v>83.8067979253846</v>
       </c>
       <c r="J17" t="n">
-        <v>332.275933634434</v>
+        <v>332.275933634433</v>
       </c>
       <c r="K17" t="n">
-        <v>755.4052773293849</v>
+        <v>755.405277329384</v>
       </c>
       <c r="L17" t="n">
-        <v>1317.236405696888</v>
+        <v>1317.236405696887</v>
       </c>
       <c r="M17" t="n">
-        <v>1974.051226718832</v>
+        <v>1974.051226718831</v>
       </c>
       <c r="N17" t="n">
-        <v>2646.107806602498</v>
+        <v>2646.107806602497</v>
       </c>
       <c r="O17" t="n">
         <v>3267.376516458261</v>
@@ -5543,22 +5543,22 @@
         <v>4132.5439884154</v>
       </c>
       <c r="T17" t="n">
-        <v>3965.872865080669</v>
+        <v>3965.87286508067</v>
       </c>
       <c r="U17" t="n">
-        <v>3748.570467501785</v>
+        <v>3748.570467501786</v>
       </c>
       <c r="V17" t="n">
-        <v>3453.67835072825</v>
+        <v>3453.678350728251</v>
       </c>
       <c r="W17" t="n">
-        <v>3137.080466028172</v>
+        <v>3137.080466028173</v>
       </c>
       <c r="X17" t="n">
         <v>2799.785478337129</v>
       </c>
       <c r="Y17" t="n">
-        <v>2445.816916931353</v>
+        <v>2445.816916931354</v>
       </c>
     </row>
     <row r="18">
@@ -5583,31 +5583,31 @@
         <v>312.3976420372361</v>
       </c>
       <c r="G18" t="n">
-        <v>176.417826770601</v>
+        <v>176.4178267706009</v>
       </c>
       <c r="H18" t="n">
-        <v>89.61765763410146</v>
+        <v>89.61765763410145</v>
       </c>
       <c r="I18" t="n">
         <v>83.8067979253846</v>
       </c>
       <c r="J18" t="n">
-        <v>212.9754660127146</v>
+        <v>212.9754660127147</v>
       </c>
       <c r="K18" t="n">
-        <v>511.9001181816403</v>
+        <v>212.9754660127147</v>
       </c>
       <c r="L18" t="n">
-        <v>960.1637437712316</v>
+        <v>331.1986573856764</v>
       </c>
       <c r="M18" t="n">
-        <v>1502.623119777266</v>
+        <v>873.6580333917115</v>
       </c>
       <c r="N18" t="n">
-        <v>1827.117043590096</v>
+        <v>1444.883339858123</v>
       </c>
       <c r="O18" t="n">
-        <v>2327.456805886191</v>
+        <v>1945.223102154219</v>
       </c>
       <c r="P18" t="n">
         <v>2327.456805886191</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>842.8713253713902</v>
+        <v>842.8713253713895</v>
       </c>
       <c r="C19" t="n">
-        <v>710.1059130135195</v>
+        <v>710.1059130135188</v>
       </c>
       <c r="D19" t="n">
-        <v>596.16004417122</v>
+        <v>596.1600441712194</v>
       </c>
       <c r="E19" t="n">
-        <v>484.4177211588631</v>
+        <v>484.4177211588626</v>
       </c>
       <c r="F19" t="n">
-        <v>373.6985442309889</v>
+        <v>373.6985442309885</v>
       </c>
       <c r="G19" t="n">
-        <v>242.4878113611557</v>
+        <v>242.4878113611555</v>
       </c>
       <c r="H19" t="n">
-        <v>135.298339288438</v>
+        <v>135.2983392884379</v>
       </c>
       <c r="I19" t="n">
         <v>83.8067979253846</v>
       </c>
       <c r="J19" t="n">
-        <v>186.6465655180738</v>
+        <v>186.6465655180739</v>
       </c>
       <c r="K19" t="n">
-        <v>462.6748662588444</v>
+        <v>462.6748662588446</v>
       </c>
       <c r="L19" t="n">
-        <v>861.5084257087703</v>
+        <v>861.5084257087708</v>
       </c>
       <c r="M19" t="n">
-        <v>1212.882472704325</v>
+        <v>1290.484509258065</v>
       </c>
       <c r="N19" t="n">
-        <v>1637.936025100306</v>
+        <v>1715.538061654046</v>
       </c>
       <c r="O19" t="n">
-        <v>2017.231743604442</v>
+        <v>2017.23174360444</v>
       </c>
       <c r="P19" t="n">
-        <v>2323.380615059374</v>
+        <v>2323.380615059372</v>
       </c>
       <c r="Q19" t="n">
-        <v>2462.813701187657</v>
+        <v>2462.813701187656</v>
       </c>
       <c r="R19" t="n">
-        <v>2423.602323015645</v>
+        <v>2423.602323015644</v>
       </c>
       <c r="S19" t="n">
-        <v>2273.687170471002</v>
+        <v>2273.687170471001</v>
       </c>
       <c r="T19" t="n">
-        <v>2089.464294675505</v>
+        <v>2089.464294675504</v>
       </c>
       <c r="U19" t="n">
-        <v>1836.549725635844</v>
+        <v>1836.549725635843</v>
       </c>
       <c r="V19" t="n">
-        <v>1618.036007999993</v>
+        <v>1618.036007999992</v>
       </c>
       <c r="W19" t="n">
-        <v>1364.789608533069</v>
+        <v>1364.789608533068</v>
       </c>
       <c r="X19" t="n">
-        <v>1172.970828205088</v>
+        <v>1172.970828205087</v>
       </c>
       <c r="Y19" t="n">
-        <v>988.3490196315937</v>
+        <v>988.3490196315929</v>
       </c>
     </row>
     <row r="20">
@@ -5726,10 +5726,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2095.387847437268</v>
+        <v>2095.387847437269</v>
       </c>
       <c r="C20" t="n">
-        <v>1762.596101066892</v>
+        <v>1762.596101066893</v>
       </c>
       <c r="D20" t="n">
         <v>1440.501173030178</v>
@@ -5750,25 +5750,25 @@
         <v>83.8067979253846</v>
       </c>
       <c r="J20" t="n">
-        <v>332.2759336344334</v>
+        <v>332.2759336344333</v>
       </c>
       <c r="K20" t="n">
-        <v>755.4052773293838</v>
+        <v>755.4052773293843</v>
       </c>
       <c r="L20" t="n">
         <v>1317.236405696887</v>
       </c>
       <c r="M20" t="n">
-        <v>1974.051226718831</v>
+        <v>1974.051226718832</v>
       </c>
       <c r="N20" t="n">
-        <v>2646.107806602497</v>
+        <v>2646.107806602498</v>
       </c>
       <c r="O20" t="n">
-        <v>3267.37651645826</v>
+        <v>3267.376516458261</v>
       </c>
       <c r="P20" t="n">
-        <v>3763.113985901602</v>
+        <v>3763.113985901603</v>
       </c>
       <c r="Q20" t="n">
         <v>4087.219433363396</v>
@@ -5783,7 +5783,7 @@
         <v>3965.87286508067</v>
       </c>
       <c r="U20" t="n">
-        <v>3748.570467501785</v>
+        <v>3748.570467501786</v>
       </c>
       <c r="V20" t="n">
         <v>3453.678350728251</v>
@@ -5795,7 +5795,7 @@
         <v>2799.785478337129</v>
       </c>
       <c r="Y20" t="n">
-        <v>2445.816916931353</v>
+        <v>2445.816916931354</v>
       </c>
     </row>
     <row r="21">
@@ -5820,28 +5820,28 @@
         <v>312.3976420372361</v>
       </c>
       <c r="G21" t="n">
-        <v>176.417826770601</v>
+        <v>176.4178267706009</v>
       </c>
       <c r="H21" t="n">
-        <v>89.61765763410146</v>
+        <v>89.61765763410145</v>
       </c>
       <c r="I21" t="n">
         <v>83.8067979253846</v>
       </c>
       <c r="J21" t="n">
-        <v>212.9754660127146</v>
+        <v>84.35014192325468</v>
       </c>
       <c r="K21" t="n">
-        <v>511.9001181816403</v>
+        <v>383.2747940921805</v>
       </c>
       <c r="L21" t="n">
-        <v>960.1637437712316</v>
+        <v>831.5384196817719</v>
       </c>
       <c r="M21" t="n">
-        <v>960.1637437712316</v>
+        <v>1373.997795687807</v>
       </c>
       <c r="N21" t="n">
-        <v>1531.389050237643</v>
+        <v>1945.223102154219</v>
       </c>
       <c r="O21" t="n">
         <v>1945.223102154219</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>842.8713253713902</v>
+        <v>842.8713253713895</v>
       </c>
       <c r="C22" t="n">
-        <v>710.1059130135195</v>
+        <v>710.1059130135188</v>
       </c>
       <c r="D22" t="n">
-        <v>596.16004417122</v>
+        <v>596.1600441712194</v>
       </c>
       <c r="E22" t="n">
-        <v>484.4177211588631</v>
+        <v>484.4177211588626</v>
       </c>
       <c r="F22" t="n">
-        <v>373.6985442309889</v>
+        <v>373.6985442309885</v>
       </c>
       <c r="G22" t="n">
-        <v>242.4878113611557</v>
+        <v>242.4878113611555</v>
       </c>
       <c r="H22" t="n">
-        <v>135.298339288438</v>
+        <v>135.2983392884379</v>
       </c>
       <c r="I22" t="n">
         <v>83.8067979253846</v>
       </c>
       <c r="J22" t="n">
-        <v>186.6465655180738</v>
+        <v>153.3466866085778</v>
       </c>
       <c r="K22" t="n">
-        <v>462.6748662588444</v>
+        <v>385.0728297051022</v>
       </c>
       <c r="L22" t="n">
-        <v>861.5084257087703</v>
+        <v>783.9063891550284</v>
       </c>
       <c r="M22" t="n">
-        <v>1290.484509258064</v>
+        <v>1212.882472704322</v>
       </c>
       <c r="N22" t="n">
-        <v>1637.936025100306</v>
+        <v>1637.936025100304</v>
       </c>
       <c r="O22" t="n">
-        <v>2017.231743604442</v>
+        <v>2017.23174360444</v>
       </c>
       <c r="P22" t="n">
-        <v>2323.380615059374</v>
+        <v>2323.380615059372</v>
       </c>
       <c r="Q22" t="n">
-        <v>2462.813701187657</v>
+        <v>2462.813701187656</v>
       </c>
       <c r="R22" t="n">
-        <v>2423.602323015645</v>
+        <v>2423.602323015644</v>
       </c>
       <c r="S22" t="n">
-        <v>2273.687170471002</v>
+        <v>2273.687170471001</v>
       </c>
       <c r="T22" t="n">
-        <v>2089.464294675505</v>
+        <v>2089.464294675504</v>
       </c>
       <c r="U22" t="n">
-        <v>1836.549725635844</v>
+        <v>1836.549725635843</v>
       </c>
       <c r="V22" t="n">
-        <v>1618.036007999993</v>
+        <v>1618.036007999992</v>
       </c>
       <c r="W22" t="n">
-        <v>1364.789608533069</v>
+        <v>1364.789608533068</v>
       </c>
       <c r="X22" t="n">
-        <v>1172.970828205088</v>
+        <v>1172.970828205087</v>
       </c>
       <c r="Y22" t="n">
-        <v>988.3490196315937</v>
+        <v>988.3490196315929</v>
       </c>
     </row>
     <row r="23">
@@ -5963,7 +5963,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2095.387847437267</v>
+        <v>2095.387847437268</v>
       </c>
       <c r="C23" t="n">
         <v>1762.596101066892</v>
@@ -5975,10 +5975,10 @@
         <v>1090.88369100197</v>
       </c>
       <c r="F23" t="n">
-        <v>716.0685567823981</v>
+        <v>716.0685567823989</v>
       </c>
       <c r="G23" t="n">
-        <v>337.8832344129673</v>
+        <v>337.8832344129677</v>
       </c>
       <c r="H23" t="n">
         <v>83.8067979253846</v>
@@ -5990,10 +5990,10 @@
         <v>332.2759336344334</v>
       </c>
       <c r="K23" t="n">
-        <v>755.4052773293843</v>
+        <v>755.4052773293838</v>
       </c>
       <c r="L23" t="n">
-        <v>1317.236405696888</v>
+        <v>1317.236405696887</v>
       </c>
       <c r="M23" t="n">
         <v>1974.051226718831</v>
@@ -6008,7 +6008,7 @@
         <v>3763.113985901602</v>
       </c>
       <c r="Q23" t="n">
-        <v>4087.219433363395</v>
+        <v>4087.219433363396</v>
       </c>
       <c r="R23" t="n">
         <v>4190.33989626923</v>
@@ -6017,13 +6017,13 @@
         <v>4132.5439884154</v>
       </c>
       <c r="T23" t="n">
-        <v>3965.872865080669</v>
+        <v>3965.87286508067</v>
       </c>
       <c r="U23" t="n">
         <v>3748.570467501785</v>
       </c>
       <c r="V23" t="n">
-        <v>3453.67835072825</v>
+        <v>3453.678350728251</v>
       </c>
       <c r="W23" t="n">
         <v>3137.080466028172</v>
@@ -6066,25 +6066,25 @@
         <v>83.8067979253846</v>
       </c>
       <c r="J24" t="n">
-        <v>212.9754660127146</v>
+        <v>83.8067979253846</v>
       </c>
       <c r="K24" t="n">
-        <v>511.9001181816403</v>
+        <v>382.7314500943103</v>
       </c>
       <c r="L24" t="n">
-        <v>511.9001181816403</v>
+        <v>830.9950756839016</v>
       </c>
       <c r="M24" t="n">
-        <v>1054.359494187675</v>
+        <v>1373.454451689936</v>
       </c>
       <c r="N24" t="n">
-        <v>1625.584800654087</v>
+        <v>1444.883339858123</v>
       </c>
       <c r="O24" t="n">
-        <v>2125.924562950182</v>
+        <v>1945.223102154219</v>
       </c>
       <c r="P24" t="n">
-        <v>2508.158266682155</v>
+        <v>2327.456805886191</v>
       </c>
       <c r="Q24" t="n">
         <v>2533.050717869114</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>842.8713253713902</v>
+        <v>842.8713253713895</v>
       </c>
       <c r="C25" t="n">
-        <v>710.1059130135195</v>
+        <v>710.1059130135188</v>
       </c>
       <c r="D25" t="n">
-        <v>596.16004417122</v>
+        <v>596.1600441712194</v>
       </c>
       <c r="E25" t="n">
-        <v>484.4177211588631</v>
+        <v>484.4177211588626</v>
       </c>
       <c r="F25" t="n">
-        <v>373.6985442309889</v>
+        <v>373.6985442309885</v>
       </c>
       <c r="G25" t="n">
-        <v>242.4878113611557</v>
+        <v>242.4878113611555</v>
       </c>
       <c r="H25" t="n">
-        <v>135.298339288438</v>
+        <v>135.2983392884379</v>
       </c>
       <c r="I25" t="n">
         <v>83.8067979253846</v>
       </c>
       <c r="J25" t="n">
-        <v>186.6465655180738</v>
+        <v>186.6465655180739</v>
       </c>
       <c r="K25" t="n">
-        <v>462.6748662588444</v>
+        <v>462.6748662588446</v>
       </c>
       <c r="L25" t="n">
-        <v>861.5084257087703</v>
+        <v>861.5084257087707</v>
       </c>
       <c r="M25" t="n">
-        <v>1212.882472704325</v>
+        <v>1290.484509258064</v>
       </c>
       <c r="N25" t="n">
-        <v>1637.936025100306</v>
+        <v>1637.936025100304</v>
       </c>
       <c r="O25" t="n">
-        <v>2017.231743604442</v>
+        <v>2017.23174360444</v>
       </c>
       <c r="P25" t="n">
-        <v>2323.380615059374</v>
+        <v>2323.380615059372</v>
       </c>
       <c r="Q25" t="n">
-        <v>2462.813701187657</v>
+        <v>2462.813701187656</v>
       </c>
       <c r="R25" t="n">
-        <v>2423.602323015645</v>
+        <v>2423.602323015644</v>
       </c>
       <c r="S25" t="n">
-        <v>2273.687170471002</v>
+        <v>2273.687170471001</v>
       </c>
       <c r="T25" t="n">
-        <v>2089.464294675505</v>
+        <v>2089.464294675504</v>
       </c>
       <c r="U25" t="n">
-        <v>1836.549725635844</v>
+        <v>1836.549725635843</v>
       </c>
       <c r="V25" t="n">
-        <v>1618.036007999993</v>
+        <v>1618.036007999992</v>
       </c>
       <c r="W25" t="n">
-        <v>1364.789608533069</v>
+        <v>1364.789608533068</v>
       </c>
       <c r="X25" t="n">
-        <v>1172.970828205088</v>
+        <v>1172.970828205087</v>
       </c>
       <c r="Y25" t="n">
-        <v>988.3490196315937</v>
+        <v>988.3490196315929</v>
       </c>
     </row>
     <row r="26">
@@ -6200,34 +6200,34 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2114.91790596393</v>
+        <v>2069.347769401719</v>
       </c>
       <c r="C26" t="n">
-        <v>1778.871149839111</v>
+        <v>1733.3010132769</v>
       </c>
       <c r="D26" t="n">
-        <v>1453.521212047953</v>
+        <v>1407.951075485742</v>
       </c>
       <c r="E26" t="n">
-        <v>1100.648720265301</v>
+        <v>1055.078583703091</v>
       </c>
       <c r="F26" t="n">
-        <v>722.5785762912858</v>
+        <v>677.0084397290758</v>
       </c>
       <c r="G26" t="n">
         <v>341.1382441674114</v>
       </c>
       <c r="H26" t="n">
-        <v>83.80679792538456</v>
+        <v>83.8067979253846</v>
       </c>
       <c r="I26" t="n">
-        <v>83.80679792538456</v>
+        <v>83.8067979253846</v>
       </c>
       <c r="J26" t="n">
-        <v>332.275933634433</v>
+        <v>332.2759336344334</v>
       </c>
       <c r="K26" t="n">
-        <v>755.4052773293839</v>
+        <v>755.4052773293838</v>
       </c>
       <c r="L26" t="n">
         <v>1317.236405696887</v>
@@ -6242,34 +6242,34 @@
         <v>3267.37651645826</v>
       </c>
       <c r="P26" t="n">
-        <v>3763.1139859016</v>
+        <v>3763.113985901602</v>
       </c>
       <c r="Q26" t="n">
-        <v>4087.219433363394</v>
+        <v>4087.219433363396</v>
       </c>
       <c r="R26" t="n">
-        <v>4190.339896269228</v>
+        <v>4190.33989626923</v>
       </c>
       <c r="S26" t="n">
-        <v>4174.859115223167</v>
+        <v>4129.288978660957</v>
       </c>
       <c r="T26" t="n">
-        <v>4004.932982133993</v>
+        <v>3959.362845571783</v>
       </c>
       <c r="U26" t="n">
-        <v>3784.375574800665</v>
+        <v>3738.805438238454</v>
       </c>
       <c r="V26" t="n">
-        <v>3486.228448272687</v>
+        <v>3440.658311710476</v>
       </c>
       <c r="W26" t="n">
-        <v>3166.375553818165</v>
+        <v>3120.805417255955</v>
       </c>
       <c r="X26" t="n">
-        <v>2825.825556372678</v>
+        <v>2780.255419810468</v>
       </c>
       <c r="Y26" t="n">
-        <v>2468.601985212459</v>
+        <v>2423.031848650248</v>
       </c>
     </row>
     <row r="27">
@@ -6294,34 +6294,34 @@
         <v>312.3976420372361</v>
       </c>
       <c r="G27" t="n">
-        <v>176.4178267706009</v>
+        <v>176.417826770601</v>
       </c>
       <c r="H27" t="n">
-        <v>89.61765763410142</v>
+        <v>89.61765763410146</v>
       </c>
       <c r="I27" t="n">
-        <v>83.80679792538456</v>
+        <v>83.8067979253846</v>
       </c>
       <c r="J27" t="n">
-        <v>212.9754660127146</v>
+        <v>83.8067979253846</v>
       </c>
       <c r="K27" t="n">
-        <v>511.9001181816403</v>
+        <v>382.7314500943103</v>
       </c>
       <c r="L27" t="n">
-        <v>960.1637437712316</v>
+        <v>830.9950756839016</v>
       </c>
       <c r="M27" t="n">
-        <v>960.1637437712316</v>
+        <v>1373.454451689936</v>
       </c>
       <c r="N27" t="n">
-        <v>1531.389050237643</v>
+        <v>1444.883339858123</v>
       </c>
       <c r="O27" t="n">
-        <v>2031.728812533738</v>
+        <v>1945.223102154219</v>
       </c>
       <c r="P27" t="n">
-        <v>2413.96251626571</v>
+        <v>2327.456805886191</v>
       </c>
       <c r="Q27" t="n">
         <v>2533.050717869114</v>
@@ -6358,37 +6358,37 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>865.6563936524952</v>
+        <v>865.6563936524948</v>
       </c>
       <c r="C28" t="n">
-        <v>729.6359715401809</v>
+        <v>729.6359715401804</v>
       </c>
       <c r="D28" t="n">
-        <v>612.4350929434378</v>
+        <v>612.4350929434373</v>
       </c>
       <c r="E28" t="n">
-        <v>497.4377601766373</v>
+        <v>497.4377601766368</v>
       </c>
       <c r="F28" t="n">
-        <v>383.4635734943195</v>
+        <v>383.463573494319</v>
       </c>
       <c r="G28" t="n">
-        <v>248.9978308700429</v>
+        <v>248.9978308700424</v>
       </c>
       <c r="H28" t="n">
-        <v>138.5533490428816</v>
+        <v>138.5533490428811</v>
       </c>
       <c r="I28" t="n">
-        <v>83.80679792538456</v>
+        <v>83.8067979253846</v>
       </c>
       <c r="J28" t="n">
-        <v>183.4563304577435</v>
+        <v>183.4563304577436</v>
       </c>
       <c r="K28" t="n">
         <v>456.294396138184</v>
       </c>
       <c r="L28" t="n">
-        <v>851.9377205277797</v>
+        <v>851.9377205277801</v>
       </c>
       <c r="M28" t="n">
         <v>1277.723569016744</v>
@@ -6397,34 +6397,34 @@
         <v>1699.586886352395</v>
       </c>
       <c r="O28" t="n">
-        <v>2075.692369796201</v>
+        <v>2075.6923697962</v>
       </c>
       <c r="P28" t="n">
-        <v>2378.651006190802</v>
+        <v>2378.651006190801</v>
       </c>
       <c r="Q28" t="n">
-        <v>2514.893857258755</v>
+        <v>2514.893857258754</v>
       </c>
       <c r="R28" t="n">
-        <v>2472.4274693323</v>
+        <v>2472.427469332299</v>
       </c>
       <c r="S28" t="n">
-        <v>2319.257307033213</v>
+        <v>2319.257307033212</v>
       </c>
       <c r="T28" t="n">
         <v>2131.779421483272</v>
       </c>
       <c r="U28" t="n">
-        <v>1875.609842689168</v>
+        <v>1875.609842689167</v>
       </c>
       <c r="V28" t="n">
-        <v>1653.841115298873</v>
+        <v>1653.841115298872</v>
       </c>
       <c r="W28" t="n">
-        <v>1397.339706077505</v>
+        <v>1397.339706077504</v>
       </c>
       <c r="X28" t="n">
-        <v>1202.26591599508</v>
+        <v>1202.265915995079</v>
       </c>
       <c r="Y28" t="n">
         <v>1014.389097667142</v>
@@ -6437,19 +6437,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2114.91790596393</v>
+        <v>2069.347769401719</v>
       </c>
       <c r="C29" t="n">
-        <v>1778.871149839111</v>
+        <v>1733.3010132769</v>
       </c>
       <c r="D29" t="n">
-        <v>1453.521212047953</v>
+        <v>1407.951075485742</v>
       </c>
       <c r="E29" t="n">
-        <v>1100.648720265301</v>
+        <v>1055.078583703091</v>
       </c>
       <c r="F29" t="n">
-        <v>722.5785762912858</v>
+        <v>677.0084397290758</v>
       </c>
       <c r="G29" t="n">
         <v>341.1382441674114</v>
@@ -6461,22 +6461,22 @@
         <v>83.8067979253846</v>
       </c>
       <c r="J29" t="n">
-        <v>332.275933634433</v>
+        <v>332.2759336344334</v>
       </c>
       <c r="K29" t="n">
-        <v>755.4052773293839</v>
+        <v>755.4052773293843</v>
       </c>
       <c r="L29" t="n">
-        <v>1317.236405696887</v>
+        <v>1317.236405696888</v>
       </c>
       <c r="M29" t="n">
-        <v>1974.051226718831</v>
+        <v>1974.051226718832</v>
       </c>
       <c r="N29" t="n">
-        <v>2646.107806602497</v>
+        <v>2646.107806602498</v>
       </c>
       <c r="O29" t="n">
-        <v>3267.37651645826</v>
+        <v>3267.376516458261</v>
       </c>
       <c r="P29" t="n">
         <v>3763.113985901602</v>
@@ -6543,22 +6543,22 @@
         <v>212.9754660127146</v>
       </c>
       <c r="K30" t="n">
-        <v>511.9001181816403</v>
+        <v>425.3944078021206</v>
       </c>
       <c r="L30" t="n">
-        <v>960.1637437712316</v>
+        <v>873.6580333917119</v>
       </c>
       <c r="M30" t="n">
-        <v>1502.623119777266</v>
+        <v>873.6580333917119</v>
       </c>
       <c r="N30" t="n">
-        <v>2073.848426243678</v>
+        <v>1444.883339858123</v>
       </c>
       <c r="O30" t="n">
-        <v>2150.817014137142</v>
+        <v>1945.223102154219</v>
       </c>
       <c r="P30" t="n">
-        <v>2533.050717869114</v>
+        <v>2327.456805886191</v>
       </c>
       <c r="Q30" t="n">
         <v>2533.050717869114</v>
@@ -6595,37 +6595,37 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>865.6563936524956</v>
+        <v>865.656393652496</v>
       </c>
       <c r="C31" t="n">
-        <v>729.6359715401812</v>
+        <v>729.6359715401817</v>
       </c>
       <c r="D31" t="n">
-        <v>612.435092943438</v>
+        <v>612.4350929434386</v>
       </c>
       <c r="E31" t="n">
-        <v>497.4377601766374</v>
+        <v>497.4377601766381</v>
       </c>
       <c r="F31" t="n">
-        <v>383.4635734943196</v>
+        <v>383.46357349432</v>
       </c>
       <c r="G31" t="n">
-        <v>248.997830870043</v>
+        <v>248.9978308700433</v>
       </c>
       <c r="H31" t="n">
-        <v>138.5533490428817</v>
+        <v>138.553349042882</v>
       </c>
       <c r="I31" t="n">
         <v>83.8067979253846</v>
       </c>
       <c r="J31" t="n">
-        <v>183.4563304577435</v>
+        <v>183.4563304577436</v>
       </c>
       <c r="K31" t="n">
-        <v>456.2943961381838</v>
+        <v>456.2943961381841</v>
       </c>
       <c r="L31" t="n">
-        <v>851.9377205277794</v>
+        <v>851.9377205277799</v>
       </c>
       <c r="M31" t="n">
         <v>1277.723569016743</v>
@@ -6649,19 +6649,19 @@
         <v>2319.257307033213</v>
       </c>
       <c r="T31" t="n">
-        <v>2131.779421483273</v>
+        <v>2131.779421483272</v>
       </c>
       <c r="U31" t="n">
         <v>1875.609842689168</v>
       </c>
       <c r="V31" t="n">
-        <v>1653.841115298873</v>
+        <v>1653.841115298874</v>
       </c>
       <c r="W31" t="n">
-        <v>1397.339706077505</v>
+        <v>1397.339706077506</v>
       </c>
       <c r="X31" t="n">
-        <v>1202.26591599508</v>
+        <v>1202.265915995081</v>
       </c>
       <c r="Y31" t="n">
         <v>1014.389097667143</v>
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2095.387847437268</v>
+        <v>2095.387847437267</v>
       </c>
       <c r="C32" t="n">
-        <v>1762.596101066893</v>
+        <v>1762.596101066892</v>
       </c>
       <c r="D32" t="n">
-        <v>1440.501173030179</v>
+        <v>1440.501173030178</v>
       </c>
       <c r="E32" t="n">
-        <v>1090.883691001971</v>
+        <v>1090.88369100197</v>
       </c>
       <c r="F32" t="n">
-        <v>716.0685567823994</v>
+        <v>716.0685567823984</v>
       </c>
       <c r="G32" t="n">
-        <v>337.8832344129677</v>
+        <v>337.8832344129676</v>
       </c>
       <c r="H32" t="n">
-        <v>83.8067979253846</v>
+        <v>83.80679792538456</v>
       </c>
       <c r="I32" t="n">
-        <v>83.8067979253846</v>
+        <v>83.80679792538456</v>
       </c>
       <c r="J32" t="n">
         <v>332.2759336344334</v>
       </c>
       <c r="K32" t="n">
-        <v>755.4052773293852</v>
+        <v>755.4052773293843</v>
       </c>
       <c r="L32" t="n">
         <v>1317.236405696888</v>
       </c>
       <c r="M32" t="n">
-        <v>1974.051226718833</v>
+        <v>1974.051226718831</v>
       </c>
       <c r="N32" t="n">
-        <v>2646.107806602498</v>
+        <v>2646.107806602497</v>
       </c>
       <c r="O32" t="n">
-        <v>3267.376516458261</v>
+        <v>3267.37651645826</v>
       </c>
       <c r="P32" t="n">
-        <v>3763.113985901603</v>
+        <v>3763.1139859016</v>
       </c>
       <c r="Q32" t="n">
-        <v>4087.219433363396</v>
+        <v>4087.219433363394</v>
       </c>
       <c r="R32" t="n">
-        <v>4190.33989626923</v>
+        <v>4190.339896269228</v>
       </c>
       <c r="S32" t="n">
-        <v>4132.5439884154</v>
+        <v>4132.543988415398</v>
       </c>
       <c r="T32" t="n">
-        <v>3965.872865080669</v>
+        <v>3965.872865080668</v>
       </c>
       <c r="U32" t="n">
-        <v>3748.570467501785</v>
+        <v>3748.570467501784</v>
       </c>
       <c r="V32" t="n">
-        <v>3453.678350728251</v>
+        <v>3453.678350728249</v>
       </c>
       <c r="W32" t="n">
-        <v>3137.080466028173</v>
+        <v>3137.080466028172</v>
       </c>
       <c r="X32" t="n">
-        <v>2799.785478337129</v>
+        <v>2799.785478337128</v>
       </c>
       <c r="Y32" t="n">
-        <v>2445.816916931354</v>
+        <v>2445.816916931353</v>
       </c>
     </row>
     <row r="33">
@@ -6768,28 +6768,28 @@
         <v>312.3976420372361</v>
       </c>
       <c r="G33" t="n">
-        <v>176.417826770601</v>
+        <v>176.4178267706009</v>
       </c>
       <c r="H33" t="n">
-        <v>89.61765763410146</v>
+        <v>89.61765763410142</v>
       </c>
       <c r="I33" t="n">
-        <v>83.8067979253846</v>
+        <v>83.80679792538456</v>
       </c>
       <c r="J33" t="n">
         <v>212.9754660127146</v>
       </c>
       <c r="K33" t="n">
-        <v>212.9754660127146</v>
+        <v>511.9001181816403</v>
       </c>
       <c r="L33" t="n">
-        <v>331.1986573856771</v>
+        <v>960.1637437712316</v>
       </c>
       <c r="M33" t="n">
-        <v>873.6580333917119</v>
+        <v>1373.997795687807</v>
       </c>
       <c r="N33" t="n">
-        <v>1444.883339858123</v>
+        <v>1945.223102154219</v>
       </c>
       <c r="O33" t="n">
         <v>1945.223102154219</v>
@@ -6832,37 +6832,37 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>842.8713253713895</v>
+        <v>842.8713253713893</v>
       </c>
       <c r="C34" t="n">
-        <v>710.1059130135188</v>
+        <v>710.1059130135187</v>
       </c>
       <c r="D34" t="n">
-        <v>596.1600441712194</v>
+        <v>596.1600441712193</v>
       </c>
       <c r="E34" t="n">
-        <v>484.4177211588626</v>
+        <v>484.4177211588625</v>
       </c>
       <c r="F34" t="n">
-        <v>373.6985442309885</v>
+        <v>373.6985442309884</v>
       </c>
       <c r="G34" t="n">
-        <v>242.4878113611555</v>
+        <v>242.4878113611554</v>
       </c>
       <c r="H34" t="n">
         <v>135.2983392884379</v>
       </c>
       <c r="I34" t="n">
-        <v>83.8067979253846</v>
+        <v>83.80679792538456</v>
       </c>
       <c r="J34" t="n">
         <v>186.6465655180739</v>
       </c>
       <c r="K34" t="n">
-        <v>462.6748662588446</v>
+        <v>385.0728297051018</v>
       </c>
       <c r="L34" t="n">
-        <v>861.5084257087707</v>
+        <v>783.9063891550279</v>
       </c>
       <c r="M34" t="n">
         <v>1212.882472704322</v>
@@ -6874,22 +6874,22 @@
         <v>2017.23174360444</v>
       </c>
       <c r="P34" t="n">
-        <v>2323.380615059372</v>
+        <v>2323.380615059371</v>
       </c>
       <c r="Q34" t="n">
-        <v>2462.813701187656</v>
+        <v>2462.813701187655</v>
       </c>
       <c r="R34" t="n">
-        <v>2423.602323015644</v>
+        <v>2423.602323015643</v>
       </c>
       <c r="S34" t="n">
-        <v>2273.687170471001</v>
+        <v>2273.687170471</v>
       </c>
       <c r="T34" t="n">
         <v>2089.464294675504</v>
       </c>
       <c r="U34" t="n">
-        <v>1836.549725635843</v>
+        <v>1836.549725635842</v>
       </c>
       <c r="V34" t="n">
         <v>1618.036007999992</v>
@@ -6898,10 +6898,10 @@
         <v>1364.789608533068</v>
       </c>
       <c r="X34" t="n">
-        <v>1172.970828205087</v>
+        <v>1172.970828205086</v>
       </c>
       <c r="Y34" t="n">
-        <v>988.3490196315929</v>
+        <v>988.3490196315927</v>
       </c>
     </row>
     <row r="35">
@@ -6911,19 +6911,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2095.387847437267</v>
+        <v>2095.387847437269</v>
       </c>
       <c r="C35" t="n">
-        <v>1762.596101066892</v>
+        <v>1762.596101066893</v>
       </c>
       <c r="D35" t="n">
-        <v>1440.501173030178</v>
+        <v>1440.501173030179</v>
       </c>
       <c r="E35" t="n">
-        <v>1090.88369100197</v>
+        <v>1090.883691001971</v>
       </c>
       <c r="F35" t="n">
-        <v>716.0685567823984</v>
+        <v>716.0685567823996</v>
       </c>
       <c r="G35" t="n">
         <v>337.8832344129677</v>
@@ -6938,10 +6938,10 @@
         <v>332.2759336344334</v>
       </c>
       <c r="K35" t="n">
-        <v>755.4052773293843</v>
+        <v>755.4052773293847</v>
       </c>
       <c r="L35" t="n">
-        <v>1317.236405696888</v>
+        <v>1317.236405696889</v>
       </c>
       <c r="M35" t="n">
         <v>1974.051226718832</v>
@@ -6962,25 +6962,25 @@
         <v>4190.33989626923</v>
       </c>
       <c r="S35" t="n">
-        <v>4132.543988415399</v>
+        <v>4132.5439884154</v>
       </c>
       <c r="T35" t="n">
-        <v>3965.872865080669</v>
+        <v>3965.87286508067</v>
       </c>
       <c r="U35" t="n">
-        <v>3748.570467501784</v>
+        <v>3748.570467501785</v>
       </c>
       <c r="V35" t="n">
-        <v>3453.67835072825</v>
+        <v>3453.678350728251</v>
       </c>
       <c r="W35" t="n">
-        <v>3137.080466028172</v>
+        <v>3137.080466028173</v>
       </c>
       <c r="X35" t="n">
-        <v>2799.785478337128</v>
+        <v>2799.785478337129</v>
       </c>
       <c r="Y35" t="n">
-        <v>2445.816916931353</v>
+        <v>2445.816916931354</v>
       </c>
     </row>
     <row r="36">
@@ -7020,19 +7020,19 @@
         <v>511.9001181816403</v>
       </c>
       <c r="L36" t="n">
-        <v>960.1637437712316</v>
+        <v>831.5384196817726</v>
       </c>
       <c r="M36" t="n">
-        <v>1502.623119777266</v>
+        <v>1373.997795687807</v>
       </c>
       <c r="N36" t="n">
-        <v>1650.477251841046</v>
+        <v>1945.223102154219</v>
       </c>
       <c r="O36" t="n">
-        <v>2150.817014137142</v>
+        <v>1945.223102154219</v>
       </c>
       <c r="P36" t="n">
-        <v>2533.050717869114</v>
+        <v>2327.456805886191</v>
       </c>
       <c r="Q36" t="n">
         <v>2533.050717869114</v>
@@ -7099,7 +7099,7 @@
         <v>462.6748662588445</v>
       </c>
       <c r="L37" t="n">
-        <v>783.9063891550289</v>
+        <v>861.5084257087706</v>
       </c>
       <c r="M37" t="n">
         <v>1212.882472704323</v>
@@ -7148,7 +7148,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2095.387847437268</v>
+        <v>2095.387847437267</v>
       </c>
       <c r="C38" t="n">
         <v>1762.596101066892</v>
@@ -7160,7 +7160,7 @@
         <v>1090.88369100197</v>
       </c>
       <c r="F38" t="n">
-        <v>716.0685567823989</v>
+        <v>716.0685567823984</v>
       </c>
       <c r="G38" t="n">
         <v>337.8832344129677</v>
@@ -7175,25 +7175,25 @@
         <v>332.2759336344334</v>
       </c>
       <c r="K38" t="n">
-        <v>755.4052773293847</v>
+        <v>755.4052773293843</v>
       </c>
       <c r="L38" t="n">
         <v>1317.236405696888</v>
       </c>
       <c r="M38" t="n">
-        <v>1974.051226718832</v>
+        <v>1974.051226718831</v>
       </c>
       <c r="N38" t="n">
-        <v>2646.107806602498</v>
+        <v>2646.107806602497</v>
       </c>
       <c r="O38" t="n">
-        <v>3267.376516458261</v>
+        <v>3267.37651645826</v>
       </c>
       <c r="P38" t="n">
         <v>3763.113985901602</v>
       </c>
       <c r="Q38" t="n">
-        <v>4087.219433363395</v>
+        <v>4087.219433363396</v>
       </c>
       <c r="R38" t="n">
         <v>4190.33989626923</v>
@@ -7202,16 +7202,16 @@
         <v>4132.5439884154</v>
       </c>
       <c r="T38" t="n">
-        <v>3965.872865080669</v>
+        <v>3965.87286508067</v>
       </c>
       <c r="U38" t="n">
-        <v>3748.570467501786</v>
+        <v>3748.570467501785</v>
       </c>
       <c r="V38" t="n">
-        <v>3453.678350728251</v>
+        <v>3453.67835072825</v>
       </c>
       <c r="W38" t="n">
-        <v>3137.080466028173</v>
+        <v>3137.080466028172</v>
       </c>
       <c r="X38" t="n">
         <v>2799.785478337129</v>
@@ -7251,22 +7251,22 @@
         <v>83.8067979253846</v>
       </c>
       <c r="J39" t="n">
-        <v>212.9754660127146</v>
+        <v>83.8067979253846</v>
       </c>
       <c r="K39" t="n">
-        <v>511.9001181816403</v>
+        <v>382.7314500943103</v>
       </c>
       <c r="L39" t="n">
-        <v>960.1637437712316</v>
+        <v>830.9950756839016</v>
       </c>
       <c r="M39" t="n">
-        <v>960.1637437712316</v>
+        <v>1373.454451689936</v>
       </c>
       <c r="N39" t="n">
-        <v>1531.389050237643</v>
+        <v>1944.679758156348</v>
       </c>
       <c r="O39" t="n">
-        <v>2031.728812533738</v>
+        <v>1945.223102154219</v>
       </c>
       <c r="P39" t="n">
         <v>2327.456805886191</v>
@@ -7306,22 +7306,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>842.8713253713897</v>
+        <v>842.8713253713902</v>
       </c>
       <c r="C40" t="n">
-        <v>710.1059130135191</v>
+        <v>710.1059130135195</v>
       </c>
       <c r="D40" t="n">
-        <v>596.1600441712196</v>
+        <v>596.16004417122</v>
       </c>
       <c r="E40" t="n">
-        <v>484.4177211588628</v>
+        <v>484.4177211588631</v>
       </c>
       <c r="F40" t="n">
-        <v>373.6985442309887</v>
+        <v>373.6985442309889</v>
       </c>
       <c r="G40" t="n">
-        <v>242.4878113611556</v>
+        <v>242.4878113611557</v>
       </c>
       <c r="H40" t="n">
         <v>135.298339288438</v>
@@ -7333,49 +7333,49 @@
         <v>186.6465655180738</v>
       </c>
       <c r="K40" t="n">
-        <v>462.6748662588445</v>
+        <v>462.6748662588444</v>
       </c>
       <c r="L40" t="n">
-        <v>861.5084257087706</v>
+        <v>783.9063891550311</v>
       </c>
       <c r="M40" t="n">
-        <v>1290.484509258064</v>
+        <v>1212.882472704325</v>
       </c>
       <c r="N40" t="n">
-        <v>1637.936025100305</v>
+        <v>1637.936025100306</v>
       </c>
       <c r="O40" t="n">
-        <v>2017.231743604441</v>
+        <v>2017.231743604442</v>
       </c>
       <c r="P40" t="n">
-        <v>2323.380615059372</v>
+        <v>2323.380615059374</v>
       </c>
       <c r="Q40" t="n">
-        <v>2462.813701187656</v>
+        <v>2462.813701187657</v>
       </c>
       <c r="R40" t="n">
-        <v>2423.602323015644</v>
+        <v>2423.602323015645</v>
       </c>
       <c r="S40" t="n">
-        <v>2273.687170471001</v>
+        <v>2273.687170471002</v>
       </c>
       <c r="T40" t="n">
-        <v>2089.464294675504</v>
+        <v>2089.464294675505</v>
       </c>
       <c r="U40" t="n">
-        <v>1836.549725635843</v>
+        <v>1836.549725635844</v>
       </c>
       <c r="V40" t="n">
         <v>1618.036007999993</v>
       </c>
       <c r="W40" t="n">
-        <v>1364.789608533068</v>
+        <v>1364.789608533069</v>
       </c>
       <c r="X40" t="n">
-        <v>1172.970828205087</v>
+        <v>1172.970828205088</v>
       </c>
       <c r="Y40" t="n">
-        <v>988.3490196315931</v>
+        <v>988.3490196315937</v>
       </c>
     </row>
     <row r="41">
@@ -7385,28 +7385,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2114.91790596393</v>
+        <v>2069.347769401718</v>
       </c>
       <c r="C41" t="n">
-        <v>1778.871149839111</v>
+        <v>1733.301013276899</v>
       </c>
       <c r="D41" t="n">
-        <v>1453.521212047953</v>
+        <v>1407.951075485741</v>
       </c>
       <c r="E41" t="n">
-        <v>1100.648720265301</v>
+        <v>1055.078583703089</v>
       </c>
       <c r="F41" t="n">
-        <v>722.5785762912858</v>
+        <v>677.0084397290743</v>
       </c>
       <c r="G41" t="n">
-        <v>341.1382441674114</v>
+        <v>295.5681076051998</v>
       </c>
       <c r="H41" t="n">
-        <v>83.80679792538456</v>
+        <v>83.8067979253846</v>
       </c>
       <c r="I41" t="n">
-        <v>83.80679792538456</v>
+        <v>83.8067979253846</v>
       </c>
       <c r="J41" t="n">
         <v>332.275933634433</v>
@@ -7424,37 +7424,37 @@
         <v>2646.107806602497</v>
       </c>
       <c r="O41" t="n">
-        <v>3267.376516458259</v>
+        <v>3267.376516458261</v>
       </c>
       <c r="P41" t="n">
-        <v>3763.1139859016</v>
+        <v>3763.113985901602</v>
       </c>
       <c r="Q41" t="n">
-        <v>4087.219433363394</v>
+        <v>4087.219433363396</v>
       </c>
       <c r="R41" t="n">
-        <v>4190.339896269228</v>
+        <v>4190.33989626923</v>
       </c>
       <c r="S41" t="n">
-        <v>4174.859115223167</v>
+        <v>4129.288978660957</v>
       </c>
       <c r="T41" t="n">
-        <v>4004.932982133993</v>
+        <v>3959.362845571783</v>
       </c>
       <c r="U41" t="n">
-        <v>3784.375574800665</v>
+        <v>3738.805438238454</v>
       </c>
       <c r="V41" t="n">
-        <v>3486.228448272687</v>
+        <v>3440.658311710476</v>
       </c>
       <c r="W41" t="n">
-        <v>3166.375553818165</v>
+        <v>3120.805417255954</v>
       </c>
       <c r="X41" t="n">
-        <v>2825.825556372678</v>
+        <v>2780.255419810467</v>
       </c>
       <c r="Y41" t="n">
-        <v>2468.601985212459</v>
+        <v>2423.031848650247</v>
       </c>
     </row>
     <row r="42">
@@ -7479,34 +7479,34 @@
         <v>312.3976420372361</v>
       </c>
       <c r="G42" t="n">
-        <v>176.4178267706009</v>
+        <v>176.417826770601</v>
       </c>
       <c r="H42" t="n">
-        <v>89.61765763410142</v>
+        <v>89.61765763410146</v>
       </c>
       <c r="I42" t="n">
-        <v>83.80679792538456</v>
+        <v>83.8067979253846</v>
       </c>
       <c r="J42" t="n">
-        <v>212.9754660127146</v>
+        <v>83.8067979253846</v>
       </c>
       <c r="K42" t="n">
-        <v>511.9001181816403</v>
+        <v>382.7314500943103</v>
       </c>
       <c r="L42" t="n">
-        <v>960.1637437712316</v>
+        <v>536.7925693685996</v>
       </c>
       <c r="M42" t="n">
-        <v>1502.623119777266</v>
+        <v>1079.251945374634</v>
       </c>
       <c r="N42" t="n">
-        <v>1502.623119777266</v>
+        <v>1650.477251841046</v>
       </c>
       <c r="O42" t="n">
-        <v>1945.223102154219</v>
+        <v>2150.817014137142</v>
       </c>
       <c r="P42" t="n">
-        <v>2327.456805886191</v>
+        <v>2533.050717869114</v>
       </c>
       <c r="Q42" t="n">
         <v>2533.050717869114</v>
@@ -7543,37 +7543,37 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>865.656393652496</v>
+        <v>865.6563936524958</v>
       </c>
       <c r="C43" t="n">
-        <v>729.6359715401817</v>
+        <v>729.6359715401813</v>
       </c>
       <c r="D43" t="n">
-        <v>612.4350929434386</v>
+        <v>612.4350929434381</v>
       </c>
       <c r="E43" t="n">
-        <v>497.437760176638</v>
+        <v>497.4377601766375</v>
       </c>
       <c r="F43" t="n">
-        <v>383.4635734943202</v>
+        <v>383.4635734943198</v>
       </c>
       <c r="G43" t="n">
-        <v>248.9978308700429</v>
+        <v>248.9978308700431</v>
       </c>
       <c r="H43" t="n">
-        <v>138.5533490428816</v>
+        <v>138.5533490428817</v>
       </c>
       <c r="I43" t="n">
-        <v>83.80679792538456</v>
+        <v>83.8067979253846</v>
       </c>
       <c r="J43" t="n">
         <v>183.4563304577435</v>
       </c>
       <c r="K43" t="n">
-        <v>456.294396138184</v>
+        <v>456.2943961381839</v>
       </c>
       <c r="L43" t="n">
-        <v>851.9377205277798</v>
+        <v>851.9377205277797</v>
       </c>
       <c r="M43" t="n">
         <v>1277.723569016743</v>
@@ -7622,16 +7622,16 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2069.347769401719</v>
+        <v>2069.347769401717</v>
       </c>
       <c r="C44" t="n">
-        <v>1733.3010132769</v>
+        <v>1733.301013276898</v>
       </c>
       <c r="D44" t="n">
-        <v>1407.951075485742</v>
+        <v>1407.95107548574</v>
       </c>
       <c r="E44" t="n">
-        <v>1055.07858370309</v>
+        <v>1055.078583703088</v>
       </c>
       <c r="F44" t="n">
         <v>722.5785762912858</v>
@@ -7640,58 +7640,58 @@
         <v>341.1382441674114</v>
       </c>
       <c r="H44" t="n">
-        <v>83.8067979253846</v>
+        <v>83.80679792538456</v>
       </c>
       <c r="I44" t="n">
-        <v>83.8067979253846</v>
+        <v>83.80679792538456</v>
       </c>
       <c r="J44" t="n">
-        <v>332.2759336344334</v>
+        <v>332.275933634433</v>
       </c>
       <c r="K44" t="n">
-        <v>755.4052773293843</v>
+        <v>755.4052773293839</v>
       </c>
       <c r="L44" t="n">
         <v>1317.236405696887</v>
       </c>
       <c r="M44" t="n">
-        <v>1974.051226718831</v>
+        <v>1974.05122671883</v>
       </c>
       <c r="N44" t="n">
-        <v>2646.107806602497</v>
+        <v>2646.107806602496</v>
       </c>
       <c r="O44" t="n">
-        <v>3267.37651645826</v>
+        <v>3267.376516458259</v>
       </c>
       <c r="P44" t="n">
-        <v>3763.113985901602</v>
+        <v>3763.1139859016</v>
       </c>
       <c r="Q44" t="n">
-        <v>4087.219433363396</v>
+        <v>4087.219433363394</v>
       </c>
       <c r="R44" t="n">
-        <v>4190.33989626923</v>
+        <v>4190.339896269228</v>
       </c>
       <c r="S44" t="n">
-        <v>4129.288978660957</v>
+        <v>4129.288978660955</v>
       </c>
       <c r="T44" t="n">
-        <v>3959.362845571783</v>
+        <v>3959.362845571781</v>
       </c>
       <c r="U44" t="n">
-        <v>3738.805438238454</v>
+        <v>3738.805438238453</v>
       </c>
       <c r="V44" t="n">
-        <v>3440.658311710476</v>
+        <v>3440.658311710475</v>
       </c>
       <c r="W44" t="n">
-        <v>3120.805417255955</v>
+        <v>3120.805417255953</v>
       </c>
       <c r="X44" t="n">
-        <v>2780.255419810468</v>
+        <v>2780.255419810466</v>
       </c>
       <c r="Y44" t="n">
-        <v>2423.031848650248</v>
+        <v>2423.031848650247</v>
       </c>
     </row>
     <row r="45">
@@ -7716,37 +7716,37 @@
         <v>312.3976420372361</v>
       </c>
       <c r="G45" t="n">
-        <v>176.417826770601</v>
+        <v>176.4178267706009</v>
       </c>
       <c r="H45" t="n">
-        <v>89.61765763410146</v>
+        <v>89.61765763410142</v>
       </c>
       <c r="I45" t="n">
-        <v>83.8067979253846</v>
+        <v>83.80679792538456</v>
       </c>
       <c r="J45" t="n">
-        <v>212.9754660127146</v>
+        <v>83.80679792538456</v>
       </c>
       <c r="K45" t="n">
-        <v>477.3425768385975</v>
+        <v>382.7314500943103</v>
       </c>
       <c r="L45" t="n">
-        <v>925.6062024281888</v>
+        <v>830.9950756839016</v>
       </c>
       <c r="M45" t="n">
-        <v>1468.065578434224</v>
+        <v>1373.454451689936</v>
       </c>
       <c r="N45" t="n">
-        <v>1468.065578434224</v>
+        <v>1650.477251841046</v>
       </c>
       <c r="O45" t="n">
-        <v>1968.405340730319</v>
+        <v>2150.817014137142</v>
       </c>
       <c r="P45" t="n">
-        <v>2350.639044462291</v>
+        <v>2533.050717869114</v>
       </c>
       <c r="Q45" t="n">
-        <v>2556.232956445214</v>
+        <v>2533.050717869114</v>
       </c>
       <c r="R45" t="n">
         <v>2556.232956445214</v>
@@ -7780,52 +7780,52 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>865.6563936524952</v>
+        <v>865.656393652496</v>
       </c>
       <c r="C46" t="n">
-        <v>729.6359715401809</v>
+        <v>729.6359715401817</v>
       </c>
       <c r="D46" t="n">
-        <v>612.4350929434378</v>
+        <v>612.4350929434385</v>
       </c>
       <c r="E46" t="n">
-        <v>497.4377601766373</v>
+        <v>497.4377601766379</v>
       </c>
       <c r="F46" t="n">
-        <v>383.4635734943195</v>
+        <v>383.46357349432</v>
       </c>
       <c r="G46" t="n">
-        <v>248.9978308700428</v>
+        <v>248.9978308700429</v>
       </c>
       <c r="H46" t="n">
-        <v>138.5533490428817</v>
+        <v>138.5533490428816</v>
       </c>
       <c r="I46" t="n">
-        <v>83.8067979253846</v>
+        <v>83.80679792538456</v>
       </c>
       <c r="J46" t="n">
         <v>183.4563304577435</v>
       </c>
       <c r="K46" t="n">
-        <v>456.2943961381839</v>
+        <v>456.2943961381845</v>
       </c>
       <c r="L46" t="n">
-        <v>851.9377205277797</v>
+        <v>851.9377205277802</v>
       </c>
       <c r="M46" t="n">
-        <v>1277.723569016743</v>
+        <v>1277.723569016744</v>
       </c>
       <c r="N46" t="n">
         <v>1699.586886352395</v>
       </c>
       <c r="O46" t="n">
-        <v>2075.6923697962</v>
+        <v>2075.692369796201</v>
       </c>
       <c r="P46" t="n">
         <v>2378.651006190802</v>
       </c>
       <c r="Q46" t="n">
-        <v>2514.893857258755</v>
+        <v>2514.893857258756</v>
       </c>
       <c r="R46" t="n">
         <v>2472.4274693323</v>
@@ -7834,22 +7834,22 @@
         <v>2319.257307033213</v>
       </c>
       <c r="T46" t="n">
-        <v>2131.779421483272</v>
+        <v>2131.779421483273</v>
       </c>
       <c r="U46" t="n">
         <v>1875.609842689168</v>
       </c>
       <c r="V46" t="n">
-        <v>1653.841115298873</v>
+        <v>1653.841115298874</v>
       </c>
       <c r="W46" t="n">
-        <v>1397.339706077505</v>
+        <v>1397.339706077506</v>
       </c>
       <c r="X46" t="n">
-        <v>1202.26591599508</v>
+        <v>1202.265915995081</v>
       </c>
       <c r="Y46" t="n">
-        <v>1014.389097667142</v>
+        <v>1014.389097667143</v>
       </c>
     </row>
   </sheetData>
@@ -9085,7 +9085,7 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K16" t="n">
-        <v>106.7437663446525</v>
+        <v>106.7437663446519</v>
       </c>
       <c r="L16" t="n">
         <v>162.4747015415544</v>
@@ -9328,13 +9328,13 @@
         <v>162.4747015415544</v>
       </c>
       <c r="M19" t="n">
-        <v>100.1237654006181</v>
+        <v>178.5096609094456</v>
       </c>
       <c r="N19" t="n">
         <v>171.8177168444618</v>
       </c>
       <c r="O19" t="n">
-        <v>163.0416663658825</v>
+        <v>84.65577085705169</v>
       </c>
       <c r="P19" t="n">
         <v>135.0065633140411</v>
@@ -9556,10 +9556,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>33.63624132272333</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>106.7437663446525</v>
+        <v>61.99411215854511</v>
       </c>
       <c r="L22" t="n">
         <v>162.4747015415544</v>
@@ -9568,7 +9568,7 @@
         <v>178.5096609094456</v>
       </c>
       <c r="N22" t="n">
-        <v>93.43182133563408</v>
+        <v>171.8177168444618</v>
       </c>
       <c r="O22" t="n">
         <v>163.0416663658825</v>
@@ -9802,10 +9802,10 @@
         <v>162.4747015415544</v>
       </c>
       <c r="M25" t="n">
-        <v>100.1237654006181</v>
+        <v>178.5096609094456</v>
       </c>
       <c r="N25" t="n">
-        <v>171.8177168444618</v>
+        <v>93.4318213356313</v>
       </c>
       <c r="O25" t="n">
         <v>163.0416663658825</v>
@@ -10507,13 +10507,13 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K34" t="n">
-        <v>106.7437663446525</v>
+        <v>28.35787083582142</v>
       </c>
       <c r="L34" t="n">
         <v>162.4747015415544</v>
       </c>
       <c r="M34" t="n">
-        <v>100.1237654006151</v>
+        <v>178.5096609094456</v>
       </c>
       <c r="N34" t="n">
         <v>171.8177168444618</v>
@@ -10747,10 +10747,10 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L37" t="n">
-        <v>84.08880603272451</v>
+        <v>162.4747015415544</v>
       </c>
       <c r="M37" t="n">
-        <v>178.5096609094456</v>
+        <v>100.1237654006157</v>
       </c>
       <c r="N37" t="n">
         <v>171.8177168444618</v>
@@ -10984,13 +10984,13 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L40" t="n">
-        <v>162.4747015415544</v>
+        <v>84.08880603272684</v>
       </c>
       <c r="M40" t="n">
         <v>178.5096609094456</v>
       </c>
       <c r="N40" t="n">
-        <v>93.43182133563175</v>
+        <v>171.8177168444618</v>
       </c>
       <c r="O40" t="n">
         <v>163.0416663658825</v>
@@ -23033,7 +23033,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>7.102442495190656</v>
+        <v>7.102442495190644</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -23255,7 +23255,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>45.11443519658843</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -23315,7 +23315,7 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>45.11443519658934</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -23498,13 +23498,13 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
+        <v>0</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" t="n">
         <v>45.11443519658837</v>
-      </c>
-      <c r="E14" t="n">
-        <v>0</v>
-      </c>
-      <c r="F14" t="n">
-        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -23780,7 +23780,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>3.126388037344441e-13</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -24455,7 +24455,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>45.11443519658781</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -24491,7 +24491,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>45.11443519659083</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
@@ -24677,7 +24677,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>45.11443519658843</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -24692,7 +24692,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>45.11443519658781</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -25643,7 +25643,7 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>45.11443519658951</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -25676,7 +25676,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>45.11443519659083</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
@@ -25795,7 +25795,7 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-13</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -25874,7 +25874,7 @@
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>45.11443519658837</v>
+        <v>45.11443519659019</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>649254.3574820812</v>
+        <v>649254.357482081</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>649254.3574820812</v>
+        <v>649254.357482081</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>649254.3574820812</v>
+        <v>649254.357482081</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>647552.9733328252</v>
+        <v>647552.9733328255</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>647552.9733328253</v>
+        <v>647552.9733328255</v>
       </c>
     </row>
     <row r="12">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>649254.357482081</v>
+        <v>649254.3574820812</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>647552.9733328252</v>
+        <v>647552.9733328253</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>647552.9733328253</v>
+        <v>647552.9733328252</v>
       </c>
     </row>
   </sheetData>
@@ -26311,46 +26311,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>799604.3569831311</v>
+        <v>799604.356983131</v>
       </c>
       <c r="C2" t="n">
         <v>799964.5050556246</v>
       </c>
       <c r="D2" t="n">
-        <v>799964.5050556248</v>
+        <v>799964.5050556245</v>
       </c>
       <c r="E2" t="n">
-        <v>797014.394302069</v>
+        <v>797014.3943020691</v>
       </c>
       <c r="F2" t="n">
-        <v>797014.394302069</v>
+        <v>797014.3943020686</v>
       </c>
       <c r="G2" t="n">
-        <v>800515.7256176771</v>
+        <v>800515.725617677</v>
       </c>
       <c r="H2" t="n">
         <v>800515.7256176771</v>
       </c>
       <c r="I2" t="n">
-        <v>800515.7256176777</v>
+        <v>800515.7256176778</v>
       </c>
       <c r="J2" t="n">
-        <v>797014.3943020687</v>
+        <v>797014.394302069</v>
       </c>
       <c r="K2" t="n">
-        <v>797014.3943020692</v>
+        <v>797014.394302069</v>
       </c>
       <c r="L2" t="n">
+        <v>800515.7256176776</v>
+      </c>
+      <c r="M2" t="n">
         <v>800515.7256176778</v>
       </c>
-      <c r="M2" t="n">
-        <v>800515.7256176769</v>
-      </c>
       <c r="N2" t="n">
-        <v>800515.7256176776</v>
+        <v>800515.7256176778</v>
       </c>
       <c r="O2" t="n">
-        <v>797014.3943020699</v>
+        <v>797014.3943020703</v>
       </c>
       <c r="P2" t="n">
         <v>797014.394302069</v>
@@ -26372,13 +26372,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>1089415.229930356</v>
+        <v>1089415.229930357</v>
       </c>
       <c r="F3" t="n">
-        <v>7.018525138846598e-10</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2577.967725518844</v>
+        <v>2577.967725519608</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,22 +26387,22 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>24685.00975759985</v>
+        <v>24685.00975759997</v>
       </c>
       <c r="K3" t="n">
-        <v>595.4875608170599</v>
+        <v>595.4875608169202</v>
       </c>
       <c r="L3" t="n">
-        <v>5155.935451038812</v>
+        <v>5155.935451038753</v>
       </c>
       <c r="M3" t="n">
-        <v>259348.8277744517</v>
+        <v>259348.8277744518</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>20913.34711491035</v>
+        <v>20913.34711491049</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26418,7 +26418,7 @@
         <v>356944.9912467133</v>
       </c>
       <c r="C4" t="n">
-        <v>356013.7579013873</v>
+        <v>356013.7579013872</v>
       </c>
       <c r="D4" t="n">
         <v>356013.7579013872</v>
@@ -26427,37 +26427,37 @@
         <v>46858.3536009575</v>
       </c>
       <c r="F4" t="n">
-        <v>46858.35360095747</v>
+        <v>46858.35360095749</v>
       </c>
       <c r="G4" t="n">
+        <v>48883.84297654149</v>
+      </c>
+      <c r="H4" t="n">
         <v>48883.84297654151</v>
       </c>
-      <c r="H4" t="n">
-        <v>48883.84297654146</v>
-      </c>
       <c r="I4" t="n">
-        <v>48883.84297654146</v>
+        <v>48883.84297654151</v>
       </c>
       <c r="J4" t="n">
-        <v>46858.3536009575</v>
+        <v>46858.35360095753</v>
       </c>
       <c r="K4" t="n">
-        <v>46858.35360095749</v>
+        <v>46858.35360095753</v>
       </c>
       <c r="L4" t="n">
-        <v>48883.84297654151</v>
+        <v>48883.84297654153</v>
       </c>
       <c r="M4" t="n">
         <v>48883.84297654149</v>
       </c>
       <c r="N4" t="n">
-        <v>48883.84297654149</v>
+        <v>48883.84297654146</v>
       </c>
       <c r="O4" t="n">
         <v>46858.3536009575</v>
       </c>
       <c r="P4" t="n">
-        <v>46858.3536009575</v>
+        <v>46858.35360095747</v>
       </c>
     </row>
     <row r="5">
@@ -26473,43 +26473,43 @@
         <v>41226.73635463382</v>
       </c>
       <c r="D5" t="n">
-        <v>41226.73635463382</v>
+        <v>41226.73635463383</v>
       </c>
       <c r="E5" t="n">
-        <v>94035.60147091738</v>
+        <v>94035.60147091741</v>
       </c>
       <c r="F5" t="n">
         <v>94035.60147091741</v>
       </c>
       <c r="G5" t="n">
-        <v>94306.51043181325</v>
+        <v>94306.51043181327</v>
       </c>
       <c r="H5" t="n">
-        <v>94306.51043181325</v>
+        <v>94306.51043181327</v>
       </c>
       <c r="I5" t="n">
-        <v>94306.51043181325</v>
+        <v>94306.51043181327</v>
       </c>
       <c r="J5" t="n">
-        <v>94035.60147091738</v>
+        <v>94035.60147091741</v>
       </c>
       <c r="K5" t="n">
         <v>94035.60147091741</v>
       </c>
       <c r="L5" t="n">
-        <v>94306.51043181327</v>
+        <v>94306.51043181324</v>
       </c>
       <c r="M5" t="n">
         <v>94306.51043181327</v>
       </c>
       <c r="N5" t="n">
-        <v>94306.51043181327</v>
+        <v>94306.51043181325</v>
       </c>
       <c r="O5" t="n">
+        <v>94035.60147091741</v>
+      </c>
+      <c r="P5" t="n">
         <v>94035.60147091738</v>
-      </c>
-      <c r="P5" t="n">
-        <v>94035.60147091741</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>85802.02809569269</v>
+        <v>85799.69125303988</v>
       </c>
       <c r="C6" t="n">
-        <v>399039.2871177903</v>
+        <v>399037.8737317339</v>
       </c>
       <c r="D6" t="n">
-        <v>402724.0107996037</v>
+        <v>402722.597413547</v>
       </c>
       <c r="E6" t="n">
-        <v>-433294.7907001621</v>
+        <v>-433303.7684727665</v>
       </c>
       <c r="F6" t="n">
-        <v>656120.4392301934</v>
+        <v>656111.4614575898</v>
       </c>
       <c r="G6" t="n">
-        <v>654747.4044838035</v>
+        <v>654747.4044838026</v>
       </c>
       <c r="H6" t="n">
-        <v>657325.3722093224</v>
+        <v>657325.3722093223</v>
       </c>
       <c r="I6" t="n">
-        <v>657325.3722093229</v>
+        <v>657325.3722093231</v>
       </c>
       <c r="J6" t="n">
-        <v>631435.4294725941</v>
+        <v>631426.45169999</v>
       </c>
       <c r="K6" t="n">
-        <v>655524.9516693773</v>
+        <v>655515.9738967729</v>
       </c>
       <c r="L6" t="n">
-        <v>652169.4367582842</v>
+        <v>652169.4367582841</v>
       </c>
       <c r="M6" t="n">
-        <v>397976.5444348704</v>
+        <v>397976.5444348713</v>
       </c>
       <c r="N6" t="n">
-        <v>657325.3722093228</v>
+        <v>657325.3722093231</v>
       </c>
       <c r="O6" t="n">
-        <v>635207.0921152846</v>
+        <v>635198.1143426808</v>
       </c>
       <c r="P6" t="n">
-        <v>656120.4392301941</v>
+        <v>656111.4614575901</v>
       </c>
     </row>
   </sheetData>
@@ -26695,37 +26695,37 @@
         <v>32.58660320743662</v>
       </c>
       <c r="F2" t="n">
-        <v>32.5866032074366</v>
+        <v>32.58660320743662</v>
       </c>
       <c r="G2" t="n">
-        <v>35.80906286433581</v>
+        <v>35.80906286433591</v>
       </c>
       <c r="H2" t="n">
-        <v>35.80906286433581</v>
+        <v>35.80906286433591</v>
       </c>
       <c r="I2" t="n">
-        <v>35.80906286433581</v>
+        <v>35.80906286433591</v>
       </c>
       <c r="J2" t="n">
-        <v>32.58660320743662</v>
+        <v>32.58660320743665</v>
       </c>
       <c r="K2" t="n">
-        <v>32.58660320743661</v>
+        <v>32.58660320743665</v>
       </c>
       <c r="L2" t="n">
-        <v>35.80906286433591</v>
+        <v>35.80906286433594</v>
       </c>
       <c r="M2" t="n">
         <v>35.80906286433588</v>
       </c>
       <c r="N2" t="n">
-        <v>35.80906286433588</v>
+        <v>35.80906286433581</v>
       </c>
       <c r="O2" t="n">
-        <v>32.58660320743662</v>
+        <v>32.58660320743657</v>
       </c>
       <c r="P2" t="n">
-        <v>32.58660320743662</v>
+        <v>32.5866032074366</v>
       </c>
     </row>
     <row r="3">
@@ -26747,7 +26747,7 @@
         <v>1266.188619384363</v>
       </c>
       <c r="F3" t="n">
-        <v>1266.188619384364</v>
+        <v>1266.188619384363</v>
       </c>
       <c r="G3" t="n">
         <v>1266.188619384363</v>
@@ -26793,7 +26793,7 @@
         <v>6.876045741711437</v>
       </c>
       <c r="D4" t="n">
-        <v>6.876045741711437</v>
+        <v>6.876045741711465</v>
       </c>
       <c r="E4" t="n">
         <v>1047.584974067307</v>
@@ -26920,7 +26920,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.222459656899218</v>
+        <v>3.222459656899289</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26935,7 +26935,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>6.444919313798515</v>
+        <v>6.444919313798586</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26944,7 +26944,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>26.14168389363807</v>
+        <v>26.14168389363811</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26966,13 +26966,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>936.7816114239145</v>
+        <v>936.7816114239149</v>
       </c>
       <c r="F3" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27033,10 +27033,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>4.562286607642363</v>
+        <v>4.562286607642818</v>
       </c>
       <c r="K4" t="n">
-        <v>2.31375913406896</v>
+        <v>2.313759134068505</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27157,7 +27157,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>3.222459656899218</v>
+        <v>3.222459656899289</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27379,13 +27379,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>369.8351783786504</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>386.4926566799047</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>400</v>
@@ -27394,7 +27394,7 @@
         <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>326.2308997096738</v>
+        <v>326.0456339133427</v>
       </c>
       <c r="I2" t="n">
         <v>159.9226849201952</v>
@@ -27439,7 +27439,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>349.4262345137442</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -27455,13 +27455,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>161.9708970422245</v>
       </c>
       <c r="C3" t="n">
-        <v>168.6900369443039</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>143.4266035206269</v>
       </c>
       <c r="E3" t="n">
         <v>157.6450804554009</v>
@@ -27506,13 +27506,13 @@
         <v>102.1188968768846</v>
       </c>
       <c r="S3" t="n">
-        <v>154.0890131332548</v>
+        <v>158.6512997408977</v>
       </c>
       <c r="T3" t="n">
-        <v>192.7745106155041</v>
+        <v>197.336797223147</v>
       </c>
       <c r="U3" t="n">
-        <v>225.8952243311651</v>
+        <v>221.3329377235222</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
@@ -27622,7 +27622,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>386.9052861261556</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
@@ -27679,7 +27679,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>374.7060167323629</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27692,19 +27692,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>159.6571379081559</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>140.5690198229273</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>139.0127913040845</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
         <v>136.6349813347674</v>
@@ -27719,7 +27719,7 @@
         <v>59.8965289451948</v>
       </c>
       <c r="K6" t="n">
-        <v>23.42844074719079</v>
+        <v>17.37201965789137</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -27743,7 +27743,7 @@
         <v>101.6881303348308</v>
       </c>
       <c r="S6" t="n">
-        <v>158.5224288518331</v>
+        <v>151.6463831101217</v>
       </c>
       <c r="T6" t="n">
         <v>197.3088320880702</v>
@@ -27752,7 +27752,7 @@
         <v>225.8947678817351</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>225.9245414077138</v>
       </c>
       <c r="W6" t="n">
         <v>251.6949831609196</v>
@@ -27853,7 +27853,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>370.2478078249014</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -27877,7 +27877,7 @@
         <v>68.65190234826171</v>
       </c>
       <c r="K8" t="n">
-        <v>51.64037691895487</v>
+        <v>51.64037691895484</v>
       </c>
       <c r="L8" t="n">
         <v>26.78994699523963</v>
@@ -27889,13 +27889,13 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>6.977105843813376</v>
+        <v>6.977105843813348</v>
       </c>
       <c r="P8" t="n">
-        <v>40.80429423377234</v>
+        <v>40.80429423377231</v>
       </c>
       <c r="Q8" t="n">
-        <v>79.30166562967011</v>
+        <v>79.30166562967008</v>
       </c>
       <c r="R8" t="n">
         <v>132.401164090331</v>
@@ -27919,7 +27919,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>391.2128547099474</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -27929,7 +27929,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>159.6571379081559</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
         <v>172.7084989883157</v>
@@ -27938,7 +27938,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>150.7690347136895</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
         <v>145.0692123933839</v>
@@ -27950,13 +27950,13 @@
         <v>105.3924797881105</v>
       </c>
       <c r="I9" t="n">
-        <v>75.12761573123095</v>
+        <v>75.12761573123093</v>
       </c>
       <c r="J9" t="n">
         <v>59.8965289451948</v>
       </c>
       <c r="K9" t="n">
-        <v>23.42844074719079</v>
+        <v>23.42844074719078</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -27974,10 +27974,10 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>49.53779710789991</v>
+        <v>43.48137601860043</v>
       </c>
       <c r="R9" t="n">
-        <v>101.6881303348308</v>
+        <v>94.81208459311938</v>
       </c>
       <c r="S9" t="n">
         <v>158.5224288518331</v>
@@ -27989,16 +27989,16 @@
         <v>225.8947678817351</v>
       </c>
       <c r="V9" t="n">
-        <v>226.7441660601258</v>
+        <v>225.9245414077138</v>
       </c>
       <c r="W9" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
-        <v>205.7729852034775</v>
+        <v>198.896939461766</v>
       </c>
       <c r="Y9" t="n">
-        <v>198.8066500355929</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="10">
@@ -28038,16 +28038,16 @@
         <v>59.99978994537916</v>
       </c>
       <c r="L10" t="n">
-        <v>46.57119745853053</v>
+        <v>46.57119745853052</v>
       </c>
       <c r="M10" t="n">
         <v>45.81160299249012</v>
       </c>
       <c r="N10" t="n">
-        <v>36.78541061280318</v>
+        <v>36.78541061280316</v>
       </c>
       <c r="O10" t="n">
-        <v>54.49555222612061</v>
+        <v>54.49555222612059</v>
       </c>
       <c r="P10" t="n">
         <v>65.88487562446231</v>
@@ -28108,7 +28108,7 @@
         <v>32.58660320743662</v>
       </c>
       <c r="I11" t="n">
-        <v>14.23574183647361</v>
+        <v>14.23574183647352</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>32.5866032074366</v>
+        <v>32.58660320743662</v>
       </c>
       <c r="C14" t="n">
-        <v>32.5866032074366</v>
+        <v>32.58660320743662</v>
       </c>
       <c r="D14" t="n">
-        <v>32.5866032074366</v>
+        <v>32.58660320743662</v>
       </c>
       <c r="E14" t="n">
-        <v>32.5866032074366</v>
+        <v>32.58660320743662</v>
       </c>
       <c r="F14" t="n">
-        <v>32.5866032074366</v>
+        <v>32.58660320743662</v>
       </c>
       <c r="G14" t="n">
-        <v>32.5866032074366</v>
+        <v>32.58660320743662</v>
       </c>
       <c r="H14" t="n">
-        <v>32.5866032074366</v>
+        <v>32.58660320743662</v>
       </c>
       <c r="I14" t="n">
-        <v>14.23574183647347</v>
+        <v>14.23574183647355</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,25 +28375,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>32.5866032074366</v>
+        <v>32.58660320743662</v>
       </c>
       <c r="T14" t="n">
-        <v>32.5866032074366</v>
+        <v>32.58660320743662</v>
       </c>
       <c r="U14" t="n">
-        <v>32.5866032074366</v>
+        <v>32.58660320743662</v>
       </c>
       <c r="V14" t="n">
-        <v>32.5866032074366</v>
+        <v>32.58660320743662</v>
       </c>
       <c r="W14" t="n">
-        <v>32.5866032074366</v>
+        <v>32.58660320743662</v>
       </c>
       <c r="X14" t="n">
-        <v>32.5866032074366</v>
+        <v>32.58660320743662</v>
       </c>
       <c r="Y14" t="n">
-        <v>32.5866032074366</v>
+        <v>32.58660320743662</v>
       </c>
     </row>
     <row r="15">
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>32.5866032074366</v>
+        <v>32.58660320743662</v>
       </c>
       <c r="C16" t="n">
-        <v>32.5866032074366</v>
+        <v>32.58660320743662</v>
       </c>
       <c r="D16" t="n">
-        <v>32.5866032074366</v>
+        <v>32.58660320743662</v>
       </c>
       <c r="E16" t="n">
-        <v>32.5866032074366</v>
+        <v>32.58660320743662</v>
       </c>
       <c r="F16" t="n">
-        <v>32.5866032074366</v>
+        <v>32.58660320743662</v>
       </c>
       <c r="G16" t="n">
-        <v>32.5866032074366</v>
+        <v>32.58660320743662</v>
       </c>
       <c r="H16" t="n">
-        <v>32.5866032074366</v>
+        <v>32.58660320743662</v>
       </c>
       <c r="I16" t="n">
-        <v>32.5866032074366</v>
+        <v>32.58660320743662</v>
       </c>
       <c r="J16" t="n">
-        <v>32.5866032074366</v>
+        <v>32.58660320743662</v>
       </c>
       <c r="K16" t="n">
-        <v>32.5866032074366</v>
+        <v>32.58660320743662</v>
       </c>
       <c r="L16" t="n">
-        <v>32.5866032074366</v>
+        <v>32.58660320743662</v>
       </c>
       <c r="M16" t="n">
-        <v>32.5866032074366</v>
+        <v>32.58660320743662</v>
       </c>
       <c r="N16" t="n">
-        <v>32.5866032074366</v>
+        <v>32.58660320743662</v>
       </c>
       <c r="O16" t="n">
-        <v>32.5866032074366</v>
+        <v>32.58660320743662</v>
       </c>
       <c r="P16" t="n">
-        <v>32.5866032074366</v>
+        <v>32.58660320743662</v>
       </c>
       <c r="Q16" t="n">
-        <v>32.5866032074366</v>
+        <v>32.58660320743662</v>
       </c>
       <c r="R16" t="n">
-        <v>32.5866032074366</v>
+        <v>32.58660320743662</v>
       </c>
       <c r="S16" t="n">
-        <v>32.5866032074366</v>
+        <v>32.58660320743662</v>
       </c>
       <c r="T16" t="n">
-        <v>32.5866032074366</v>
+        <v>32.58660320743662</v>
       </c>
       <c r="U16" t="n">
-        <v>32.5866032074366</v>
+        <v>32.58660320743662</v>
       </c>
       <c r="V16" t="n">
-        <v>32.5866032074366</v>
+        <v>32.58660320743662</v>
       </c>
       <c r="W16" t="n">
-        <v>32.5866032074366</v>
+        <v>32.58660320743662</v>
       </c>
       <c r="X16" t="n">
-        <v>32.5866032074366</v>
+        <v>32.58660320743662</v>
       </c>
       <c r="Y16" t="n">
-        <v>32.5866032074366</v>
+        <v>32.58660320743662</v>
       </c>
     </row>
     <row r="17">
@@ -28561,28 +28561,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>35.80906286433581</v>
+        <v>35.80906286433591</v>
       </c>
       <c r="C17" t="n">
-        <v>35.80906286433581</v>
+        <v>35.80906286433591</v>
       </c>
       <c r="D17" t="n">
-        <v>35.80906286433581</v>
+        <v>35.80906286433591</v>
       </c>
       <c r="E17" t="n">
-        <v>35.80906286433581</v>
+        <v>35.80906286433591</v>
       </c>
       <c r="F17" t="n">
-        <v>35.80906286433581</v>
+        <v>35.80906286433591</v>
       </c>
       <c r="G17" t="n">
-        <v>35.80906286433581</v>
+        <v>35.80906286433591</v>
       </c>
       <c r="H17" t="n">
-        <v>35.80906286433581</v>
+        <v>35.80906286433591</v>
       </c>
       <c r="I17" t="n">
-        <v>14.23574183647455</v>
+        <v>14.23574183647352</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -28594,7 +28594,7 @@
         <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>-3.410605131648481e-13</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
@@ -28612,25 +28612,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>35.80906286433581</v>
+        <v>35.80906286433591</v>
       </c>
       <c r="T17" t="n">
-        <v>35.80906286433581</v>
+        <v>35.80906286433591</v>
       </c>
       <c r="U17" t="n">
-        <v>35.80906286433581</v>
+        <v>35.80906286433591</v>
       </c>
       <c r="V17" t="n">
-        <v>35.80906286433581</v>
+        <v>35.80906286433591</v>
       </c>
       <c r="W17" t="n">
-        <v>35.80906286433581</v>
+        <v>35.80906286433591</v>
       </c>
       <c r="X17" t="n">
-        <v>35.80906286433581</v>
+        <v>35.80906286433591</v>
       </c>
       <c r="Y17" t="n">
-        <v>35.80906286433581</v>
+        <v>35.80906286433591</v>
       </c>
     </row>
     <row r="18">
@@ -28719,76 +28719,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>35.80906286433581</v>
+        <v>35.80906286433591</v>
       </c>
       <c r="C19" t="n">
-        <v>35.80906286433581</v>
+        <v>35.80906286433591</v>
       </c>
       <c r="D19" t="n">
-        <v>35.80906286433581</v>
+        <v>35.80906286433591</v>
       </c>
       <c r="E19" t="n">
-        <v>35.80906286433581</v>
+        <v>35.80906286433591</v>
       </c>
       <c r="F19" t="n">
-        <v>35.80906286433581</v>
+        <v>35.80906286433591</v>
       </c>
       <c r="G19" t="n">
-        <v>35.80906286433581</v>
+        <v>35.80906286433591</v>
       </c>
       <c r="H19" t="n">
-        <v>35.80906286433581</v>
+        <v>35.80906286433591</v>
       </c>
       <c r="I19" t="n">
-        <v>35.80906286433581</v>
+        <v>35.80906286433591</v>
       </c>
       <c r="J19" t="n">
-        <v>35.80906286433581</v>
+        <v>35.80906286433591</v>
       </c>
       <c r="K19" t="n">
-        <v>35.80906286433581</v>
+        <v>35.80906286433591</v>
       </c>
       <c r="L19" t="n">
-        <v>35.80906286433581</v>
+        <v>35.80906286433591</v>
       </c>
       <c r="M19" t="n">
-        <v>35.80906286433581</v>
+        <v>35.80906286433591</v>
       </c>
       <c r="N19" t="n">
-        <v>35.80906286433581</v>
+        <v>35.80906286433591</v>
       </c>
       <c r="O19" t="n">
-        <v>35.80906286433581</v>
+        <v>35.80906286433591</v>
       </c>
       <c r="P19" t="n">
-        <v>35.80906286433581</v>
+        <v>35.80906286433591</v>
       </c>
       <c r="Q19" t="n">
-        <v>35.80906286433581</v>
+        <v>35.80906286433591</v>
       </c>
       <c r="R19" t="n">
-        <v>35.80906286433581</v>
+        <v>35.80906286433591</v>
       </c>
       <c r="S19" t="n">
-        <v>35.80906286433581</v>
+        <v>35.80906286433591</v>
       </c>
       <c r="T19" t="n">
-        <v>35.80906286433581</v>
+        <v>35.80906286433591</v>
       </c>
       <c r="U19" t="n">
-        <v>35.80906286433581</v>
+        <v>35.80906286433591</v>
       </c>
       <c r="V19" t="n">
-        <v>35.80906286433581</v>
+        <v>35.80906286433591</v>
       </c>
       <c r="W19" t="n">
-        <v>35.80906286433581</v>
+        <v>35.80906286433591</v>
       </c>
       <c r="X19" t="n">
-        <v>35.80906286433581</v>
+        <v>35.80906286433591</v>
       </c>
       <c r="Y19" t="n">
-        <v>35.80906286433581</v>
+        <v>35.80906286433591</v>
       </c>
     </row>
     <row r="20">
@@ -28798,28 +28798,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>35.80906286433581</v>
+        <v>35.80906286433591</v>
       </c>
       <c r="C20" t="n">
-        <v>35.80906286433581</v>
+        <v>35.80906286433591</v>
       </c>
       <c r="D20" t="n">
-        <v>35.80906286433581</v>
+        <v>35.80906286433591</v>
       </c>
       <c r="E20" t="n">
-        <v>35.80906286433581</v>
+        <v>35.80906286433591</v>
       </c>
       <c r="F20" t="n">
-        <v>35.80906286433581</v>
+        <v>35.80906286433591</v>
       </c>
       <c r="G20" t="n">
-        <v>35.80906286433581</v>
+        <v>35.80906286433591</v>
       </c>
       <c r="H20" t="n">
-        <v>35.80906286433581</v>
+        <v>35.80906286433591</v>
       </c>
       <c r="I20" t="n">
-        <v>14.23574183647355</v>
+        <v>14.23574183647352</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -28849,25 +28849,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>35.80906286433581</v>
+        <v>35.80906286433591</v>
       </c>
       <c r="T20" t="n">
-        <v>35.80906286433581</v>
+        <v>35.80906286433591</v>
       </c>
       <c r="U20" t="n">
-        <v>35.80906286433581</v>
+        <v>35.80906286433591</v>
       </c>
       <c r="V20" t="n">
-        <v>35.80906286433581</v>
+        <v>35.80906286433591</v>
       </c>
       <c r="W20" t="n">
-        <v>35.80906286433581</v>
+        <v>35.80906286433591</v>
       </c>
       <c r="X20" t="n">
-        <v>35.80906286433581</v>
+        <v>35.80906286433591</v>
       </c>
       <c r="Y20" t="n">
-        <v>35.80906286433581</v>
+        <v>35.80906286433591</v>
       </c>
     </row>
     <row r="21">
@@ -28956,76 +28956,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>35.80906286433581</v>
+        <v>35.80906286433591</v>
       </c>
       <c r="C22" t="n">
-        <v>35.80906286433581</v>
+        <v>35.80906286433591</v>
       </c>
       <c r="D22" t="n">
-        <v>35.80906286433581</v>
+        <v>35.80906286433591</v>
       </c>
       <c r="E22" t="n">
-        <v>35.80906286433581</v>
+        <v>35.80906286433591</v>
       </c>
       <c r="F22" t="n">
-        <v>35.80906286433581</v>
+        <v>35.80906286433591</v>
       </c>
       <c r="G22" t="n">
-        <v>35.80906286433581</v>
+        <v>35.80906286433591</v>
       </c>
       <c r="H22" t="n">
-        <v>35.80906286433581</v>
+        <v>35.80906286433591</v>
       </c>
       <c r="I22" t="n">
-        <v>35.80906286433581</v>
+        <v>35.80906286433591</v>
       </c>
       <c r="J22" t="n">
-        <v>35.80906286433581</v>
+        <v>35.80906286433591</v>
       </c>
       <c r="K22" t="n">
-        <v>35.80906286433581</v>
+        <v>35.80906286433591</v>
       </c>
       <c r="L22" t="n">
-        <v>35.80906286433581</v>
+        <v>35.80906286433591</v>
       </c>
       <c r="M22" t="n">
-        <v>35.80906286433581</v>
+        <v>35.80906286433591</v>
       </c>
       <c r="N22" t="n">
-        <v>35.80906286433581</v>
+        <v>35.80906286433591</v>
       </c>
       <c r="O22" t="n">
-        <v>35.80906286433581</v>
+        <v>35.80906286433591</v>
       </c>
       <c r="P22" t="n">
-        <v>35.80906286433581</v>
+        <v>35.80906286433591</v>
       </c>
       <c r="Q22" t="n">
-        <v>35.80906286433581</v>
+        <v>35.80906286433591</v>
       </c>
       <c r="R22" t="n">
-        <v>35.80906286433581</v>
+        <v>35.80906286433591</v>
       </c>
       <c r="S22" t="n">
-        <v>35.80906286433581</v>
+        <v>35.80906286433591</v>
       </c>
       <c r="T22" t="n">
-        <v>35.80906286433581</v>
+        <v>35.80906286433591</v>
       </c>
       <c r="U22" t="n">
-        <v>35.80906286433581</v>
+        <v>35.80906286433591</v>
       </c>
       <c r="V22" t="n">
-        <v>35.80906286433581</v>
+        <v>35.80906286433591</v>
       </c>
       <c r="W22" t="n">
-        <v>35.80906286433581</v>
+        <v>35.80906286433591</v>
       </c>
       <c r="X22" t="n">
-        <v>35.80906286433581</v>
+        <v>35.80906286433591</v>
       </c>
       <c r="Y22" t="n">
-        <v>35.80906286433581</v>
+        <v>35.80906286433591</v>
       </c>
     </row>
     <row r="23">
@@ -29035,25 +29035,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>35.80906286433581</v>
+        <v>35.80906286433591</v>
       </c>
       <c r="C23" t="n">
-        <v>35.80906286433581</v>
+        <v>35.80906286433591</v>
       </c>
       <c r="D23" t="n">
-        <v>35.80906286433581</v>
+        <v>35.80906286433591</v>
       </c>
       <c r="E23" t="n">
-        <v>35.80906286433581</v>
+        <v>35.80906286433591</v>
       </c>
       <c r="F23" t="n">
-        <v>35.80906286433581</v>
+        <v>35.80906286433591</v>
       </c>
       <c r="G23" t="n">
-        <v>35.80906286433581</v>
+        <v>35.80906286433591</v>
       </c>
       <c r="H23" t="n">
-        <v>35.80906286433581</v>
+        <v>35.80906286433591</v>
       </c>
       <c r="I23" t="n">
         <v>14.23574183647355</v>
@@ -29086,25 +29086,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>35.80906286433581</v>
+        <v>35.80906286433591</v>
       </c>
       <c r="T23" t="n">
-        <v>35.80906286433581</v>
+        <v>35.80906286433591</v>
       </c>
       <c r="U23" t="n">
-        <v>35.80906286433581</v>
+        <v>35.80906286433591</v>
       </c>
       <c r="V23" t="n">
-        <v>35.80906286433581</v>
+        <v>35.80906286433591</v>
       </c>
       <c r="W23" t="n">
-        <v>35.80906286433581</v>
+        <v>35.80906286433591</v>
       </c>
       <c r="X23" t="n">
-        <v>35.80906286433581</v>
+        <v>35.80906286433591</v>
       </c>
       <c r="Y23" t="n">
-        <v>35.80906286433581</v>
+        <v>35.80906286433591</v>
       </c>
     </row>
     <row r="24">
@@ -29193,76 +29193,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>35.80906286433581</v>
+        <v>35.80906286433591</v>
       </c>
       <c r="C25" t="n">
-        <v>35.80906286433581</v>
+        <v>35.80906286433591</v>
       </c>
       <c r="D25" t="n">
-        <v>35.80906286433581</v>
+        <v>35.80906286433591</v>
       </c>
       <c r="E25" t="n">
-        <v>35.80906286433581</v>
+        <v>35.80906286433591</v>
       </c>
       <c r="F25" t="n">
-        <v>35.80906286433581</v>
+        <v>35.80906286433591</v>
       </c>
       <c r="G25" t="n">
-        <v>35.80906286433581</v>
+        <v>35.80906286433591</v>
       </c>
       <c r="H25" t="n">
-        <v>35.80906286433581</v>
+        <v>35.80906286433591</v>
       </c>
       <c r="I25" t="n">
-        <v>35.80906286433581</v>
+        <v>35.80906286433591</v>
       </c>
       <c r="J25" t="n">
-        <v>35.80906286433581</v>
+        <v>35.80906286433591</v>
       </c>
       <c r="K25" t="n">
-        <v>35.80906286433581</v>
+        <v>35.80906286433591</v>
       </c>
       <c r="L25" t="n">
-        <v>35.80906286433581</v>
+        <v>35.80906286433591</v>
       </c>
       <c r="M25" t="n">
-        <v>35.80906286433581</v>
+        <v>35.80906286433591</v>
       </c>
       <c r="N25" t="n">
-        <v>35.80906286433581</v>
+        <v>35.80906286433591</v>
       </c>
       <c r="O25" t="n">
-        <v>35.80906286433581</v>
+        <v>35.80906286433591</v>
       </c>
       <c r="P25" t="n">
-        <v>35.80906286433581</v>
+        <v>35.80906286433591</v>
       </c>
       <c r="Q25" t="n">
-        <v>35.80906286433581</v>
+        <v>35.80906286433591</v>
       </c>
       <c r="R25" t="n">
-        <v>35.80906286433581</v>
+        <v>35.80906286433591</v>
       </c>
       <c r="S25" t="n">
-        <v>35.80906286433581</v>
+        <v>35.80906286433591</v>
       </c>
       <c r="T25" t="n">
-        <v>35.80906286433581</v>
+        <v>35.80906286433591</v>
       </c>
       <c r="U25" t="n">
-        <v>35.80906286433581</v>
+        <v>35.80906286433591</v>
       </c>
       <c r="V25" t="n">
-        <v>35.80906286433581</v>
+        <v>35.80906286433591</v>
       </c>
       <c r="W25" t="n">
-        <v>35.80906286433581</v>
+        <v>35.80906286433591</v>
       </c>
       <c r="X25" t="n">
-        <v>35.80906286433581</v>
+        <v>35.80906286433591</v>
       </c>
       <c r="Y25" t="n">
-        <v>35.80906286433581</v>
+        <v>35.80906286433591</v>
       </c>
     </row>
     <row r="26">
@@ -29272,25 +29272,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>32.58660320743662</v>
+        <v>32.58660320743665</v>
       </c>
       <c r="C26" t="n">
-        <v>32.58660320743662</v>
+        <v>32.58660320743665</v>
       </c>
       <c r="D26" t="n">
-        <v>32.58660320743662</v>
+        <v>32.58660320743665</v>
       </c>
       <c r="E26" t="n">
-        <v>32.58660320743662</v>
+        <v>32.58660320743665</v>
       </c>
       <c r="F26" t="n">
-        <v>32.58660320743662</v>
+        <v>32.58660320743665</v>
       </c>
       <c r="G26" t="n">
-        <v>32.58660320743662</v>
+        <v>32.58660320743665</v>
       </c>
       <c r="H26" t="n">
-        <v>32.58660320743662</v>
+        <v>32.58660320743665</v>
       </c>
       <c r="I26" t="n">
         <v>14.23574183647355</v>
@@ -29323,25 +29323,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>32.58660320743662</v>
+        <v>32.58660320743665</v>
       </c>
       <c r="T26" t="n">
-        <v>32.58660320743662</v>
+        <v>32.58660320743665</v>
       </c>
       <c r="U26" t="n">
-        <v>32.58660320743662</v>
+        <v>32.58660320743665</v>
       </c>
       <c r="V26" t="n">
-        <v>32.58660320743662</v>
+        <v>32.58660320743665</v>
       </c>
       <c r="W26" t="n">
-        <v>32.58660320743662</v>
+        <v>32.58660320743665</v>
       </c>
       <c r="X26" t="n">
-        <v>32.58660320743662</v>
+        <v>32.58660320743665</v>
       </c>
       <c r="Y26" t="n">
-        <v>32.58660320743662</v>
+        <v>32.58660320743665</v>
       </c>
     </row>
     <row r="27">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>32.58660320743662</v>
+        <v>32.58660320743665</v>
       </c>
       <c r="C28" t="n">
-        <v>32.58660320743662</v>
+        <v>32.58660320743665</v>
       </c>
       <c r="D28" t="n">
-        <v>32.58660320743662</v>
+        <v>32.58660320743665</v>
       </c>
       <c r="E28" t="n">
-        <v>32.58660320743662</v>
+        <v>32.58660320743665</v>
       </c>
       <c r="F28" t="n">
-        <v>32.58660320743662</v>
+        <v>32.58660320743665</v>
       </c>
       <c r="G28" t="n">
-        <v>32.58660320743662</v>
+        <v>32.58660320743665</v>
       </c>
       <c r="H28" t="n">
-        <v>32.58660320743662</v>
+        <v>32.58660320743665</v>
       </c>
       <c r="I28" t="n">
-        <v>32.58660320743662</v>
+        <v>32.58660320743665</v>
       </c>
       <c r="J28" t="n">
-        <v>32.58660320743662</v>
+        <v>32.58660320743665</v>
       </c>
       <c r="K28" t="n">
-        <v>32.58660320743662</v>
+        <v>32.58660320743665</v>
       </c>
       <c r="L28" t="n">
-        <v>32.58660320743662</v>
+        <v>32.58660320743665</v>
       </c>
       <c r="M28" t="n">
-        <v>32.58660320743662</v>
+        <v>32.58660320743665</v>
       </c>
       <c r="N28" t="n">
-        <v>32.58660320743662</v>
+        <v>32.58660320743665</v>
       </c>
       <c r="O28" t="n">
-        <v>32.58660320743662</v>
+        <v>32.58660320743665</v>
       </c>
       <c r="P28" t="n">
-        <v>32.58660320743662</v>
+        <v>32.58660320743665</v>
       </c>
       <c r="Q28" t="n">
-        <v>32.58660320743662</v>
+        <v>32.58660320743665</v>
       </c>
       <c r="R28" t="n">
-        <v>32.58660320743662</v>
+        <v>32.58660320743665</v>
       </c>
       <c r="S28" t="n">
-        <v>32.58660320743662</v>
+        <v>32.58660320743665</v>
       </c>
       <c r="T28" t="n">
-        <v>32.58660320743662</v>
+        <v>32.58660320743665</v>
       </c>
       <c r="U28" t="n">
-        <v>32.58660320743662</v>
+        <v>32.58660320743665</v>
       </c>
       <c r="V28" t="n">
-        <v>32.58660320743662</v>
+        <v>32.58660320743665</v>
       </c>
       <c r="W28" t="n">
-        <v>32.58660320743662</v>
+        <v>32.58660320743665</v>
       </c>
       <c r="X28" t="n">
-        <v>32.58660320743662</v>
+        <v>32.58660320743665</v>
       </c>
       <c r="Y28" t="n">
-        <v>32.58660320743662</v>
+        <v>32.58660320743665</v>
       </c>
     </row>
     <row r="29">
@@ -29509,25 +29509,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>32.58660320743661</v>
+        <v>32.58660320743665</v>
       </c>
       <c r="C29" t="n">
-        <v>32.58660320743661</v>
+        <v>32.58660320743665</v>
       </c>
       <c r="D29" t="n">
-        <v>32.58660320743661</v>
+        <v>32.58660320743665</v>
       </c>
       <c r="E29" t="n">
-        <v>32.58660320743661</v>
+        <v>32.58660320743665</v>
       </c>
       <c r="F29" t="n">
-        <v>32.58660320743661</v>
+        <v>32.58660320743665</v>
       </c>
       <c r="G29" t="n">
-        <v>32.58660320743661</v>
+        <v>32.58660320743665</v>
       </c>
       <c r="H29" t="n">
-        <v>32.58660320743661</v>
+        <v>32.58660320743665</v>
       </c>
       <c r="I29" t="n">
         <v>14.23574183647355</v>
@@ -29560,25 +29560,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>32.58660320743661</v>
+        <v>32.58660320743665</v>
       </c>
       <c r="T29" t="n">
-        <v>32.58660320743661</v>
+        <v>32.58660320743665</v>
       </c>
       <c r="U29" t="n">
-        <v>32.58660320743661</v>
+        <v>32.58660320743665</v>
       </c>
       <c r="V29" t="n">
-        <v>32.58660320743661</v>
+        <v>32.58660320743665</v>
       </c>
       <c r="W29" t="n">
-        <v>32.58660320743661</v>
+        <v>32.58660320743665</v>
       </c>
       <c r="X29" t="n">
-        <v>32.58660320743661</v>
+        <v>32.58660320743665</v>
       </c>
       <c r="Y29" t="n">
-        <v>32.58660320743661</v>
+        <v>32.58660320743665</v>
       </c>
     </row>
     <row r="30">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>32.58660320743661</v>
+        <v>32.58660320743665</v>
       </c>
       <c r="C31" t="n">
-        <v>32.58660320743661</v>
+        <v>32.58660320743665</v>
       </c>
       <c r="D31" t="n">
-        <v>32.58660320743661</v>
+        <v>32.58660320743665</v>
       </c>
       <c r="E31" t="n">
-        <v>32.58660320743661</v>
+        <v>32.58660320743665</v>
       </c>
       <c r="F31" t="n">
-        <v>32.58660320743661</v>
+        <v>32.58660320743665</v>
       </c>
       <c r="G31" t="n">
-        <v>32.58660320743661</v>
+        <v>32.58660320743665</v>
       </c>
       <c r="H31" t="n">
-        <v>32.58660320743661</v>
+        <v>32.58660320743665</v>
       </c>
       <c r="I31" t="n">
-        <v>32.58660320743661</v>
+        <v>32.58660320743665</v>
       </c>
       <c r="J31" t="n">
-        <v>32.58660320743661</v>
+        <v>32.58660320743665</v>
       </c>
       <c r="K31" t="n">
-        <v>32.58660320743661</v>
+        <v>32.58660320743665</v>
       </c>
       <c r="L31" t="n">
-        <v>32.58660320743661</v>
+        <v>32.58660320743665</v>
       </c>
       <c r="M31" t="n">
-        <v>32.58660320743661</v>
+        <v>32.58660320743665</v>
       </c>
       <c r="N31" t="n">
-        <v>32.58660320743661</v>
+        <v>32.58660320743665</v>
       </c>
       <c r="O31" t="n">
-        <v>32.58660320743661</v>
+        <v>32.58660320743665</v>
       </c>
       <c r="P31" t="n">
-        <v>32.58660320743661</v>
+        <v>32.58660320743665</v>
       </c>
       <c r="Q31" t="n">
-        <v>32.58660320743661</v>
+        <v>32.58660320743665</v>
       </c>
       <c r="R31" t="n">
-        <v>32.58660320743661</v>
+        <v>32.58660320743665</v>
       </c>
       <c r="S31" t="n">
-        <v>32.58660320743661</v>
+        <v>32.58660320743665</v>
       </c>
       <c r="T31" t="n">
-        <v>32.58660320743661</v>
+        <v>32.58660320743665</v>
       </c>
       <c r="U31" t="n">
-        <v>32.58660320743661</v>
+        <v>32.58660320743665</v>
       </c>
       <c r="V31" t="n">
-        <v>32.58660320743661</v>
+        <v>32.58660320743665</v>
       </c>
       <c r="W31" t="n">
-        <v>32.58660320743661</v>
+        <v>32.58660320743665</v>
       </c>
       <c r="X31" t="n">
-        <v>32.58660320743661</v>
+        <v>32.58660320743665</v>
       </c>
       <c r="Y31" t="n">
-        <v>32.58660320743661</v>
+        <v>32.58660320743665</v>
       </c>
     </row>
     <row r="32">
@@ -29746,25 +29746,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>35.80906286433591</v>
+        <v>35.80906286433594</v>
       </c>
       <c r="C32" t="n">
-        <v>35.80906286433591</v>
+        <v>35.80906286433594</v>
       </c>
       <c r="D32" t="n">
-        <v>35.80906286433591</v>
+        <v>35.80906286433594</v>
       </c>
       <c r="E32" t="n">
-        <v>35.80906286433591</v>
+        <v>35.80906286433594</v>
       </c>
       <c r="F32" t="n">
-        <v>35.80906286433591</v>
+        <v>35.80906286433594</v>
       </c>
       <c r="G32" t="n">
-        <v>35.80906286433591</v>
+        <v>35.80906286433594</v>
       </c>
       <c r="H32" t="n">
-        <v>35.80906286433591</v>
+        <v>35.80906286433594</v>
       </c>
       <c r="I32" t="n">
         <v>14.23574183647355</v>
@@ -29797,25 +29797,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>35.80906286433591</v>
+        <v>35.80906286433594</v>
       </c>
       <c r="T32" t="n">
-        <v>35.80906286433591</v>
+        <v>35.80906286433594</v>
       </c>
       <c r="U32" t="n">
-        <v>35.80906286433591</v>
+        <v>35.80906286433594</v>
       </c>
       <c r="V32" t="n">
-        <v>35.80906286433591</v>
+        <v>35.80906286433594</v>
       </c>
       <c r="W32" t="n">
-        <v>35.80906286433591</v>
+        <v>35.80906286433594</v>
       </c>
       <c r="X32" t="n">
-        <v>35.80906286433591</v>
+        <v>35.80906286433594</v>
       </c>
       <c r="Y32" t="n">
-        <v>35.80906286433591</v>
+        <v>35.80906286433594</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>35.80906286433591</v>
+        <v>35.80906286433594</v>
       </c>
       <c r="C34" t="n">
-        <v>35.80906286433591</v>
+        <v>35.80906286433594</v>
       </c>
       <c r="D34" t="n">
-        <v>35.80906286433591</v>
+        <v>35.80906286433594</v>
       </c>
       <c r="E34" t="n">
-        <v>35.80906286433591</v>
+        <v>35.80906286433594</v>
       </c>
       <c r="F34" t="n">
-        <v>35.80906286433591</v>
+        <v>35.80906286433594</v>
       </c>
       <c r="G34" t="n">
-        <v>35.80906286433591</v>
+        <v>35.80906286433594</v>
       </c>
       <c r="H34" t="n">
-        <v>35.80906286433591</v>
+        <v>35.80906286433594</v>
       </c>
       <c r="I34" t="n">
-        <v>35.80906286433591</v>
+        <v>35.80906286433594</v>
       </c>
       <c r="J34" t="n">
-        <v>35.80906286433591</v>
+        <v>35.80906286433594</v>
       </c>
       <c r="K34" t="n">
-        <v>35.80906286433591</v>
+        <v>35.80906286433594</v>
       </c>
       <c r="L34" t="n">
-        <v>35.80906286433591</v>
+        <v>35.80906286433594</v>
       </c>
       <c r="M34" t="n">
-        <v>35.80906286433591</v>
+        <v>35.80906286433594</v>
       </c>
       <c r="N34" t="n">
-        <v>35.80906286433591</v>
+        <v>35.80906286433594</v>
       </c>
       <c r="O34" t="n">
-        <v>35.80906286433591</v>
+        <v>35.80906286433594</v>
       </c>
       <c r="P34" t="n">
-        <v>35.80906286433591</v>
+        <v>35.80906286433594</v>
       </c>
       <c r="Q34" t="n">
-        <v>35.80906286433591</v>
+        <v>35.80906286433594</v>
       </c>
       <c r="R34" t="n">
-        <v>35.80906286433591</v>
+        <v>35.80906286433594</v>
       </c>
       <c r="S34" t="n">
-        <v>35.80906286433591</v>
+        <v>35.80906286433594</v>
       </c>
       <c r="T34" t="n">
-        <v>35.80906286433591</v>
+        <v>35.80906286433594</v>
       </c>
       <c r="U34" t="n">
-        <v>35.80906286433591</v>
+        <v>35.80906286433594</v>
       </c>
       <c r="V34" t="n">
-        <v>35.80906286433591</v>
+        <v>35.80906286433594</v>
       </c>
       <c r="W34" t="n">
-        <v>35.80906286433591</v>
+        <v>35.80906286433594</v>
       </c>
       <c r="X34" t="n">
-        <v>35.80906286433591</v>
+        <v>35.80906286433594</v>
       </c>
       <c r="Y34" t="n">
-        <v>35.80906286433591</v>
+        <v>35.80906286433594</v>
       </c>
     </row>
     <row r="35">
@@ -30220,25 +30220,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>35.80906286433588</v>
+        <v>35.80906286433581</v>
       </c>
       <c r="C38" t="n">
-        <v>35.80906286433588</v>
+        <v>35.80906286433581</v>
       </c>
       <c r="D38" t="n">
-        <v>35.80906286433588</v>
+        <v>35.80906286433581</v>
       </c>
       <c r="E38" t="n">
-        <v>35.80906286433588</v>
+        <v>35.80906286433581</v>
       </c>
       <c r="F38" t="n">
-        <v>35.80906286433588</v>
+        <v>35.80906286433581</v>
       </c>
       <c r="G38" t="n">
-        <v>35.80906286433588</v>
+        <v>35.80906286433581</v>
       </c>
       <c r="H38" t="n">
-        <v>35.80906286433588</v>
+        <v>35.80906286433581</v>
       </c>
       <c r="I38" t="n">
         <v>14.23574183647355</v>
@@ -30271,25 +30271,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>35.80906286433588</v>
+        <v>35.80906286433581</v>
       </c>
       <c r="T38" t="n">
-        <v>35.80906286433588</v>
+        <v>35.80906286433581</v>
       </c>
       <c r="U38" t="n">
-        <v>35.80906286433588</v>
+        <v>35.80906286433581</v>
       </c>
       <c r="V38" t="n">
-        <v>35.80906286433588</v>
+        <v>35.80906286433581</v>
       </c>
       <c r="W38" t="n">
-        <v>35.80906286433588</v>
+        <v>35.80906286433581</v>
       </c>
       <c r="X38" t="n">
-        <v>35.80906286433588</v>
+        <v>35.80906286433581</v>
       </c>
       <c r="Y38" t="n">
-        <v>35.80906286433588</v>
+        <v>35.80906286433581</v>
       </c>
     </row>
     <row r="39">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>35.80906286433588</v>
+        <v>35.80906286433581</v>
       </c>
       <c r="C40" t="n">
-        <v>35.80906286433588</v>
+        <v>35.80906286433581</v>
       </c>
       <c r="D40" t="n">
-        <v>35.80906286433588</v>
+        <v>35.80906286433581</v>
       </c>
       <c r="E40" t="n">
-        <v>35.80906286433588</v>
+        <v>35.80906286433581</v>
       </c>
       <c r="F40" t="n">
-        <v>35.80906286433588</v>
+        <v>35.80906286433581</v>
       </c>
       <c r="G40" t="n">
-        <v>35.80906286433588</v>
+        <v>35.80906286433581</v>
       </c>
       <c r="H40" t="n">
-        <v>35.80906286433588</v>
+        <v>35.80906286433581</v>
       </c>
       <c r="I40" t="n">
-        <v>35.80906286433588</v>
+        <v>35.80906286433581</v>
       </c>
       <c r="J40" t="n">
-        <v>35.80906286433588</v>
+        <v>35.80906286433581</v>
       </c>
       <c r="K40" t="n">
-        <v>35.80906286433588</v>
+        <v>35.80906286433581</v>
       </c>
       <c r="L40" t="n">
-        <v>35.80906286433588</v>
+        <v>35.80906286433581</v>
       </c>
       <c r="M40" t="n">
-        <v>35.80906286433588</v>
+        <v>35.80906286433581</v>
       </c>
       <c r="N40" t="n">
-        <v>35.80906286433588</v>
+        <v>35.80906286433581</v>
       </c>
       <c r="O40" t="n">
-        <v>35.80906286433588</v>
+        <v>35.80906286433581</v>
       </c>
       <c r="P40" t="n">
-        <v>35.80906286433588</v>
+        <v>35.80906286433581</v>
       </c>
       <c r="Q40" t="n">
-        <v>35.80906286433588</v>
+        <v>35.80906286433581</v>
       </c>
       <c r="R40" t="n">
-        <v>35.80906286433588</v>
+        <v>35.80906286433581</v>
       </c>
       <c r="S40" t="n">
-        <v>35.80906286433588</v>
+        <v>35.80906286433581</v>
       </c>
       <c r="T40" t="n">
-        <v>35.80906286433588</v>
+        <v>35.80906286433581</v>
       </c>
       <c r="U40" t="n">
-        <v>35.80906286433588</v>
+        <v>35.80906286433581</v>
       </c>
       <c r="V40" t="n">
-        <v>35.80906286433588</v>
+        <v>35.80906286433581</v>
       </c>
       <c r="W40" t="n">
-        <v>35.80906286433588</v>
+        <v>35.80906286433581</v>
       </c>
       <c r="X40" t="n">
-        <v>35.80906286433588</v>
+        <v>35.80906286433581</v>
       </c>
       <c r="Y40" t="n">
-        <v>35.80906286433588</v>
+        <v>35.80906286433581</v>
       </c>
     </row>
     <row r="41">
@@ -30457,25 +30457,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>32.58660320743662</v>
+        <v>32.58660320743657</v>
       </c>
       <c r="C41" t="n">
-        <v>32.58660320743662</v>
+        <v>32.58660320743657</v>
       </c>
       <c r="D41" t="n">
-        <v>32.58660320743662</v>
+        <v>32.58660320743657</v>
       </c>
       <c r="E41" t="n">
-        <v>32.58660320743662</v>
+        <v>32.58660320743657</v>
       </c>
       <c r="F41" t="n">
-        <v>32.58660320743662</v>
+        <v>32.58660320743657</v>
       </c>
       <c r="G41" t="n">
-        <v>32.58660320743662</v>
+        <v>32.58660320743657</v>
       </c>
       <c r="H41" t="n">
-        <v>32.58660320743662</v>
+        <v>32.58660320743657</v>
       </c>
       <c r="I41" t="n">
         <v>14.23574183647355</v>
@@ -30496,7 +30496,7 @@
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>1.023181539494544e-12</v>
       </c>
       <c r="P41" t="n">
         <v>0</v>
@@ -30508,25 +30508,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>32.58660320743662</v>
+        <v>32.58660320743657</v>
       </c>
       <c r="T41" t="n">
-        <v>32.58660320743662</v>
+        <v>32.58660320743657</v>
       </c>
       <c r="U41" t="n">
-        <v>32.58660320743662</v>
+        <v>32.58660320743657</v>
       </c>
       <c r="V41" t="n">
-        <v>32.58660320743662</v>
+        <v>32.58660320743657</v>
       </c>
       <c r="W41" t="n">
-        <v>32.58660320743662</v>
+        <v>32.58660320743657</v>
       </c>
       <c r="X41" t="n">
-        <v>32.58660320743662</v>
+        <v>32.58660320743657</v>
       </c>
       <c r="Y41" t="n">
-        <v>32.58660320743662</v>
+        <v>32.58660320743657</v>
       </c>
     </row>
     <row r="42">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>32.58660320743662</v>
+        <v>32.58660320743657</v>
       </c>
       <c r="C43" t="n">
-        <v>32.58660320743662</v>
+        <v>32.58660320743657</v>
       </c>
       <c r="D43" t="n">
-        <v>32.58660320743662</v>
+        <v>32.58660320743657</v>
       </c>
       <c r="E43" t="n">
-        <v>32.58660320743662</v>
+        <v>32.58660320743657</v>
       </c>
       <c r="F43" t="n">
-        <v>32.58660320743662</v>
+        <v>32.58660320743657</v>
       </c>
       <c r="G43" t="n">
-        <v>32.58660320743662</v>
+        <v>32.58660320743657</v>
       </c>
       <c r="H43" t="n">
-        <v>32.58660320743662</v>
+        <v>32.58660320743657</v>
       </c>
       <c r="I43" t="n">
-        <v>32.58660320743662</v>
+        <v>32.58660320743657</v>
       </c>
       <c r="J43" t="n">
-        <v>32.58660320743662</v>
+        <v>32.58660320743657</v>
       </c>
       <c r="K43" t="n">
-        <v>32.58660320743662</v>
+        <v>32.58660320743657</v>
       </c>
       <c r="L43" t="n">
-        <v>32.58660320743662</v>
+        <v>32.58660320743657</v>
       </c>
       <c r="M43" t="n">
-        <v>32.58660320743662</v>
+        <v>32.58660320743657</v>
       </c>
       <c r="N43" t="n">
-        <v>32.58660320743662</v>
+        <v>32.58660320743657</v>
       </c>
       <c r="O43" t="n">
-        <v>32.58660320743662</v>
+        <v>32.58660320743657</v>
       </c>
       <c r="P43" t="n">
-        <v>32.58660320743662</v>
+        <v>32.58660320743657</v>
       </c>
       <c r="Q43" t="n">
-        <v>32.58660320743662</v>
+        <v>32.58660320743657</v>
       </c>
       <c r="R43" t="n">
-        <v>32.58660320743662</v>
+        <v>32.58660320743657</v>
       </c>
       <c r="S43" t="n">
-        <v>32.58660320743662</v>
+        <v>32.58660320743657</v>
       </c>
       <c r="T43" t="n">
-        <v>32.58660320743662</v>
+        <v>32.58660320743657</v>
       </c>
       <c r="U43" t="n">
-        <v>32.58660320743662</v>
+        <v>32.58660320743657</v>
       </c>
       <c r="V43" t="n">
-        <v>32.58660320743662</v>
+        <v>32.58660320743657</v>
       </c>
       <c r="W43" t="n">
-        <v>32.58660320743662</v>
+        <v>32.58660320743657</v>
       </c>
       <c r="X43" t="n">
-        <v>32.58660320743662</v>
+        <v>32.58660320743657</v>
       </c>
       <c r="Y43" t="n">
-        <v>32.58660320743662</v>
+        <v>32.58660320743657</v>
       </c>
     </row>
     <row r="44">
@@ -30694,25 +30694,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>32.58660320743662</v>
+        <v>32.5866032074366</v>
       </c>
       <c r="C44" t="n">
-        <v>32.58660320743662</v>
+        <v>32.5866032074366</v>
       </c>
       <c r="D44" t="n">
-        <v>32.58660320743662</v>
+        <v>32.5866032074366</v>
       </c>
       <c r="E44" t="n">
-        <v>32.58660320743662</v>
+        <v>32.5866032074366</v>
       </c>
       <c r="F44" t="n">
-        <v>32.58660320743662</v>
+        <v>32.5866032074366</v>
       </c>
       <c r="G44" t="n">
-        <v>32.58660320743662</v>
+        <v>32.5866032074366</v>
       </c>
       <c r="H44" t="n">
-        <v>32.58660320743662</v>
+        <v>32.5866032074366</v>
       </c>
       <c r="I44" t="n">
         <v>14.23574183647355</v>
@@ -30745,25 +30745,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>32.58660320743662</v>
+        <v>32.5866032074366</v>
       </c>
       <c r="T44" t="n">
-        <v>32.58660320743662</v>
+        <v>32.5866032074366</v>
       </c>
       <c r="U44" t="n">
-        <v>32.58660320743662</v>
+        <v>32.5866032074366</v>
       </c>
       <c r="V44" t="n">
-        <v>32.58660320743662</v>
+        <v>32.5866032074366</v>
       </c>
       <c r="W44" t="n">
-        <v>32.58660320743662</v>
+        <v>32.5866032074366</v>
       </c>
       <c r="X44" t="n">
-        <v>32.58660320743662</v>
+        <v>32.5866032074366</v>
       </c>
       <c r="Y44" t="n">
-        <v>32.58660320743662</v>
+        <v>32.5866032074366</v>
       </c>
     </row>
     <row r="45">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>32.58660320743662</v>
+        <v>32.5866032074366</v>
       </c>
       <c r="C46" t="n">
-        <v>32.58660320743662</v>
+        <v>32.5866032074366</v>
       </c>
       <c r="D46" t="n">
-        <v>32.58660320743662</v>
+        <v>32.5866032074366</v>
       </c>
       <c r="E46" t="n">
-        <v>32.58660320743662</v>
+        <v>32.5866032074366</v>
       </c>
       <c r="F46" t="n">
-        <v>32.58660320743662</v>
+        <v>32.5866032074366</v>
       </c>
       <c r="G46" t="n">
-        <v>32.58660320743662</v>
+        <v>32.5866032074366</v>
       </c>
       <c r="H46" t="n">
-        <v>32.58660320743662</v>
+        <v>32.5866032074366</v>
       </c>
       <c r="I46" t="n">
-        <v>32.58660320743662</v>
+        <v>32.5866032074366</v>
       </c>
       <c r="J46" t="n">
-        <v>32.58660320743662</v>
+        <v>32.5866032074366</v>
       </c>
       <c r="K46" t="n">
-        <v>32.58660320743662</v>
+        <v>32.5866032074366</v>
       </c>
       <c r="L46" t="n">
-        <v>32.58660320743662</v>
+        <v>32.5866032074366</v>
       </c>
       <c r="M46" t="n">
-        <v>32.58660320743662</v>
+        <v>32.5866032074366</v>
       </c>
       <c r="N46" t="n">
-        <v>32.58660320743662</v>
+        <v>32.5866032074366</v>
       </c>
       <c r="O46" t="n">
-        <v>32.58660320743662</v>
+        <v>32.5866032074366</v>
       </c>
       <c r="P46" t="n">
-        <v>32.58660320743662</v>
+        <v>32.5866032074366</v>
       </c>
       <c r="Q46" t="n">
-        <v>32.58660320743662</v>
+        <v>32.5866032074366</v>
       </c>
       <c r="R46" t="n">
-        <v>32.58660320743662</v>
+        <v>32.5866032074366</v>
       </c>
       <c r="S46" t="n">
-        <v>32.58660320743662</v>
+        <v>32.5866032074366</v>
       </c>
       <c r="T46" t="n">
-        <v>32.58660320743662</v>
+        <v>32.5866032074366</v>
       </c>
       <c r="U46" t="n">
-        <v>32.58660320743662</v>
+        <v>32.5866032074366</v>
       </c>
       <c r="V46" t="n">
-        <v>32.58660320743662</v>
+        <v>32.5866032074366</v>
       </c>
       <c r="W46" t="n">
-        <v>32.58660320743662</v>
+        <v>32.5866032074366</v>
       </c>
       <c r="X46" t="n">
-        <v>32.58660320743662</v>
+        <v>32.5866032074366</v>
       </c>
       <c r="Y46" t="n">
-        <v>32.58660320743662</v>
+        <v>32.5866032074366</v>
       </c>
     </row>
   </sheetData>
@@ -31139,10 +31139,10 @@
         <v>146.6963205296612</v>
       </c>
       <c r="N3" t="n">
-        <v>135.7196638785462</v>
+        <v>135.9039986909762</v>
       </c>
       <c r="O3" t="n">
-        <v>147.1585310520873</v>
+        <v>146.9741962396573</v>
       </c>
       <c r="P3" t="n">
         <v>133.9744074143302</v>
@@ -31370,7 +31370,7 @@
         <v>114.4129982271682</v>
       </c>
       <c r="L6" t="n">
-        <v>145.4304255215856</v>
+        <v>145.1526054916175</v>
       </c>
       <c r="M6" t="n">
         <v>149.0100796637298</v>
@@ -31379,10 +31379,10 @@
         <v>138.2177578250447</v>
       </c>
       <c r="O6" t="n">
-        <v>147.8696104706878</v>
+        <v>149.4722901861559</v>
       </c>
       <c r="P6" t="n">
-        <v>135.2992670998302</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q6" t="n">
         <v>90.44397697812161</v>
@@ -31513,13 +31513,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.324249278232957</v>
+        <v>1.324249278232958</v>
       </c>
       <c r="H8" t="n">
         <v>13.56196792070328</v>
       </c>
       <c r="I8" t="n">
-        <v>51.05312029907613</v>
+        <v>51.05312029907614</v>
       </c>
       <c r="J8" t="n">
         <v>112.3940021784246</v>
@@ -31592,10 +31592,10 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.7085358284432286</v>
+        <v>0.7085358284432287</v>
       </c>
       <c r="H9" t="n">
-        <v>6.84296444838592</v>
+        <v>6.842964448385921</v>
       </c>
       <c r="I9" t="n">
         <v>24.39476426876906</v>
@@ -31613,7 +31613,7 @@
         <v>149.0100796637298</v>
       </c>
       <c r="N9" t="n">
-        <v>138.2177578250447</v>
+        <v>138.2177578250448</v>
       </c>
       <c r="O9" t="n">
         <v>149.4722901861559</v>
@@ -31622,7 +31622,7 @@
         <v>135.2992670998302</v>
       </c>
       <c r="Q9" t="n">
-        <v>90.44397697812161</v>
+        <v>90.44397697812163</v>
       </c>
       <c r="R9" t="n">
         <v>43.99137362913311</v>
@@ -31634,7 +31634,7 @@
         <v>2.855896606751434</v>
       </c>
       <c r="U9" t="n">
-        <v>0.04661419923968611</v>
+        <v>0.04661419923968612</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,13 +31671,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.5940126373057265</v>
+        <v>0.5940126373057266</v>
       </c>
       <c r="H10" t="n">
         <v>5.281312357136373</v>
       </c>
       <c r="I10" t="n">
-        <v>17.86358003824858</v>
+        <v>17.86358003824859</v>
       </c>
       <c r="J10" t="n">
         <v>41.99669345751487</v>
@@ -31686,22 +31686,22 @@
         <v>69.01346822515622</v>
       </c>
       <c r="L10" t="n">
-        <v>88.31347882270775</v>
+        <v>88.31347882270776</v>
       </c>
       <c r="M10" t="n">
         <v>93.11418095511493</v>
       </c>
       <c r="N10" t="n">
-        <v>90.90013385243002</v>
+        <v>90.90013385243003</v>
       </c>
       <c r="O10" t="n">
-        <v>83.96098622572218</v>
+        <v>83.96098622572219</v>
       </c>
       <c r="P10" t="n">
         <v>71.8431284246853</v>
       </c>
       <c r="Q10" t="n">
-        <v>49.7404582020277</v>
+        <v>49.74045820202771</v>
       </c>
       <c r="R10" t="n">
         <v>26.7089682192193</v>
@@ -31713,7 +31713,7 @@
         <v>2.538053995760831</v>
       </c>
       <c r="U10" t="n">
-        <v>0.03240068930758512</v>
+        <v>0.03240068930758513</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.090205505062761</v>
+        <v>5.090205505062763</v>
       </c>
       <c r="H11" t="n">
-        <v>52.13006712872402</v>
+        <v>52.13006712872404</v>
       </c>
       <c r="I11" t="n">
-        <v>196.2401477339323</v>
+        <v>196.2401477339324</v>
       </c>
       <c r="J11" t="n">
-        <v>432.024829485321</v>
+        <v>432.0248294853211</v>
       </c>
       <c r="K11" t="n">
-        <v>647.4932285146278</v>
+        <v>647.4932285146281</v>
       </c>
       <c r="L11" t="n">
-        <v>803.2726052401924</v>
+        <v>803.2726052401928</v>
       </c>
       <c r="M11" t="n">
-        <v>893.7955473908523</v>
+        <v>893.7955473908527</v>
       </c>
       <c r="N11" t="n">
-        <v>908.2580937821119</v>
+        <v>908.2580937821123</v>
       </c>
       <c r="O11" t="n">
-        <v>857.642362791144</v>
+        <v>857.6423627911444</v>
       </c>
       <c r="P11" t="n">
-        <v>731.977914384907</v>
+        <v>731.9779143849073</v>
       </c>
       <c r="Q11" t="n">
-        <v>549.6849297348467</v>
+        <v>549.6849297348468</v>
       </c>
       <c r="R11" t="n">
-        <v>319.747621557399</v>
+        <v>319.7476215573991</v>
       </c>
       <c r="S11" t="n">
         <v>115.9930579466178</v>
       </c>
       <c r="T11" t="n">
-        <v>22.28237459841225</v>
+        <v>22.28237459841226</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4072164404050209</v>
+        <v>0.407216440405021</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.723500049241837</v>
+        <v>2.723500049241838</v>
       </c>
       <c r="H12" t="n">
-        <v>26.30327679136196</v>
+        <v>26.30327679136197</v>
       </c>
       <c r="I12" t="n">
-        <v>93.76962888837029</v>
+        <v>93.76962888837032</v>
       </c>
       <c r="J12" t="n">
-        <v>257.3110287750808</v>
+        <v>257.3110287750809</v>
       </c>
       <c r="K12" t="n">
-        <v>439.7855320742839</v>
+        <v>439.785532074284</v>
       </c>
       <c r="L12" t="n">
-        <v>591.3459207794613</v>
+        <v>591.3459207794615</v>
       </c>
       <c r="M12" t="n">
-        <v>690.0727975644777</v>
+        <v>631.749787545141</v>
       </c>
       <c r="N12" t="n">
-        <v>708.3369711403145</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
-        <v>629.8533456581173</v>
+        <v>647.9899437334299</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>520.0690576486454</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>347.6523922505898</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>169.0959065660854</v>
       </c>
       <c r="S12" t="n">
-        <v>50.58781889710164</v>
+        <v>50.58781889710166</v>
       </c>
       <c r="T12" t="n">
-        <v>10.97761642654933</v>
+        <v>10.97761642654934</v>
       </c>
       <c r="U12" t="n">
-        <v>0.179177634818542</v>
+        <v>0.1791776348185421</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.283290952988195</v>
+        <v>2.283290952988196</v>
       </c>
       <c r="H13" t="n">
-        <v>20.30053229111324</v>
+        <v>20.30053229111325</v>
       </c>
       <c r="I13" t="n">
-        <v>68.66478611349956</v>
+        <v>68.66478611349959</v>
       </c>
       <c r="J13" t="n">
         <v>161.4286703762654</v>
       </c>
       <c r="K13" t="n">
-        <v>265.2768943562648</v>
+        <v>265.2768943562649</v>
       </c>
       <c r="L13" t="n">
-        <v>339.4630931378995</v>
+        <v>339.4630931378996</v>
       </c>
       <c r="M13" t="n">
-        <v>357.9162354761404</v>
+        <v>357.9162354761405</v>
       </c>
       <c r="N13" t="n">
-        <v>349.4057873786392</v>
+        <v>349.4057873786394</v>
       </c>
       <c r="O13" t="n">
-        <v>322.7327976096407</v>
+        <v>322.7327976096408</v>
       </c>
       <c r="P13" t="n">
-        <v>276.1536621686813</v>
+        <v>276.1536621686814</v>
       </c>
       <c r="Q13" t="n">
-        <v>191.1944815270388</v>
+        <v>191.1944815270389</v>
       </c>
       <c r="R13" t="n">
         <v>102.6650641225419</v>
       </c>
       <c r="S13" t="n">
-        <v>39.79153415343971</v>
+        <v>39.79153415343973</v>
       </c>
       <c r="T13" t="n">
-        <v>9.755879526404104</v>
+        <v>9.755879526404108</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1245431428902653</v>
+        <v>0.1245431428902654</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.090205505062765</v>
+        <v>5.090205505062762</v>
       </c>
       <c r="H14" t="n">
-        <v>52.13006712872406</v>
+        <v>52.13006712872403</v>
       </c>
       <c r="I14" t="n">
         <v>196.2401477339324</v>
       </c>
       <c r="J14" t="n">
-        <v>432.0248294853213</v>
+        <v>432.024829485321</v>
       </c>
       <c r="K14" t="n">
-        <v>647.4932285146283</v>
+        <v>647.493228514628</v>
       </c>
       <c r="L14" t="n">
-        <v>803.272605240193</v>
+        <v>803.2726052401925</v>
       </c>
       <c r="M14" t="n">
-        <v>893.7955473908529</v>
+        <v>893.7955473908524</v>
       </c>
       <c r="N14" t="n">
-        <v>908.2580937821126</v>
+        <v>908.2580937821122</v>
       </c>
       <c r="O14" t="n">
-        <v>857.6423627911447</v>
+        <v>857.6423627911443</v>
       </c>
       <c r="P14" t="n">
-        <v>731.9779143849075</v>
+        <v>731.9779143849072</v>
       </c>
       <c r="Q14" t="n">
-        <v>549.6849297348471</v>
+        <v>549.6849297348468</v>
       </c>
       <c r="R14" t="n">
-        <v>319.7476215573992</v>
+        <v>319.747621557399</v>
       </c>
       <c r="S14" t="n">
-        <v>115.9930579466179</v>
+        <v>115.9930579466178</v>
       </c>
       <c r="T14" t="n">
-        <v>22.28237459841227</v>
+        <v>22.28237459841225</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4072164404050211</v>
+        <v>0.4072164404050209</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.72350004924184</v>
+        <v>2.723500049241838</v>
       </c>
       <c r="H15" t="n">
-        <v>26.30327679136198</v>
+        <v>26.30327679136196</v>
       </c>
       <c r="I15" t="n">
-        <v>93.76962888837035</v>
+        <v>93.76962888837031</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>257.3110287750808</v>
       </c>
       <c r="K15" t="n">
-        <v>439.7855320742842</v>
+        <v>213.9783158344028</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>591.3459207794614</v>
       </c>
       <c r="M15" t="n">
-        <v>661.4358741982815</v>
+        <v>690.0727975644778</v>
       </c>
       <c r="N15" t="n">
-        <v>708.3369711403151</v>
+        <v>708.3369711403146</v>
       </c>
       <c r="O15" t="n">
-        <v>647.9899437334301</v>
+        <v>647.9899437334298</v>
       </c>
       <c r="P15" t="n">
-        <v>520.0690576486456</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>347.6523922505899</v>
+        <v>347.6523922505897</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>50.58781889710168</v>
+        <v>50.58781889710165</v>
       </c>
       <c r="T15" t="n">
-        <v>10.97761642654934</v>
+        <v>10.97761642654933</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1791776348185421</v>
+        <v>0.179177634818542</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,46 +32145,46 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.283290952988197</v>
+        <v>2.283290952988196</v>
       </c>
       <c r="H16" t="n">
-        <v>20.30053229111326</v>
+        <v>20.30053229111325</v>
       </c>
       <c r="I16" t="n">
-        <v>68.66478611349962</v>
+        <v>68.66478611349957</v>
       </c>
       <c r="J16" t="n">
-        <v>161.4286703762655</v>
+        <v>161.4286703762654</v>
       </c>
       <c r="K16" t="n">
-        <v>265.276894356265</v>
+        <v>265.2768943562648</v>
       </c>
       <c r="L16" t="n">
-        <v>339.4630931378998</v>
+        <v>339.4630931378996</v>
       </c>
       <c r="M16" t="n">
-        <v>357.9162354761407</v>
+        <v>357.9162354761405</v>
       </c>
       <c r="N16" t="n">
-        <v>349.4057873786395</v>
+        <v>349.4057873786393</v>
       </c>
       <c r="O16" t="n">
-        <v>322.7327976096409</v>
+        <v>322.7327976096407</v>
       </c>
       <c r="P16" t="n">
-        <v>276.1536621686814</v>
+        <v>276.1536621686813</v>
       </c>
       <c r="Q16" t="n">
-        <v>191.1944815270389</v>
+        <v>191.1944815270388</v>
       </c>
       <c r="R16" t="n">
-        <v>102.665064122542</v>
+        <v>102.6650641225419</v>
       </c>
       <c r="S16" t="n">
-        <v>39.79153415343974</v>
+        <v>39.79153415343972</v>
       </c>
       <c r="T16" t="n">
-        <v>9.755879526404112</v>
+        <v>9.755879526404106</v>
       </c>
       <c r="U16" t="n">
         <v>0.1245431428902654</v>
@@ -32224,49 +32224,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.090205505062762</v>
+        <v>5.090205505062763</v>
       </c>
       <c r="H17" t="n">
-        <v>52.13006712872403</v>
+        <v>52.13006712872404</v>
       </c>
       <c r="I17" t="n">
         <v>196.2401477339324</v>
       </c>
       <c r="J17" t="n">
-        <v>432.024829485321</v>
+        <v>432.0248294853211</v>
       </c>
       <c r="K17" t="n">
-        <v>647.493228514628</v>
+        <v>647.4932285146281</v>
       </c>
       <c r="L17" t="n">
-        <v>803.2726052401925</v>
+        <v>803.2726052401928</v>
       </c>
       <c r="M17" t="n">
-        <v>893.7955473908524</v>
+        <v>893.7955473908527</v>
       </c>
       <c r="N17" t="n">
-        <v>908.2580937821122</v>
+        <v>908.2580937821123</v>
       </c>
       <c r="O17" t="n">
-        <v>857.6423627911443</v>
+        <v>857.6423627911444</v>
       </c>
       <c r="P17" t="n">
-        <v>731.9779143849072</v>
+        <v>731.9779143849073</v>
       </c>
       <c r="Q17" t="n">
         <v>549.6849297348468</v>
       </c>
       <c r="R17" t="n">
-        <v>319.747621557399</v>
+        <v>319.7476215573991</v>
       </c>
       <c r="S17" t="n">
         <v>115.9930579466178</v>
       </c>
       <c r="T17" t="n">
-        <v>22.28237459841225</v>
+        <v>22.28237459841226</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4072164404050209</v>
+        <v>0.407216440405021</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32306,46 +32306,46 @@
         <v>2.723500049241838</v>
       </c>
       <c r="H18" t="n">
-        <v>26.30327679136196</v>
+        <v>26.30327679136197</v>
       </c>
       <c r="I18" t="n">
-        <v>93.76962888837031</v>
+        <v>93.76962888837032</v>
       </c>
       <c r="J18" t="n">
-        <v>257.3110287750808</v>
+        <v>257.3110287750809</v>
       </c>
       <c r="K18" t="n">
-        <v>439.785532074284</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
-        <v>591.3459207794614</v>
+        <v>257.9717448030678</v>
       </c>
       <c r="M18" t="n">
-        <v>690.0727975644778</v>
+        <v>690.0727975644779</v>
       </c>
       <c r="N18" t="n">
-        <v>459.1133522983124</v>
+        <v>708.3369711403149</v>
       </c>
       <c r="O18" t="n">
-        <v>647.9899437334298</v>
+        <v>647.9899437334299</v>
       </c>
       <c r="P18" t="n">
-        <v>133.9744074143302</v>
+        <v>520.0690576486454</v>
       </c>
       <c r="Q18" t="n">
-        <v>347.6523922505897</v>
+        <v>347.6523922505898</v>
       </c>
       <c r="R18" t="n">
         <v>169.0959065660854</v>
       </c>
       <c r="S18" t="n">
-        <v>50.58781889710165</v>
+        <v>50.58781889710166</v>
       </c>
       <c r="T18" t="n">
-        <v>10.97761642654933</v>
+        <v>10.97761642654934</v>
       </c>
       <c r="U18" t="n">
-        <v>0.179177634818542</v>
+        <v>0.1791776348185421</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32388,13 +32388,13 @@
         <v>20.30053229111325</v>
       </c>
       <c r="I19" t="n">
-        <v>68.66478611349957</v>
+        <v>68.66478611349959</v>
       </c>
       <c r="J19" t="n">
         <v>161.4286703762654</v>
       </c>
       <c r="K19" t="n">
-        <v>265.2768943562648</v>
+        <v>265.2768943562649</v>
       </c>
       <c r="L19" t="n">
         <v>339.4630931378996</v>
@@ -32403,25 +32403,25 @@
         <v>357.9162354761405</v>
       </c>
       <c r="N19" t="n">
-        <v>349.4057873786393</v>
+        <v>349.4057873786394</v>
       </c>
       <c r="O19" t="n">
-        <v>322.7327976096407</v>
+        <v>322.7327976096408</v>
       </c>
       <c r="P19" t="n">
-        <v>276.1536621686813</v>
+        <v>276.1536621686814</v>
       </c>
       <c r="Q19" t="n">
-        <v>191.1944815270388</v>
+        <v>191.1944815270389</v>
       </c>
       <c r="R19" t="n">
         <v>102.6650641225419</v>
       </c>
       <c r="S19" t="n">
-        <v>39.79153415343972</v>
+        <v>39.79153415343973</v>
       </c>
       <c r="T19" t="n">
-        <v>9.755879526404106</v>
+        <v>9.755879526404108</v>
       </c>
       <c r="U19" t="n">
         <v>0.1245431428902654</v>
@@ -32461,49 +32461,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.090205505062762</v>
+        <v>5.090205505062763</v>
       </c>
       <c r="H20" t="n">
-        <v>52.13006712872403</v>
+        <v>52.13006712872404</v>
       </c>
       <c r="I20" t="n">
         <v>196.2401477339324</v>
       </c>
       <c r="J20" t="n">
-        <v>432.024829485321</v>
+        <v>432.0248294853211</v>
       </c>
       <c r="K20" t="n">
-        <v>647.493228514628</v>
+        <v>647.4932285146281</v>
       </c>
       <c r="L20" t="n">
-        <v>803.2726052401925</v>
+        <v>803.2726052401928</v>
       </c>
       <c r="M20" t="n">
-        <v>893.7955473908524</v>
+        <v>893.7955473908527</v>
       </c>
       <c r="N20" t="n">
-        <v>908.2580937821122</v>
+        <v>908.2580937821123</v>
       </c>
       <c r="O20" t="n">
-        <v>857.6423627911443</v>
+        <v>857.6423627911444</v>
       </c>
       <c r="P20" t="n">
-        <v>731.9779143849072</v>
+        <v>731.9779143849073</v>
       </c>
       <c r="Q20" t="n">
         <v>549.6849297348468</v>
       </c>
       <c r="R20" t="n">
-        <v>319.747621557399</v>
+        <v>319.7476215573991</v>
       </c>
       <c r="S20" t="n">
         <v>115.9930579466178</v>
       </c>
       <c r="T20" t="n">
-        <v>22.28237459841225</v>
+        <v>22.28237459841226</v>
       </c>
       <c r="U20" t="n">
-        <v>0.4072164404050209</v>
+        <v>0.407216440405021</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32543,46 +32543,46 @@
         <v>2.723500049241838</v>
       </c>
       <c r="H21" t="n">
-        <v>26.30327679136196</v>
+        <v>26.30327679136197</v>
       </c>
       <c r="I21" t="n">
-        <v>93.76962888837031</v>
+        <v>93.76962888837032</v>
       </c>
       <c r="J21" t="n">
-        <v>257.3110287750808</v>
+        <v>127.3864589877476</v>
       </c>
       <c r="K21" t="n">
         <v>439.785532074284</v>
       </c>
       <c r="L21" t="n">
-        <v>591.3459207794614</v>
+        <v>591.3459207794615</v>
       </c>
       <c r="M21" t="n">
-        <v>142.1340339220183</v>
+        <v>690.0727975644779</v>
       </c>
       <c r="N21" t="n">
-        <v>708.3369711403146</v>
+        <v>708.3369711403149</v>
       </c>
       <c r="O21" t="n">
-        <v>560.6104382995716</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P21" t="n">
         <v>520.0690576486454</v>
       </c>
       <c r="Q21" t="n">
-        <v>347.6523922505897</v>
+        <v>347.6523922505898</v>
       </c>
       <c r="R21" t="n">
         <v>169.0959065660854</v>
       </c>
       <c r="S21" t="n">
-        <v>50.58781889710165</v>
+        <v>50.58781889710166</v>
       </c>
       <c r="T21" t="n">
-        <v>10.97761642654933</v>
+        <v>10.97761642654934</v>
       </c>
       <c r="U21" t="n">
-        <v>0.179177634818542</v>
+        <v>0.1791776348185421</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32625,13 +32625,13 @@
         <v>20.30053229111325</v>
       </c>
       <c r="I22" t="n">
-        <v>68.66478611349957</v>
+        <v>68.66478611349959</v>
       </c>
       <c r="J22" t="n">
         <v>161.4286703762654</v>
       </c>
       <c r="K22" t="n">
-        <v>265.2768943562648</v>
+        <v>265.2768943562649</v>
       </c>
       <c r="L22" t="n">
         <v>339.4630931378996</v>
@@ -32640,25 +32640,25 @@
         <v>357.9162354761405</v>
       </c>
       <c r="N22" t="n">
-        <v>349.4057873786393</v>
+        <v>349.4057873786394</v>
       </c>
       <c r="O22" t="n">
-        <v>322.7327976096407</v>
+        <v>322.7327976096408</v>
       </c>
       <c r="P22" t="n">
-        <v>276.1536621686813</v>
+        <v>276.1536621686814</v>
       </c>
       <c r="Q22" t="n">
-        <v>191.1944815270388</v>
+        <v>191.1944815270389</v>
       </c>
       <c r="R22" t="n">
         <v>102.6650641225419</v>
       </c>
       <c r="S22" t="n">
-        <v>39.79153415343972</v>
+        <v>39.79153415343973</v>
       </c>
       <c r="T22" t="n">
-        <v>9.755879526404106</v>
+        <v>9.755879526404108</v>
       </c>
       <c r="U22" t="n">
         <v>0.1245431428902654</v>
@@ -32786,19 +32786,19 @@
         <v>93.76962888837031</v>
       </c>
       <c r="J24" t="n">
-        <v>257.3110287750808</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
         <v>439.785532074284</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>591.3459207794614</v>
       </c>
       <c r="M24" t="n">
         <v>690.0727975644778</v>
       </c>
       <c r="N24" t="n">
-        <v>708.3369711403146</v>
+        <v>203.4921041724112</v>
       </c>
       <c r="O24" t="n">
         <v>647.9899437334298</v>
@@ -32807,7 +32807,7 @@
         <v>520.0690576486454</v>
       </c>
       <c r="Q24" t="n">
-        <v>165.125664173859</v>
+        <v>347.6523922505897</v>
       </c>
       <c r="R24" t="n">
         <v>169.0959065660854</v>
@@ -33023,7 +33023,7 @@
         <v>93.76962888837031</v>
       </c>
       <c r="J27" t="n">
-        <v>257.3110287750808</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K27" t="n">
         <v>439.785532074284</v>
@@ -33032,10 +33032,10 @@
         <v>591.3459207794614</v>
       </c>
       <c r="M27" t="n">
-        <v>142.1340339220183</v>
+        <v>690.0727975644778</v>
       </c>
       <c r="N27" t="n">
-        <v>708.3369711403146</v>
+        <v>203.4921041724112</v>
       </c>
       <c r="O27" t="n">
         <v>647.9899437334298</v>
@@ -33044,7 +33044,7 @@
         <v>520.0690576486454</v>
       </c>
       <c r="Q27" t="n">
-        <v>260.272886816732</v>
+        <v>347.6523922505897</v>
       </c>
       <c r="R27" t="n">
         <v>169.0959065660854</v>
@@ -33263,25 +33263,25 @@
         <v>257.3110287750808</v>
       </c>
       <c r="K30" t="n">
-        <v>439.785532074284</v>
+        <v>352.4060266404257</v>
       </c>
       <c r="L30" t="n">
         <v>591.3459207794614</v>
       </c>
       <c r="M30" t="n">
-        <v>690.0727975644778</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N30" t="n">
         <v>708.3369711403146</v>
       </c>
       <c r="O30" t="n">
-        <v>220.3422928216806</v>
+        <v>647.9899437334298</v>
       </c>
       <c r="P30" t="n">
         <v>520.0690576486454</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>347.6523922505897</v>
       </c>
       <c r="R30" t="n">
         <v>169.0959065660854</v>
@@ -33500,19 +33500,19 @@
         <v>257.3110287750808</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>439.785532074284</v>
       </c>
       <c r="L33" t="n">
-        <v>257.9717448030686</v>
+        <v>591.3459207794614</v>
       </c>
       <c r="M33" t="n">
-        <v>690.0727975644778</v>
+        <v>560.1482277771454</v>
       </c>
       <c r="N33" t="n">
         <v>708.3369711403146</v>
       </c>
       <c r="O33" t="n">
-        <v>647.9899437334298</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P33" t="n">
         <v>520.0690576486454</v>
@@ -33740,22 +33740,22 @@
         <v>439.785532074284</v>
       </c>
       <c r="L36" t="n">
-        <v>591.3459207794614</v>
+        <v>461.421350992129</v>
       </c>
       <c r="M36" t="n">
         <v>690.0727975644778</v>
       </c>
       <c r="N36" t="n">
-        <v>280.6893202285655</v>
+        <v>708.3369711403146</v>
       </c>
       <c r="O36" t="n">
-        <v>647.9899437334298</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P36" t="n">
         <v>520.0690576486454</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>347.6523922505897</v>
       </c>
       <c r="R36" t="n">
         <v>169.0959065660854</v>
@@ -33971,7 +33971,7 @@
         <v>93.76962888837031</v>
       </c>
       <c r="J39" t="n">
-        <v>257.3110287750808</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K39" t="n">
         <v>439.785532074284</v>
@@ -33980,16 +33980,16 @@
         <v>591.3459207794614</v>
       </c>
       <c r="M39" t="n">
-        <v>142.1340339220183</v>
+        <v>690.0727975644778</v>
       </c>
       <c r="N39" t="n">
         <v>708.3369711403146</v>
       </c>
       <c r="O39" t="n">
-        <v>647.9899437334298</v>
+        <v>143.1450767655263</v>
       </c>
       <c r="P39" t="n">
-        <v>432.6895522147874</v>
+        <v>520.0690576486454</v>
       </c>
       <c r="Q39" t="n">
         <v>347.6523922505897</v>
@@ -34208,28 +34208,28 @@
         <v>93.76962888837031</v>
       </c>
       <c r="J42" t="n">
-        <v>257.3110287750808</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K42" t="n">
         <v>439.785532074284</v>
       </c>
       <c r="L42" t="n">
-        <v>591.3459207794614</v>
+        <v>294.171671976126</v>
       </c>
       <c r="M42" t="n">
         <v>690.0727975644778</v>
       </c>
       <c r="N42" t="n">
-        <v>131.3417120833333</v>
+        <v>708.3369711403146</v>
       </c>
       <c r="O42" t="n">
-        <v>589.6669337140935</v>
+        <v>647.9899437334298</v>
       </c>
       <c r="P42" t="n">
         <v>520.0690576486454</v>
       </c>
       <c r="Q42" t="n">
-        <v>347.6523922505897</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
         <v>169.0959065660854</v>
@@ -34445,10 +34445,10 @@
         <v>93.76962888837031</v>
       </c>
       <c r="J45" t="n">
-        <v>257.3110287750808</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K45" t="n">
-        <v>404.878924657069</v>
+        <v>439.785532074284</v>
       </c>
       <c r="L45" t="n">
         <v>591.3459207794614</v>
@@ -34457,7 +34457,7 @@
         <v>690.0727975644778</v>
       </c>
       <c r="N45" t="n">
-        <v>131.3417120833333</v>
+        <v>411.1627223369795</v>
       </c>
       <c r="O45" t="n">
         <v>647.9899437334298</v>
@@ -34466,10 +34466,10 @@
         <v>520.0690576486454</v>
       </c>
       <c r="Q45" t="n">
-        <v>347.6523922505897</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>145.679503963964</v>
+        <v>169.0959065660854</v>
       </c>
       <c r="S45" t="n">
         <v>50.58781889710165</v>
@@ -34675,13 +34675,13 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>4.562286607642875</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>4.562286607642875</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -34690,7 +34690,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0.1852657963311771</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -34735,7 +34735,7 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>0.1852657963311772</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -34787,10 +34787,10 @@
         <v>4.562286607642875</v>
       </c>
       <c r="N3" t="n">
+        <v>4.562286607642875</v>
+      </c>
+      <c r="O3" t="n">
         <v>4.377951795212859</v>
-      </c>
-      <c r="O3" t="n">
-        <v>4.562286607642875</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -34918,7 +34918,7 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>4.974916053893835</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -34975,7 +34975,7 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>4.974916053893835</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -35018,7 +35018,7 @@
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>6.876045741711437</v>
+        <v>6.598225711743296</v>
       </c>
       <c r="M6" t="n">
         <v>6.876045741711437</v>
@@ -35027,10 +35027,10 @@
         <v>6.876045741711437</v>
       </c>
       <c r="O6" t="n">
-        <v>5.273366026243323</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="P6" t="n">
-        <v>1.324859685499973</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
@@ -35149,7 +35149,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>4.974916053893835</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -35182,7 +35182,7 @@
         <v>2.180352849250227</v>
       </c>
       <c r="N8" t="n">
-        <v>6.876045741711437</v>
+        <v>6.876045741711465</v>
       </c>
       <c r="O8" t="n">
         <v>0</v>
@@ -35215,7 +35215,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>4.974916053893835</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -35258,16 +35258,16 @@
         <v>5.273366026243322</v>
       </c>
       <c r="M9" t="n">
-        <v>6.876045741711437</v>
+        <v>6.876045741711465</v>
       </c>
       <c r="N9" t="n">
-        <v>6.876045741711437</v>
+        <v>6.876045741711465</v>
       </c>
       <c r="O9" t="n">
-        <v>6.876045741711437</v>
+        <v>6.876045741711465</v>
       </c>
       <c r="P9" t="n">
-        <v>1.324859685499973</v>
+        <v>1.324859685500002</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>250.9789249586347</v>
+        <v>250.9789249586348</v>
       </c>
       <c r="K11" t="n">
-        <v>427.4033774696473</v>
+        <v>427.4033774696475</v>
       </c>
       <c r="L11" t="n">
-        <v>567.5061902702053</v>
+        <v>567.5061902702055</v>
       </c>
       <c r="M11" t="n">
-        <v>663.4493141635796</v>
+        <v>663.44931416358</v>
       </c>
       <c r="N11" t="n">
-        <v>678.845030185521</v>
+        <v>678.8450301855214</v>
       </c>
       <c r="O11" t="n">
-        <v>627.5441513694573</v>
+        <v>627.5441513694576</v>
       </c>
       <c r="P11" t="n">
-        <v>500.7449186296374</v>
+        <v>500.7449186296378</v>
       </c>
       <c r="Q11" t="n">
-        <v>327.3792398603972</v>
+        <v>327.3792398603973</v>
       </c>
       <c r="R11" t="n">
-        <v>104.1620837432669</v>
+        <v>104.162083743267</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,31 +35486,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>130.4734021084141</v>
+        <v>130.4734021084142</v>
       </c>
       <c r="K12" t="n">
-        <v>301.9440930999249</v>
+        <v>301.9440930999251</v>
       </c>
       <c r="L12" t="n">
-        <v>452.7915409995871</v>
+        <v>452.7915409995873</v>
       </c>
       <c r="M12" t="n">
-        <v>547.9387636424594</v>
+        <v>489.6157536231227</v>
       </c>
       <c r="N12" t="n">
-        <v>576.9952590569812</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>487.2571012136729</v>
+        <v>505.3936992889854</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>386.0946502343152</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>207.6706181645683</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>23.41640260212148</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>100.6560934670292</v>
+        <v>100.6560934670293</v>
       </c>
       <c r="K13" t="n">
-        <v>275.5940057378186</v>
+        <v>275.5940057378187</v>
       </c>
       <c r="L13" t="n">
-        <v>399.6397216056523</v>
+        <v>399.6397216056524</v>
       </c>
       <c r="M13" t="n">
-        <v>430.0867156454176</v>
+        <v>430.0867156454177</v>
       </c>
       <c r="N13" t="n">
-        <v>426.1245629653044</v>
+        <v>426.1245629653046</v>
       </c>
       <c r="O13" t="n">
-        <v>379.904528731117</v>
+        <v>379.9045287311171</v>
       </c>
       <c r="P13" t="n">
-        <v>306.0188246410113</v>
+        <v>306.0188246410115</v>
       </c>
       <c r="Q13" t="n">
-        <v>137.619041482781</v>
+        <v>137.6190414827811</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,31 +35644,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>250.978924958635</v>
+        <v>250.9789249586348</v>
       </c>
       <c r="K14" t="n">
-        <v>427.4033774696478</v>
+        <v>427.4033774696474</v>
       </c>
       <c r="L14" t="n">
-        <v>567.5061902702057</v>
+        <v>567.5061902702053</v>
       </c>
       <c r="M14" t="n">
-        <v>663.4493141635802</v>
+        <v>663.4493141635797</v>
       </c>
       <c r="N14" t="n">
-        <v>678.8450301855216</v>
+        <v>678.8450301855212</v>
       </c>
       <c r="O14" t="n">
-        <v>627.5441513694579</v>
+        <v>627.5441513694575</v>
       </c>
       <c r="P14" t="n">
-        <v>500.744918629638</v>
+        <v>500.7449186296377</v>
       </c>
       <c r="Q14" t="n">
-        <v>327.3792398603975</v>
+        <v>327.3792398603973</v>
       </c>
       <c r="R14" t="n">
-        <v>104.1620837432671</v>
+        <v>104.1620837432669</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>130.4734021084141</v>
       </c>
       <c r="K15" t="n">
-        <v>301.9440930999252</v>
+        <v>76.13687686004378</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>452.7915409995872</v>
       </c>
       <c r="M15" t="n">
-        <v>519.3018402762632</v>
+        <v>547.9387636424594</v>
       </c>
       <c r="N15" t="n">
-        <v>576.9952590569818</v>
+        <v>576.9952590569814</v>
       </c>
       <c r="O15" t="n">
-        <v>505.3936992889857</v>
+        <v>505.3936992889853</v>
       </c>
       <c r="P15" t="n">
-        <v>386.0946502343154</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>207.6706181645684</v>
+        <v>207.6706181645682</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35805,22 +35805,22 @@
         <v>100.6560934670293</v>
       </c>
       <c r="K16" t="n">
-        <v>275.5940057378187</v>
+        <v>275.594005737818</v>
       </c>
       <c r="L16" t="n">
-        <v>399.6397216056525</v>
+        <v>399.6397216056524</v>
       </c>
       <c r="M16" t="n">
-        <v>430.0867156454179</v>
+        <v>430.0867156454177</v>
       </c>
       <c r="N16" t="n">
-        <v>426.1245629653047</v>
+        <v>426.1245629653046</v>
       </c>
       <c r="O16" t="n">
-        <v>379.9045287311172</v>
+        <v>379.904528731117</v>
       </c>
       <c r="P16" t="n">
-        <v>306.0188246410115</v>
+        <v>306.0188246410114</v>
       </c>
       <c r="Q16" t="n">
         <v>137.6190414827811</v>
@@ -35884,28 +35884,28 @@
         <v>250.9789249586348</v>
       </c>
       <c r="K17" t="n">
-        <v>427.4033774696474</v>
+        <v>427.4033774696475</v>
       </c>
       <c r="L17" t="n">
-        <v>567.5061902702053</v>
+        <v>567.5061902702055</v>
       </c>
       <c r="M17" t="n">
-        <v>663.4493141635797</v>
+        <v>663.4493141635796</v>
       </c>
       <c r="N17" t="n">
-        <v>678.8450301855212</v>
+        <v>678.8450301855214</v>
       </c>
       <c r="O17" t="n">
-        <v>627.5441513694575</v>
+        <v>627.5441513694576</v>
       </c>
       <c r="P17" t="n">
-        <v>500.7449186296377</v>
+        <v>500.7449186296378</v>
       </c>
       <c r="Q17" t="n">
         <v>327.3792398603973</v>
       </c>
       <c r="R17" t="n">
-        <v>104.1620837432669</v>
+        <v>104.162083743267</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,31 +35960,31 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>130.4734021084141</v>
+        <v>130.4734021084142</v>
       </c>
       <c r="K18" t="n">
-        <v>301.944093099925</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>452.7915409995872</v>
+        <v>119.4173650231936</v>
       </c>
       <c r="M18" t="n">
-        <v>547.9387636424594</v>
+        <v>547.9387636424597</v>
       </c>
       <c r="N18" t="n">
-        <v>327.7716402149791</v>
+        <v>576.9952590569816</v>
       </c>
       <c r="O18" t="n">
-        <v>505.3936992889853</v>
+        <v>505.3936992889854</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>386.0946502343152</v>
       </c>
       <c r="Q18" t="n">
-        <v>207.6706181645682</v>
+        <v>207.6706181645683</v>
       </c>
       <c r="R18" t="n">
-        <v>23.41640260212145</v>
+        <v>23.41640260212148</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,28 +36039,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>103.8785531239285</v>
+        <v>103.8785531239286</v>
       </c>
       <c r="K19" t="n">
-        <v>278.8164653947178</v>
+        <v>278.816465394718</v>
       </c>
       <c r="L19" t="n">
-        <v>402.8621812625515</v>
+        <v>402.8621812625517</v>
       </c>
       <c r="M19" t="n">
-        <v>354.9232797934893</v>
+        <v>433.309175302317</v>
       </c>
       <c r="N19" t="n">
-        <v>429.3470226222037</v>
+        <v>429.3470226222039</v>
       </c>
       <c r="O19" t="n">
-        <v>383.1269883880162</v>
+        <v>304.7410928791856</v>
       </c>
       <c r="P19" t="n">
-        <v>309.2412842979106</v>
+        <v>309.2412842979107</v>
       </c>
       <c r="Q19" t="n">
-        <v>140.8415011396803</v>
+        <v>140.8415011396804</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36121,28 +36121,28 @@
         <v>250.9789249586348</v>
       </c>
       <c r="K20" t="n">
-        <v>427.4033774696474</v>
+        <v>427.4033774696475</v>
       </c>
       <c r="L20" t="n">
-        <v>567.5061902702053</v>
+        <v>567.5061902702055</v>
       </c>
       <c r="M20" t="n">
-        <v>663.4493141635797</v>
+        <v>663.44931416358</v>
       </c>
       <c r="N20" t="n">
-        <v>678.8450301855212</v>
+        <v>678.8450301855214</v>
       </c>
       <c r="O20" t="n">
-        <v>627.5441513694575</v>
+        <v>627.5441513694576</v>
       </c>
       <c r="P20" t="n">
-        <v>500.7449186296377</v>
+        <v>500.7449186296378</v>
       </c>
       <c r="Q20" t="n">
         <v>327.3792398603973</v>
       </c>
       <c r="R20" t="n">
-        <v>104.1620837432669</v>
+        <v>104.162083743267</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,31 +36197,31 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>130.4734021084141</v>
+        <v>0.5488323210808908</v>
       </c>
       <c r="K21" t="n">
-        <v>301.944093099925</v>
+        <v>301.9440930999251</v>
       </c>
       <c r="L21" t="n">
-        <v>452.7915409995872</v>
+        <v>452.7915409995873</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>547.9387636424597</v>
       </c>
       <c r="N21" t="n">
-        <v>576.9952590569814</v>
+        <v>576.9952590569816</v>
       </c>
       <c r="O21" t="n">
-        <v>418.0141938551271</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
         <v>386.0946502343152</v>
       </c>
       <c r="Q21" t="n">
-        <v>207.6706181645682</v>
+        <v>207.6706181645683</v>
       </c>
       <c r="R21" t="n">
-        <v>23.41640260212145</v>
+        <v>23.41640260212148</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,28 +36276,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>103.8785531239285</v>
+        <v>70.24231180120523</v>
       </c>
       <c r="K22" t="n">
-        <v>278.8164653947178</v>
+        <v>234.0668112086105</v>
       </c>
       <c r="L22" t="n">
-        <v>402.8621812625515</v>
+        <v>402.8621812625517</v>
       </c>
       <c r="M22" t="n">
-        <v>433.3091753023169</v>
+        <v>433.309175302317</v>
       </c>
       <c r="N22" t="n">
-        <v>350.9611271133761</v>
+        <v>429.3470226222039</v>
       </c>
       <c r="O22" t="n">
-        <v>383.1269883880162</v>
+        <v>383.1269883880163</v>
       </c>
       <c r="P22" t="n">
-        <v>309.2412842979106</v>
+        <v>309.2412842979107</v>
       </c>
       <c r="Q22" t="n">
-        <v>140.8415011396803</v>
+        <v>140.8415011396804</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36434,19 +36434,19 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>130.4734021084141</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>301.944093099925</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>452.7915409995872</v>
       </c>
       <c r="M24" t="n">
         <v>547.9387636424594</v>
       </c>
       <c r="N24" t="n">
-        <v>576.9952590569814</v>
+        <v>72.15039208907787</v>
       </c>
       <c r="O24" t="n">
         <v>505.3936992889853</v>
@@ -36455,7 +36455,7 @@
         <v>386.0946502343152</v>
       </c>
       <c r="Q24" t="n">
-        <v>25.14389008783745</v>
+        <v>207.6706181645682</v>
       </c>
       <c r="R24" t="n">
         <v>23.41640260212145</v>
@@ -36513,28 +36513,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>103.8785531239285</v>
+        <v>103.8785531239286</v>
       </c>
       <c r="K25" t="n">
-        <v>278.8164653947178</v>
+        <v>278.8164653947179</v>
       </c>
       <c r="L25" t="n">
-        <v>402.8621812625515</v>
+        <v>402.8621812625516</v>
       </c>
       <c r="M25" t="n">
-        <v>354.9232797934893</v>
+        <v>433.3091753023169</v>
       </c>
       <c r="N25" t="n">
-        <v>429.3470226222037</v>
+        <v>350.9611271133733</v>
       </c>
       <c r="O25" t="n">
-        <v>383.1269883880162</v>
+        <v>383.1269883880163</v>
       </c>
       <c r="P25" t="n">
-        <v>309.2412842979106</v>
+        <v>309.2412842979107</v>
       </c>
       <c r="Q25" t="n">
-        <v>140.8415011396803</v>
+        <v>140.8415011396804</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36671,7 +36671,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>130.4734021084141</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>301.944093099925</v>
@@ -36680,10 +36680,10 @@
         <v>452.7915409995872</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>547.9387636424594</v>
       </c>
       <c r="N27" t="n">
-        <v>576.9952590569814</v>
+        <v>72.15039208907787</v>
       </c>
       <c r="O27" t="n">
         <v>505.3936992889853</v>
@@ -36692,7 +36692,7 @@
         <v>386.0946502343152</v>
       </c>
       <c r="Q27" t="n">
-        <v>120.2911127307105</v>
+        <v>207.6706181645682</v>
       </c>
       <c r="R27" t="n">
         <v>23.41640260212145</v>
@@ -36756,7 +36756,7 @@
         <v>275.5940057378186</v>
       </c>
       <c r="L28" t="n">
-        <v>399.6397216056523</v>
+        <v>399.6397216056524</v>
       </c>
       <c r="M28" t="n">
         <v>430.0867156454177</v>
@@ -36765,10 +36765,10 @@
         <v>426.1245629653046</v>
       </c>
       <c r="O28" t="n">
-        <v>379.904528731117</v>
+        <v>379.9045287311171</v>
       </c>
       <c r="P28" t="n">
-        <v>306.0188246410114</v>
+        <v>306.0188246410115</v>
       </c>
       <c r="Q28" t="n">
         <v>137.6190414827811</v>
@@ -36911,25 +36911,25 @@
         <v>130.4734021084141</v>
       </c>
       <c r="K30" t="n">
-        <v>301.944093099925</v>
+        <v>214.5645876660667</v>
       </c>
       <c r="L30" t="n">
         <v>452.7915409995872</v>
       </c>
       <c r="M30" t="n">
-        <v>547.9387636424594</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
         <v>576.9952590569814</v>
       </c>
       <c r="O30" t="n">
-        <v>77.74604837723615</v>
+        <v>505.3936992889853</v>
       </c>
       <c r="P30" t="n">
         <v>386.0946502343152</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>207.6706181645682</v>
       </c>
       <c r="R30" t="n">
         <v>23.41640260212145</v>
@@ -36993,7 +36993,7 @@
         <v>275.5940057378186</v>
       </c>
       <c r="L31" t="n">
-        <v>399.6397216056523</v>
+        <v>399.6397216056524</v>
       </c>
       <c r="M31" t="n">
         <v>430.0867156454177</v>
@@ -37002,10 +37002,10 @@
         <v>426.1245629653046</v>
       </c>
       <c r="O31" t="n">
-        <v>379.904528731117</v>
+        <v>379.9045287311171</v>
       </c>
       <c r="P31" t="n">
-        <v>306.0188246410114</v>
+        <v>306.0188246410115</v>
       </c>
       <c r="Q31" t="n">
         <v>137.6190414827811</v>
@@ -37148,19 +37148,19 @@
         <v>130.4734021084141</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>301.944093099925</v>
       </c>
       <c r="L33" t="n">
-        <v>119.4173650231944</v>
+        <v>452.7915409995872</v>
       </c>
       <c r="M33" t="n">
-        <v>547.9387636424594</v>
+        <v>418.0141938551271</v>
       </c>
       <c r="N33" t="n">
         <v>576.9952590569814</v>
       </c>
       <c r="O33" t="n">
-        <v>505.3936992889853</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
         <v>386.0946502343152</v>
@@ -37227,16 +37227,16 @@
         <v>103.8785531239286</v>
       </c>
       <c r="K34" t="n">
-        <v>278.8164653947179</v>
+        <v>200.4305698858868</v>
       </c>
       <c r="L34" t="n">
         <v>402.8621812625516</v>
       </c>
       <c r="M34" t="n">
-        <v>354.9232797934864</v>
+        <v>433.309175302317</v>
       </c>
       <c r="N34" t="n">
-        <v>429.3470226222038</v>
+        <v>429.3470226222039</v>
       </c>
       <c r="O34" t="n">
         <v>383.1269883880163</v>
@@ -37388,22 +37388,22 @@
         <v>301.944093099925</v>
       </c>
       <c r="L36" t="n">
-        <v>452.7915409995872</v>
+        <v>322.8669712122548</v>
       </c>
       <c r="M36" t="n">
         <v>547.9387636424594</v>
       </c>
       <c r="N36" t="n">
-        <v>149.3476081452322</v>
+        <v>576.9952590569814</v>
       </c>
       <c r="O36" t="n">
-        <v>505.3936992889853</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
         <v>386.0946502343152</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>207.6706181645682</v>
       </c>
       <c r="R36" t="n">
         <v>23.41640260212145</v>
@@ -37467,10 +37467,10 @@
         <v>278.8164653947179</v>
       </c>
       <c r="L37" t="n">
-        <v>324.4762857537217</v>
+        <v>402.8621812625516</v>
       </c>
       <c r="M37" t="n">
-        <v>433.3091753023169</v>
+        <v>354.923279793487</v>
       </c>
       <c r="N37" t="n">
         <v>429.3470226222038</v>
@@ -37619,7 +37619,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>130.4734021084141</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>301.944093099925</v>
@@ -37628,16 +37628,16 @@
         <v>452.7915409995872</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>547.9387636424594</v>
       </c>
       <c r="N39" t="n">
         <v>576.9952590569814</v>
       </c>
       <c r="O39" t="n">
-        <v>505.3936992889853</v>
+        <v>0.5488323210818524</v>
       </c>
       <c r="P39" t="n">
-        <v>298.7151448004572</v>
+        <v>386.0946502343152</v>
       </c>
       <c r="Q39" t="n">
         <v>207.6706181645682</v>
@@ -37701,22 +37701,22 @@
         <v>103.8785531239285</v>
       </c>
       <c r="K40" t="n">
-        <v>278.8164653947179</v>
+        <v>278.8164653947178</v>
       </c>
       <c r="L40" t="n">
-        <v>402.8621812625516</v>
+        <v>324.476285753724</v>
       </c>
       <c r="M40" t="n">
         <v>433.3091753023169</v>
       </c>
       <c r="N40" t="n">
-        <v>350.9611271133738</v>
+        <v>429.3470226222037</v>
       </c>
       <c r="O40" t="n">
-        <v>383.1269883880163</v>
+        <v>383.1269883880162</v>
       </c>
       <c r="P40" t="n">
-        <v>309.2412842979107</v>
+        <v>309.2412842979106</v>
       </c>
       <c r="Q40" t="n">
         <v>140.8415011396803</v>
@@ -37792,7 +37792,7 @@
         <v>678.8450301855212</v>
       </c>
       <c r="O41" t="n">
-        <v>627.5441513694575</v>
+        <v>627.5441513694585</v>
       </c>
       <c r="P41" t="n">
         <v>500.7449186296377</v>
@@ -37856,28 +37856,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>130.4734021084141</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>301.944093099925</v>
       </c>
       <c r="L42" t="n">
-        <v>452.7915409995872</v>
+        <v>155.6172921962518</v>
       </c>
       <c r="M42" t="n">
         <v>547.9387636424594</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>576.9952590569814</v>
       </c>
       <c r="O42" t="n">
-        <v>447.0706892696491</v>
+        <v>505.3936992889853</v>
       </c>
       <c r="P42" t="n">
         <v>386.0946502343152</v>
       </c>
       <c r="Q42" t="n">
-        <v>207.6706181645682</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>23.41640260212145</v>
@@ -37935,28 +37935,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>100.6560934670293</v>
+        <v>100.6560934670292</v>
       </c>
       <c r="K43" t="n">
         <v>275.5940057378186</v>
       </c>
       <c r="L43" t="n">
-        <v>399.6397216056524</v>
+        <v>399.6397216056523</v>
       </c>
       <c r="M43" t="n">
-        <v>430.0867156454177</v>
+        <v>430.0867156454176</v>
       </c>
       <c r="N43" t="n">
-        <v>426.1245629653046</v>
+        <v>426.1245629653045</v>
       </c>
       <c r="O43" t="n">
         <v>379.904528731117</v>
       </c>
       <c r="P43" t="n">
-        <v>306.0188246410114</v>
+        <v>306.0188246410113</v>
       </c>
       <c r="Q43" t="n">
-        <v>137.6190414827811</v>
+        <v>137.619041482781</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38093,10 +38093,10 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>130.4734021084141</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>267.03748568271</v>
+        <v>301.944093099925</v>
       </c>
       <c r="L45" t="n">
         <v>452.7915409995872</v>
@@ -38105,7 +38105,7 @@
         <v>547.9387636424594</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>279.8210102536463</v>
       </c>
       <c r="O45" t="n">
         <v>505.3936992889853</v>
@@ -38114,10 +38114,10 @@
         <v>386.0946502343152</v>
       </c>
       <c r="Q45" t="n">
-        <v>207.6706181645682</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>23.41640260212145</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
